--- a/BackTest/2019-10-19 BackTest EOS.xlsx
+++ b/BackTest/2019-10-19 BackTest EOS.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>15</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>6.666666666666667</v>
+      </c>
       <c r="L12" t="n">
         <v>3391.3</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>15</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-7.692307692307693</v>
+      </c>
       <c r="L13" t="n">
         <v>3391.4</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>15</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-7.692307692307693</v>
+      </c>
       <c r="L14" t="n">
         <v>3391.3</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>17</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>3391.4</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>19</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-50</v>
+      </c>
       <c r="L16" t="n">
         <v>3391.2</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>19</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>3390.6</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>20</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L18" t="n">
         <v>3390.4</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>20</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L19" t="n">
         <v>3390.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>21</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L20" t="n">
         <v>3390.5</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>21</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>3390.4</v>
       </c>
@@ -1375,7 +1395,9 @@
       <c r="J22" t="n">
         <v>24</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>3390.7</v>
       </c>
@@ -1431,7 +1453,7 @@
         <v>34</v>
       </c>
       <c r="K23" t="n">
-        <v>41.17647058823529</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L23" t="n">
         <v>3392</v>
@@ -1492,7 +1514,7 @@
         <v>37</v>
       </c>
       <c r="K24" t="n">
-        <v>25.71428571428571</v>
+        <v>40</v>
       </c>
       <c r="L24" t="n">
         <v>3393</v>
@@ -1553,7 +1575,7 @@
         <v>42</v>
       </c>
       <c r="K25" t="n">
-        <v>35</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L25" t="n">
         <v>3394.3</v>
@@ -1614,7 +1636,7 @@
         <v>44</v>
       </c>
       <c r="K26" t="n">
-        <v>26.82926829268293</v>
+        <v>52</v>
       </c>
       <c r="L26" t="n">
         <v>3395.6</v>
@@ -1675,7 +1697,7 @@
         <v>44</v>
       </c>
       <c r="K27" t="n">
-        <v>18.91891891891892</v>
+        <v>50</v>
       </c>
       <c r="L27" t="n">
         <v>3396.9</v>
@@ -1736,7 +1758,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="n">
-        <v>33.33333333333333</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L28" t="n">
         <v>3398.3</v>
@@ -1797,7 +1819,7 @@
         <v>50</v>
       </c>
       <c r="K29" t="n">
-        <v>29.72972972972973</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L29" t="n">
         <v>3399.3</v>
@@ -1858,7 +1880,7 @@
         <v>51</v>
       </c>
       <c r="K30" t="n">
-        <v>26.31578947368421</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L30" t="n">
         <v>3400.3</v>
@@ -1919,7 +1941,7 @@
         <v>53</v>
       </c>
       <c r="K31" t="n">
-        <v>17.94871794871795</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L31" t="n">
         <v>3401.1</v>
@@ -1982,7 +2004,7 @@
         <v>53</v>
       </c>
       <c r="K32" t="n">
-        <v>21.05263157894737</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L32" t="n">
         <v>3401.6</v>
@@ -2039,7 +2061,7 @@
         <v>54</v>
       </c>
       <c r="K33" t="n">
-        <v>23.07692307692308</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L33" t="n">
         <v>3401.2</v>
@@ -2098,7 +2120,7 @@
         <v>55</v>
       </c>
       <c r="K34" t="n">
-        <v>25</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L34" t="n">
         <v>3401.2</v>
@@ -2159,7 +2181,7 @@
         <v>55</v>
       </c>
       <c r="K35" t="n">
-        <v>21.05263157894737</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L35" t="n">
         <v>3400.7</v>
@@ -2220,7 +2242,7 @@
         <v>57</v>
       </c>
       <c r="K36" t="n">
-        <v>21.05263157894737</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L36" t="n">
         <v>3400.2</v>
@@ -2281,7 +2303,7 @@
         <v>62</v>
       </c>
       <c r="K37" t="n">
-        <v>30.23255813953488</v>
+        <v>-12.5</v>
       </c>
       <c r="L37" t="n">
         <v>3400.2</v>
@@ -2342,7 +2364,7 @@
         <v>63</v>
       </c>
       <c r="K38" t="n">
-        <v>25.58139534883721</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L38" t="n">
         <v>3399.9</v>
@@ -2403,7 +2425,7 @@
         <v>64</v>
       </c>
       <c r="K39" t="n">
-        <v>27.27272727272727</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L39" t="n">
         <v>3400.1</v>
@@ -2464,7 +2486,7 @@
         <v>67</v>
       </c>
       <c r="K40" t="n">
-        <v>21.73913043478261</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L40" t="n">
         <v>3400.1</v>
@@ -2521,7 +2543,7 @@
         <v>67</v>
       </c>
       <c r="K41" t="n">
-        <v>21.73913043478261</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L41" t="n">
         <v>3400.3</v>
@@ -2578,7 +2600,7 @@
         <v>67</v>
       </c>
       <c r="K42" t="n">
-        <v>16.27906976744186</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L42" t="n">
         <v>3400.5</v>
@@ -2635,7 +2657,7 @@
         <v>70</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L43" t="n">
         <v>3400.9</v>
@@ -2686,7 +2708,7 @@
         <v>70</v>
       </c>
       <c r="K44" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L44" t="n">
         <v>3401.2</v>
@@ -2737,7 +2759,7 @@
         <v>71</v>
       </c>
       <c r="K45" t="n">
-        <v>-10.3448275862069</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L45" t="n">
         <v>3401.4</v>
@@ -2788,7 +2810,7 @@
         <v>115</v>
       </c>
       <c r="K46" t="n">
-        <v>60.56338028169014</v>
+        <v>81.13207547169812</v>
       </c>
       <c r="L46" t="n">
         <v>3406.2</v>
@@ -2839,7 +2861,7 @@
         <v>119</v>
       </c>
       <c r="K47" t="n">
-        <v>52</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L47" t="n">
         <v>3410.1</v>
@@ -2890,7 +2912,7 @@
         <v>144</v>
       </c>
       <c r="K48" t="n">
-        <v>63.26530612244898</v>
+        <v>80</v>
       </c>
       <c r="L48" t="n">
         <v>3416.6</v>
@@ -2941,7 +2963,7 @@
         <v>156</v>
       </c>
       <c r="K49" t="n">
-        <v>50.9433962264151</v>
+        <v>61.79775280898876</v>
       </c>
       <c r="L49" t="n">
         <v>3421.8</v>
@@ -2992,7 +3014,7 @@
         <v>163</v>
       </c>
       <c r="K50" t="n">
-        <v>42.85714285714285</v>
+        <v>50</v>
       </c>
       <c r="L50" t="n">
         <v>3426.6</v>
@@ -3043,7 +3065,7 @@
         <v>170</v>
       </c>
       <c r="K51" t="n">
-        <v>36.75213675213676</v>
+        <v>39.80582524271845</v>
       </c>
       <c r="L51" t="n">
         <v>3430.7</v>
@@ -3094,7 +3116,7 @@
         <v>175</v>
       </c>
       <c r="K52" t="n">
-        <v>39.34426229508197</v>
+        <v>40.95238095238095</v>
       </c>
       <c r="L52" t="n">
         <v>3435.3</v>
@@ -3145,7 +3167,7 @@
         <v>179</v>
       </c>
       <c r="K53" t="n">
-        <v>40.8</v>
+        <v>43.11926605504588</v>
       </c>
       <c r="L53" t="n">
         <v>3440</v>
@@ -3196,7 +3218,7 @@
         <v>179</v>
       </c>
       <c r="K54" t="n">
-        <v>40.32258064516129</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L54" t="n">
         <v>3444.7</v>
@@ -3247,7 +3269,7 @@
         <v>180</v>
       </c>
       <c r="K55" t="n">
-        <v>40.8</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L55" t="n">
         <v>3449.6</v>
@@ -3298,7 +3320,7 @@
         <v>186</v>
       </c>
       <c r="K56" t="n">
-        <v>36.43410852713178</v>
+        <v>4.477611940298507</v>
       </c>
       <c r="L56" t="n">
         <v>3449.5</v>
@@ -3349,7 +3371,7 @@
         <v>188</v>
       </c>
       <c r="K57" t="n">
-        <v>31.74603174603174</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L57" t="n">
         <v>3449.6</v>
@@ -3400,7 +3422,7 @@
         <v>191</v>
       </c>
       <c r="K58" t="n">
-        <v>29.6875</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L58" t="n">
         <v>3446.9</v>
@@ -3451,7 +3473,7 @@
         <v>192</v>
       </c>
       <c r="K59" t="n">
-        <v>29.6875</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L59" t="n">
         <v>3445.5</v>
@@ -3502,7 +3524,7 @@
         <v>194</v>
       </c>
       <c r="K60" t="n">
-        <v>33.85826771653544</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L60" t="n">
         <v>3445</v>
@@ -3553,7 +3575,7 @@
         <v>196</v>
       </c>
       <c r="K61" t="n">
-        <v>34.88372093023256</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L61" t="n">
         <v>3445.4</v>
@@ -3604,7 +3626,7 @@
         <v>197</v>
       </c>
       <c r="K62" t="n">
-        <v>35.38461538461539</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L62" t="n">
         <v>3445.4</v>
@@ -3655,7 +3677,7 @@
         <v>203</v>
       </c>
       <c r="K63" t="n">
-        <v>27.81954887218045</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L63" t="n">
         <v>3444.4</v>
@@ -3706,7 +3728,7 @@
         <v>206</v>
       </c>
       <c r="K64" t="n">
-        <v>29.41176470588236</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L64" t="n">
         <v>3443.7</v>
@@ -3757,7 +3779,7 @@
         <v>207</v>
       </c>
       <c r="K65" t="n">
-        <v>29.41176470588236</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L65" t="n">
         <v>3442.8</v>
@@ -3808,7 +3830,7 @@
         <v>209</v>
       </c>
       <c r="K66" t="n">
-        <v>-6.382978723404255</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L66" t="n">
         <v>3442.3</v>
@@ -3859,7 +3881,7 @@
         <v>211</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L67" t="n">
         <v>3442.2</v>
@@ -3910,7 +3932,7 @@
         <v>217</v>
       </c>
       <c r="K68" t="n">
-        <v>-42.46575342465754</v>
+        <v>-20</v>
       </c>
       <c r="L68" t="n">
         <v>3441.8</v>
@@ -3961,7 +3983,7 @@
         <v>220</v>
       </c>
       <c r="K69" t="n">
-        <v>-25</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L69" t="n">
         <v>3441.6</v>
@@ -4012,7 +4034,7 @@
         <v>220</v>
       </c>
       <c r="K70" t="n">
-        <v>-15.78947368421053</v>
+        <v>-25</v>
       </c>
       <c r="L70" t="n">
         <v>3441.2</v>
@@ -4063,7 +4085,7 @@
         <v>224</v>
       </c>
       <c r="K71" t="n">
-        <v>3.703703703703703</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L71" t="n">
         <v>3441</v>
@@ -4114,7 +4136,7 @@
         <v>226</v>
       </c>
       <c r="K72" t="n">
-        <v>-1.96078431372549</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L72" t="n">
         <v>3440.9</v>
@@ -4165,7 +4187,7 @@
         <v>227</v>
       </c>
       <c r="K73" t="n">
-        <v>-8.333333333333332</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L73" t="n">
         <v>3441.5</v>
@@ -4216,7 +4238,7 @@
         <v>228</v>
       </c>
       <c r="K74" t="n">
-        <v>-10.20408163265306</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L74" t="n">
         <v>3441.7</v>
@@ -4267,7 +4289,7 @@
         <v>233</v>
       </c>
       <c r="K75" t="n">
-        <v>-1.886792452830189</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L75" t="n">
         <v>3442.5</v>
@@ -4318,7 +4340,7 @@
         <v>249</v>
       </c>
       <c r="K76" t="n">
-        <v>33.33333333333333</v>
+        <v>63.1578947368421</v>
       </c>
       <c r="L76" t="n">
         <v>3445.1</v>
@@ -4369,7 +4391,7 @@
         <v>261</v>
       </c>
       <c r="K77" t="n">
-        <v>15.06849315068493</v>
+        <v>40.90909090909091</v>
       </c>
       <c r="L77" t="n">
         <v>3446.3</v>
@@ -4420,7 +4442,7 @@
         <v>263</v>
       </c>
       <c r="K78" t="n">
-        <v>22.22222222222222</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="L78" t="n">
         <v>3448.3</v>
@@ -4471,7 +4493,7 @@
         <v>270</v>
       </c>
       <c r="K79" t="n">
-        <v>28.2051282051282</v>
+        <v>48</v>
       </c>
       <c r="L79" t="n">
         <v>3450.7</v>
@@ -4522,7 +4544,7 @@
         <v>271</v>
       </c>
       <c r="K80" t="n">
-        <v>24.67532467532467</v>
+        <v>40.42553191489361</v>
       </c>
       <c r="L80" t="n">
         <v>3453</v>
@@ -4573,7 +4595,7 @@
         <v>281</v>
       </c>
       <c r="K81" t="n">
-        <v>8.235294117647058</v>
+        <v>12.72727272727273</v>
       </c>
       <c r="L81" t="n">
         <v>3453.9</v>
@@ -4624,7 +4646,7 @@
         <v>285</v>
       </c>
       <c r="K82" t="n">
-        <v>2.272727272727273</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L82" t="n">
         <v>3454.2</v>
@@ -4675,7 +4697,7 @@
         <v>289</v>
       </c>
       <c r="K83" t="n">
-        <v>4.651162790697675</v>
+        <v>-1.639344262295082</v>
       </c>
       <c r="L83" t="n">
         <v>3454</v>
@@ -4726,7 +4748,7 @@
         <v>298</v>
       </c>
       <c r="K84" t="n">
-        <v>10.8695652173913</v>
+        <v>4.615384615384616</v>
       </c>
       <c r="L84" t="n">
         <v>3454.8</v>
@@ -4777,7 +4799,7 @@
         <v>300</v>
       </c>
       <c r="K85" t="n">
-        <v>9.67741935483871</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L85" t="n">
         <v>3454.9</v>
@@ -4828,7 +4850,7 @@
         <v>300</v>
       </c>
       <c r="K86" t="n">
-        <v>12.08791208791209</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L86" t="n">
         <v>3453.4</v>
@@ -4879,7 +4901,7 @@
         <v>302</v>
       </c>
       <c r="K87" t="n">
-        <v>7.692307692307693</v>
+        <v>-17.94871794871795</v>
       </c>
       <c r="L87" t="n">
         <v>3452.9</v>
@@ -4930,7 +4952,7 @@
         <v>302</v>
       </c>
       <c r="K88" t="n">
-        <v>15.29411764705882</v>
+        <v>-43.75</v>
       </c>
       <c r="L88" t="n">
         <v>3452.2</v>
@@ -4981,7 +5003,7 @@
         <v>304</v>
       </c>
       <c r="K89" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>3451</v>
@@ -5032,7 +5054,7 @@
         <v>304</v>
       </c>
       <c r="K90" t="n">
-        <v>14.28571428571428</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L90" t="n">
         <v>3449.9</v>
@@ -5083,7 +5105,7 @@
         <v>307</v>
       </c>
       <c r="K91" t="n">
-        <v>6.024096385542169</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>3449.5</v>
@@ -5134,7 +5156,7 @@
         <v>308</v>
       </c>
       <c r="K92" t="n">
-        <v>2.439024390243902</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L92" t="n">
         <v>3449.4</v>
@@ -5185,7 +5207,7 @@
         <v>310</v>
       </c>
       <c r="K93" t="n">
-        <v>3.614457831325301</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L93" t="n">
         <v>3449.9</v>
@@ -5236,7 +5258,7 @@
         <v>313</v>
       </c>
       <c r="K94" t="n">
-        <v>8.235294117647058</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L94" t="n">
         <v>3449.8</v>
@@ -5287,7 +5309,7 @@
         <v>314</v>
       </c>
       <c r="K95" t="n">
-        <v>1.234567901234568</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>3449.8</v>
@@ -5338,7 +5360,7 @@
         <v>318</v>
       </c>
       <c r="K96" t="n">
-        <v>-15.94202898550724</v>
+        <v>37.5</v>
       </c>
       <c r="L96" t="n">
         <v>3450.2</v>
@@ -5389,7 +5411,7 @@
         <v>319</v>
       </c>
       <c r="K97" t="n">
-        <v>3.448275862068965</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L97" t="n">
         <v>3450.9</v>
@@ -5440,7 +5462,7 @@
         <v>323</v>
       </c>
       <c r="K98" t="n">
-        <v>6.666666666666667</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L98" t="n">
         <v>3452</v>
@@ -5491,7 +5513,7 @@
         <v>326</v>
       </c>
       <c r="K99" t="n">
-        <v>-10.71428571428571</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L99" t="n">
         <v>3452.6</v>
@@ -5542,7 +5564,7 @@
         <v>327</v>
       </c>
       <c r="K100" t="n">
-        <v>-7.142857142857142</v>
+        <v>50</v>
       </c>
       <c r="L100" t="n">
         <v>3453.3</v>
@@ -5593,7 +5615,7 @@
         <v>329</v>
       </c>
       <c r="K101" t="n">
-        <v>16.66666666666666</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L101" t="n">
         <v>3454.5</v>
@@ -5644,7 +5666,7 @@
         <v>335</v>
       </c>
       <c r="K102" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L102" t="n">
         <v>3455.2</v>
@@ -5695,7 +5717,7 @@
         <v>335</v>
       </c>
       <c r="K103" t="n">
-        <v>21.73913043478261</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L103" t="n">
         <v>3455.7</v>
@@ -5746,7 +5768,7 @@
         <v>335</v>
       </c>
       <c r="K104" t="n">
-        <v>2.702702702702703</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L104" t="n">
         <v>3455.9</v>
@@ -5797,7 +5819,7 @@
         <v>336</v>
       </c>
       <c r="K105" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>3456.3</v>
@@ -5848,7 +5870,7 @@
         <v>337</v>
       </c>
       <c r="K106" t="n">
-        <v>8.108108108108109</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L106" t="n">
         <v>3456.2</v>
@@ -5899,7 +5921,7 @@
         <v>341</v>
       </c>
       <c r="K107" t="n">
-        <v>2.564102564102564</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L107" t="n">
         <v>3455.6</v>
@@ -5950,7 +5972,7 @@
         <v>349</v>
       </c>
       <c r="K108" t="n">
-        <v>-14.8936170212766</v>
+        <v>-65.21739130434783</v>
       </c>
       <c r="L108" t="n">
         <v>3453.8</v>
@@ -6001,7 +6023,7 @@
         <v>351</v>
       </c>
       <c r="K109" t="n">
-        <v>-23.40425531914894</v>
+        <v>-75</v>
       </c>
       <c r="L109" t="n">
         <v>3452.1</v>
@@ -6052,7 +6074,7 @@
         <v>351</v>
       </c>
       <c r="K110" t="n">
-        <v>-23.40425531914894</v>
+        <v>-90.90909090909091</v>
       </c>
       <c r="L110" t="n">
         <v>3450.3</v>
@@ -6103,7 +6125,7 @@
         <v>354</v>
       </c>
       <c r="K111" t="n">
-        <v>-10.63829787234043</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L111" t="n">
         <v>3448.6</v>
@@ -6154,7 +6176,7 @@
         <v>354</v>
       </c>
       <c r="K112" t="n">
-        <v>-8.695652173913043</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L112" t="n">
         <v>3447.5</v>
@@ -6205,7 +6227,7 @@
         <v>357</v>
       </c>
       <c r="K113" t="n">
-        <v>-19.14893617021277</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L113" t="n">
         <v>3446.1</v>
@@ -6256,7 +6278,7 @@
         <v>359</v>
       </c>
       <c r="K114" t="n">
-        <v>-30.43478260869566</v>
+        <v>-73.91304347826086</v>
       </c>
       <c r="L114" t="n">
         <v>3444.5</v>
@@ -6307,7 +6329,7 @@
         <v>361</v>
       </c>
       <c r="K115" t="n">
-        <v>-31.91489361702128</v>
+        <v>-75</v>
       </c>
       <c r="L115" t="n">
         <v>3442.6</v>
@@ -6358,7 +6380,7 @@
         <v>367</v>
       </c>
       <c r="K116" t="n">
-        <v>-51.02040816326531</v>
+        <v>-76.92307692307693</v>
       </c>
       <c r="L116" t="n">
         <v>3440.2</v>
@@ -6409,7 +6431,7 @@
         <v>371</v>
       </c>
       <c r="K117" t="n">
-        <v>-42.30769230769231</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L117" t="n">
         <v>3438.6</v>
@@ -6460,7 +6482,7 @@
         <v>376</v>
       </c>
       <c r="K118" t="n">
-        <v>-58.49056603773585</v>
+        <v>-44</v>
       </c>
       <c r="L118" t="n">
         <v>3437.3</v>
@@ -6511,7 +6533,7 @@
         <v>379</v>
       </c>
       <c r="K119" t="n">
-        <v>-47.16981132075472</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L119" t="n">
         <v>3436.5</v>
@@ -6562,7 +6584,7 @@
         <v>380</v>
       </c>
       <c r="K120" t="n">
-        <v>-47.16981132075472</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L120" t="n">
         <v>3435.8</v>
@@ -6613,7 +6635,7 @@
         <v>383</v>
       </c>
       <c r="K121" t="n">
-        <v>-44.44444444444444</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L121" t="n">
         <v>3435.1</v>
@@ -6664,7 +6686,7 @@
         <v>384</v>
       </c>
       <c r="K122" t="n">
-        <v>-34.69387755102041</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L122" t="n">
         <v>3434.5</v>
@@ -6715,7 +6737,7 @@
         <v>385</v>
       </c>
       <c r="K123" t="n">
-        <v>-36</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L123" t="n">
         <v>3434.1</v>
@@ -6766,7 +6788,7 @@
         <v>388</v>
       </c>
       <c r="K124" t="n">
-        <v>-39.62264150943396</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L124" t="n">
         <v>3433.6</v>
@@ -6817,7 +6839,7 @@
         <v>390</v>
       </c>
       <c r="K125" t="n">
-        <v>-44.44444444444444</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L125" t="n">
         <v>3433.1</v>
@@ -6868,7 +6890,7 @@
         <v>390</v>
       </c>
       <c r="K126" t="n">
-        <v>-43.39622641509434</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L126" t="n">
         <v>3433.2</v>
@@ -6919,7 +6941,7 @@
         <v>393</v>
       </c>
       <c r="K127" t="n">
-        <v>-30.76923076923077</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L127" t="n">
         <v>3433.2</v>
@@ -6970,7 +6992,7 @@
         <v>407</v>
       </c>
       <c r="K128" t="n">
-        <v>-37.93103448275862</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L128" t="n">
         <v>3432.3</v>
@@ -7021,7 +7043,7 @@
         <v>413</v>
       </c>
       <c r="K129" t="n">
-        <v>-22.58064516129032</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L129" t="n">
         <v>3431.7</v>
@@ -7072,7 +7094,7 @@
         <v>414</v>
       </c>
       <c r="K130" t="n">
-        <v>-20.63492063492063</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L130" t="n">
         <v>3431.1</v>
@@ -7123,7 +7145,7 @@
         <v>416</v>
       </c>
       <c r="K131" t="n">
-        <v>-29.03225806451613</v>
+        <v>-37.5</v>
       </c>
       <c r="L131" t="n">
         <v>3430</v>
@@ -7174,7 +7196,7 @@
         <v>417</v>
       </c>
       <c r="K132" t="n">
-        <v>-30.15873015873016</v>
+        <v>-37.5</v>
       </c>
       <c r="L132" t="n">
         <v>3428.7</v>
@@ -7225,7 +7247,7 @@
         <v>434</v>
       </c>
       <c r="K133" t="n">
-        <v>1.298701298701299</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="L133" t="n">
         <v>3429.2</v>
@@ -7276,7 +7298,7 @@
         <v>438</v>
       </c>
       <c r="K134" t="n">
-        <v>-1.265822784810127</v>
+        <v>12.5</v>
       </c>
       <c r="L134" t="n">
         <v>3429.6</v>
@@ -7327,7 +7349,7 @@
         <v>439</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>10.20408163265306</v>
       </c>
       <c r="L135" t="n">
         <v>3430.1</v>
@@ -7378,7 +7400,7 @@
         <v>440</v>
       </c>
       <c r="K136" t="n">
-        <v>6.849315068493151</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="L136" t="n">
         <v>3430.5</v>
@@ -7429,7 +7451,7 @@
         <v>441</v>
       </c>
       <c r="K137" t="n">
-        <v>2.857142857142857</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L137" t="n">
         <v>3430.7</v>
@@ -7480,7 +7502,7 @@
         <v>441</v>
       </c>
       <c r="K138" t="n">
-        <v>10.76923076923077</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L138" t="n">
         <v>3432.3</v>
@@ -7531,7 +7553,7 @@
         <v>443</v>
       </c>
       <c r="K139" t="n">
-        <v>3.125</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L139" t="n">
         <v>3433.1</v>
@@ -7582,7 +7604,7 @@
         <v>447</v>
       </c>
       <c r="K140" t="n">
-        <v>7.462686567164178</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L140" t="n">
         <v>3434.2</v>
@@ -7633,7 +7655,7 @@
         <v>447</v>
       </c>
       <c r="K141" t="n">
-        <v>3.125</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L141" t="n">
         <v>3435.5</v>
@@ -7684,7 +7706,7 @@
         <v>449</v>
       </c>
       <c r="K142" t="n">
-        <v>-1.538461538461539</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L142" t="n">
         <v>3436.7</v>
@@ -7735,7 +7757,7 @@
         <v>449</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L143" t="n">
         <v>3436.2</v>
@@ -7786,7 +7808,7 @@
         <v>450</v>
       </c>
       <c r="K144" t="n">
-        <v>6.451612903225806</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L144" t="n">
         <v>3436.2</v>
@@ -7837,7 +7859,7 @@
         <v>451</v>
       </c>
       <c r="K145" t="n">
-        <v>11.47540983606557</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L145" t="n">
         <v>3436.4</v>
@@ -7888,7 +7910,7 @@
         <v>459</v>
       </c>
       <c r="K146" t="n">
-        <v>-1.449275362318841</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L146" t="n">
         <v>3435.9</v>
@@ -7939,7 +7961,7 @@
         <v>459</v>
       </c>
       <c r="K147" t="n">
-        <v>-6.060606060606061</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L147" t="n">
         <v>3435.3</v>
@@ -7990,7 +8012,7 @@
         <v>459</v>
       </c>
       <c r="K148" t="n">
-        <v>19.23076923076923</v>
+        <v>-25</v>
       </c>
       <c r="L148" t="n">
         <v>3434.7</v>
@@ -8041,7 +8063,7 @@
         <v>459</v>
       </c>
       <c r="K149" t="n">
-        <v>8.695652173913043</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L149" t="n">
         <v>3434.3</v>
@@ -8092,7 +8114,7 @@
         <v>459</v>
       </c>
       <c r="K150" t="n">
-        <v>6.666666666666667</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L150" t="n">
         <v>3433.5</v>
@@ -8143,7 +8165,7 @@
         <v>462</v>
       </c>
       <c r="K151" t="n">
-        <v>4.347826086956522</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L151" t="n">
         <v>3432.4</v>
@@ -8194,7 +8216,7 @@
         <v>462</v>
       </c>
       <c r="K152" t="n">
-        <v>6.666666666666667</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L152" t="n">
         <v>3431.5</v>
@@ -8245,7 +8267,7 @@
         <v>465</v>
       </c>
       <c r="K153" t="n">
-        <v>-35.48387096774194</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L153" t="n">
         <v>3430.9</v>
@@ -8296,7 +8318,7 @@
         <v>471</v>
       </c>
       <c r="K154" t="n">
-        <v>-3.03030303030303</v>
+        <v>-10</v>
       </c>
       <c r="L154" t="n">
         <v>3430.8</v>
@@ -8347,7 +8369,7 @@
         <v>475</v>
       </c>
       <c r="K155" t="n">
-        <v>11.11111111111111</v>
+        <v>62.5</v>
       </c>
       <c r="L155" t="n">
         <v>3431</v>
@@ -8398,7 +8420,7 @@
         <v>477</v>
       </c>
       <c r="K156" t="n">
-        <v>8.108108108108109</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L156" t="n">
         <v>3431.8</v>
@@ -8449,7 +8471,7 @@
         <v>483</v>
       </c>
       <c r="K157" t="n">
-        <v>19.04761904761905</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L157" t="n">
         <v>3433.2</v>
@@ -8500,7 +8522,7 @@
         <v>483</v>
       </c>
       <c r="K158" t="n">
-        <v>19.04761904761905</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L158" t="n">
         <v>3434.6</v>
@@ -8551,7 +8573,7 @@
         <v>485</v>
       </c>
       <c r="K159" t="n">
-        <v>28.57142857142857</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="L159" t="n">
         <v>3436.2</v>
@@ -8602,7 +8624,7 @@
         <v>489</v>
       </c>
       <c r="K160" t="n">
-        <v>9.523809523809524</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L160" t="n">
         <v>3437.4</v>
@@ -8653,7 +8675,7 @@
         <v>489</v>
       </c>
       <c r="K161" t="n">
-        <v>9.523809523809524</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L161" t="n">
         <v>3438.9</v>
@@ -8704,7 +8726,7 @@
         <v>489</v>
       </c>
       <c r="K162" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L162" t="n">
         <v>3440.4</v>
@@ -8755,7 +8777,7 @@
         <v>490</v>
       </c>
       <c r="K163" t="n">
-        <v>12.19512195121951</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L163" t="n">
         <v>3441.5</v>
@@ -8806,7 +8828,7 @@
         <v>490</v>
       </c>
       <c r="K164" t="n">
-        <v>10</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L164" t="n">
         <v>3442</v>
@@ -8908,7 +8930,7 @@
         <v>494</v>
       </c>
       <c r="K166" t="n">
-        <v>20</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L166" t="n">
         <v>3441.7</v>
@@ -8959,7 +8981,7 @@
         <v>495</v>
       </c>
       <c r="K167" t="n">
-        <v>16.66666666666666</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L167" t="n">
         <v>3440.9</v>
@@ -9010,7 +9032,7 @@
         <v>497</v>
       </c>
       <c r="K168" t="n">
-        <v>21.05263157894737</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L168" t="n">
         <v>3440.3</v>
@@ -9061,7 +9083,7 @@
         <v>497</v>
       </c>
       <c r="K169" t="n">
-        <v>21.05263157894737</v>
+        <v>-50</v>
       </c>
       <c r="L169" t="n">
         <v>3439.5</v>
@@ -9112,7 +9134,7 @@
         <v>501</v>
       </c>
       <c r="K170" t="n">
-        <v>9.523809523809524</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L170" t="n">
         <v>3438.7</v>
@@ -9163,7 +9185,7 @@
         <v>502</v>
       </c>
       <c r="K171" t="n">
-        <v>15</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L171" t="n">
         <v>3437.8</v>
@@ -9214,7 +9236,7 @@
         <v>502</v>
       </c>
       <c r="K172" t="n">
-        <v>15</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L172" t="n">
         <v>3436.9</v>
@@ -9265,7 +9287,7 @@
         <v>506</v>
       </c>
       <c r="K173" t="n">
-        <v>17.07317073170732</v>
+        <v>-25</v>
       </c>
       <c r="L173" t="n">
         <v>3436.5</v>
@@ -9316,7 +9338,7 @@
         <v>507</v>
       </c>
       <c r="K174" t="n">
-        <v>5.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
         <v>3436.2</v>
@@ -9367,7 +9389,7 @@
         <v>508</v>
       </c>
       <c r="K175" t="n">
-        <v>-3.03030303030303</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L175" t="n">
         <v>3436.3</v>
@@ -9418,7 +9440,7 @@
         <v>510</v>
       </c>
       <c r="K176" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L176" t="n">
         <v>3436.7</v>
@@ -9469,7 +9491,7 @@
         <v>521</v>
       </c>
       <c r="K177" t="n">
-        <v>21.05263157894737</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L177" t="n">
         <v>3438.3</v>
@@ -9520,7 +9542,7 @@
         <v>522</v>
       </c>
       <c r="K178" t="n">
-        <v>23.07692307692308</v>
+        <v>60</v>
       </c>
       <c r="L178" t="n">
         <v>3439.8</v>
@@ -9571,7 +9593,7 @@
         <v>527</v>
       </c>
       <c r="K179" t="n">
-        <v>4.761904761904762</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L179" t="n">
         <v>3440.8</v>
@@ -9622,7 +9644,7 @@
         <v>532</v>
       </c>
       <c r="K180" t="n">
-        <v>2.325581395348837</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L180" t="n">
         <v>3441.7</v>
@@ -9673,7 +9695,7 @@
         <v>533</v>
       </c>
       <c r="K181" t="n">
-        <v>4.545454545454546</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L181" t="n">
         <v>3442.8</v>
@@ -9724,7 +9746,7 @@
         <v>537</v>
       </c>
       <c r="K182" t="n">
-        <v>-4.166666666666666</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L182" t="n">
         <v>3443.5</v>
@@ -9775,7 +9797,7 @@
         <v>539</v>
       </c>
       <c r="K183" t="n">
-        <v>-6.122448979591836</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>3443.6</v>
@@ -9826,7 +9848,7 @@
         <v>540</v>
       </c>
       <c r="K184" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>3443.7</v>
@@ -9877,7 +9899,7 @@
         <v>545</v>
       </c>
       <c r="K185" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L185" t="n">
         <v>3443.2</v>
@@ -9928,7 +9950,7 @@
         <v>547</v>
       </c>
       <c r="K186" t="n">
-        <v>-1.886792452830189</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L186" t="n">
         <v>3442.7</v>
@@ -9979,7 +10001,7 @@
         <v>549</v>
       </c>
       <c r="K187" t="n">
-        <v>3.703703703703703</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L187" t="n">
         <v>3441.3</v>
@@ -10030,7 +10052,7 @@
         <v>553</v>
       </c>
       <c r="K188" t="n">
-        <v>-7.142857142857142</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L188" t="n">
         <v>3439.4</v>
@@ -10081,7 +10103,7 @@
         <v>555</v>
       </c>
       <c r="K189" t="n">
-        <v>-10.3448275862069</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L189" t="n">
         <v>3437.8</v>
@@ -10132,7 +10154,7 @@
         <v>559</v>
       </c>
       <c r="K190" t="n">
-        <v>3.448275862068965</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L190" t="n">
         <v>3437.1</v>
@@ -10183,7 +10205,7 @@
         <v>560</v>
       </c>
       <c r="K191" t="n">
-        <v>6.896551724137931</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L191" t="n">
         <v>3436.4</v>
@@ -10234,7 +10256,7 @@
         <v>562</v>
       </c>
       <c r="K192" t="n">
-        <v>10</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L192" t="n">
         <v>3436.3</v>
@@ -10285,7 +10307,7 @@
         <v>563</v>
       </c>
       <c r="K193" t="n">
-        <v>5.263157894736842</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L193" t="n">
         <v>3436.5</v>
@@ -10336,7 +10358,7 @@
         <v>565</v>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L194" t="n">
         <v>3436.4</v>
@@ -10387,7 +10409,7 @@
         <v>567</v>
       </c>
       <c r="K195" t="n">
-        <v>1.694915254237288</v>
+        <v>20</v>
       </c>
       <c r="L195" t="n">
         <v>3437</v>
@@ -10438,7 +10460,7 @@
         <v>567</v>
       </c>
       <c r="K196" t="n">
-        <v>-1.754385964912281</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L196" t="n">
         <v>3437.4</v>
@@ -10489,7 +10511,7 @@
         <v>572</v>
       </c>
       <c r="K197" t="n">
-        <v>-33.33333333333333</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L197" t="n">
         <v>3437.1</v>
@@ -10540,7 +10562,7 @@
         <v>574</v>
       </c>
       <c r="K198" t="n">
-        <v>-38.46153846153847</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L198" t="n">
         <v>3437</v>
@@ -10591,7 +10613,7 @@
         <v>576</v>
       </c>
       <c r="K199" t="n">
-        <v>-34.69387755102041</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L199" t="n">
         <v>3436.9</v>
@@ -10642,7 +10664,7 @@
         <v>576</v>
       </c>
       <c r="K200" t="n">
-        <v>-27.27272727272727</v>
+        <v>-37.5</v>
       </c>
       <c r="L200" t="n">
         <v>3436.4</v>
@@ -10693,7 +10715,7 @@
         <v>577</v>
       </c>
       <c r="K201" t="n">
-        <v>-27.27272727272727</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L201" t="n">
         <v>3435.9</v>
@@ -10744,7 +10766,7 @@
         <v>583</v>
       </c>
       <c r="K202" t="n">
-        <v>-4.347826086956522</v>
+        <v>-10</v>
       </c>
       <c r="L202" t="n">
         <v>3435.8</v>
@@ -10846,7 +10868,7 @@
         <v>585</v>
       </c>
       <c r="K204" t="n">
-        <v>-6.666666666666667</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L204" t="n">
         <v>3435.4</v>
@@ -10897,7 +10919,7 @@
         <v>585</v>
       </c>
       <c r="K205" t="n">
-        <v>5</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L205" t="n">
         <v>3435</v>
@@ -10948,7 +10970,7 @@
         <v>589</v>
       </c>
       <c r="K206" t="n">
-        <v>9.523809523809524</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L206" t="n">
         <v>3435</v>
@@ -10999,7 +11021,7 @@
         <v>589</v>
       </c>
       <c r="K207" t="n">
-        <v>5</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L207" t="n">
         <v>3435.5</v>
@@ -11050,7 +11072,7 @@
         <v>592</v>
       </c>
       <c r="K208" t="n">
-        <v>23.07692307692308</v>
+        <v>75</v>
       </c>
       <c r="L208" t="n">
         <v>3436.5</v>
@@ -11101,7 +11123,7 @@
         <v>596</v>
       </c>
       <c r="K209" t="n">
-        <v>36.58536585365854</v>
+        <v>80</v>
       </c>
       <c r="L209" t="n">
         <v>3438.1</v>
@@ -11152,7 +11174,7 @@
         <v>603</v>
       </c>
       <c r="K210" t="n">
-        <v>9.090909090909092</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L210" t="n">
         <v>3439</v>
@@ -11203,7 +11225,7 @@
         <v>604</v>
       </c>
       <c r="K211" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L211" t="n">
         <v>3439.9</v>
@@ -11254,7 +11276,7 @@
         <v>608</v>
       </c>
       <c r="K212" t="n">
-        <v>-4.347826086956522</v>
+        <v>-4</v>
       </c>
       <c r="L212" t="n">
         <v>3439.8</v>
@@ -11305,7 +11327,7 @@
         <v>614</v>
       </c>
       <c r="K213" t="n">
-        <v>-17.64705882352941</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L213" t="n">
         <v>3439.1</v>
@@ -11356,7 +11378,7 @@
         <v>615</v>
       </c>
       <c r="K214" t="n">
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="L214" t="n">
         <v>3438.5</v>
@@ -11407,7 +11429,7 @@
         <v>620</v>
       </c>
       <c r="K215" t="n">
-        <v>-28.30188679245283</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L215" t="n">
         <v>3437.4</v>
@@ -11458,7 +11480,7 @@
         <v>625</v>
       </c>
       <c r="K216" t="n">
-        <v>-17.24137931034483</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L216" t="n">
         <v>3436.4</v>
@@ -11509,7 +11531,7 @@
         <v>629</v>
       </c>
       <c r="K217" t="n">
-        <v>-1.754385964912281</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L217" t="n">
         <v>3435.8</v>
@@ -11560,7 +11582,7 @@
         <v>631</v>
       </c>
       <c r="K218" t="n">
-        <v>5.263157894736842</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L218" t="n">
         <v>3435.1</v>
@@ -11611,7 +11633,7 @@
         <v>634</v>
       </c>
       <c r="K219" t="n">
-        <v>3.448275862068965</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L219" t="n">
         <v>3433.7</v>
@@ -11662,7 +11684,7 @@
         <v>637</v>
       </c>
       <c r="K220" t="n">
-        <v>-1.639344262295082</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L220" t="n">
         <v>3432.7</v>
@@ -11713,7 +11735,7 @@
         <v>637</v>
       </c>
       <c r="K221" t="n">
-        <v>-3.333333333333333</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L221" t="n">
         <v>3431.6</v>
@@ -11764,7 +11786,7 @@
         <v>638</v>
       </c>
       <c r="K222" t="n">
-        <v>-12.72727272727273</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>3431</v>
@@ -11815,7 +11837,7 @@
         <v>641</v>
       </c>
       <c r="K223" t="n">
-        <v>-17.24137931034483</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L223" t="n">
         <v>3430.7</v>
@@ -11866,7 +11888,7 @@
         <v>642</v>
       </c>
       <c r="K224" t="n">
-        <v>-12.28070175438596</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L224" t="n">
         <v>3430.6</v>
@@ -11917,7 +11939,7 @@
         <v>642</v>
       </c>
       <c r="K225" t="n">
-        <v>-12.28070175438596</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L225" t="n">
         <v>3431</v>
@@ -11968,7 +11990,7 @@
         <v>642</v>
       </c>
       <c r="K226" t="n">
-        <v>-20.75471698113208</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L226" t="n">
         <v>3430.9</v>
@@ -12019,7 +12041,7 @@
         <v>646</v>
       </c>
       <c r="K227" t="n">
-        <v>-26.31578947368421</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L227" t="n">
         <v>3430</v>
@@ -12070,7 +12092,7 @@
         <v>649</v>
       </c>
       <c r="K228" t="n">
-        <v>-36.84210526315789</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L228" t="n">
         <v>3428.6</v>
@@ -12121,7 +12143,7 @@
         <v>649</v>
       </c>
       <c r="K229" t="n">
-        <v>-47.16981132075472</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L229" t="n">
         <v>3427.5</v>
@@ -12172,7 +12194,7 @@
         <v>651</v>
       </c>
       <c r="K230" t="n">
-        <v>-41.66666666666667</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L230" t="n">
         <v>3426.5</v>
@@ -12223,7 +12245,7 @@
         <v>651</v>
       </c>
       <c r="K231" t="n">
-        <v>-44.68085106382978</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L231" t="n">
         <v>3425.5</v>
@@ -12274,7 +12296,7 @@
         <v>652</v>
       </c>
       <c r="K232" t="n">
-        <v>-36.36363636363637</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L232" t="n">
         <v>3424.5</v>
@@ -12325,7 +12347,7 @@
         <v>652</v>
       </c>
       <c r="K233" t="n">
-        <v>-26.31578947368421</v>
+        <v>-80</v>
       </c>
       <c r="L233" t="n">
         <v>3423.8</v>
@@ -12376,7 +12398,7 @@
         <v>653</v>
       </c>
       <c r="K234" t="n">
-        <v>-26.31578947368421</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L234" t="n">
         <v>3422.9</v>
@@ -12427,7 +12449,7 @@
         <v>656</v>
       </c>
       <c r="K235" t="n">
-        <v>-5.555555555555555</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L235" t="n">
         <v>3422.3</v>
@@ -12478,7 +12500,7 @@
         <v>664</v>
       </c>
       <c r="K236" t="n">
-        <v>-38.46153846153847</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L236" t="n">
         <v>3420.9</v>
@@ -12529,7 +12551,7 @@
         <v>665</v>
       </c>
       <c r="K237" t="n">
-        <v>-50</v>
+        <v>-37.5</v>
       </c>
       <c r="L237" t="n">
         <v>3420</v>
@@ -12580,7 +12602,7 @@
         <v>669</v>
       </c>
       <c r="K238" t="n">
-        <v>-42.10526315789473</v>
+        <v>-10</v>
       </c>
       <c r="L238" t="n">
         <v>3419.8</v>
@@ -12631,7 +12653,7 @@
         <v>669</v>
       </c>
       <c r="K239" t="n">
-        <v>-37.14285714285715</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
         <v>3419.6</v>
@@ -12682,7 +12704,7 @@
         <v>670</v>
       </c>
       <c r="K240" t="n">
-        <v>-33.33333333333333</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L240" t="n">
         <v>3419.5</v>
@@ -12733,7 +12755,7 @@
         <v>674</v>
       </c>
       <c r="K241" t="n">
-        <v>-18.91891891891892</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L241" t="n">
         <v>3419.8</v>
@@ -12784,7 +12806,7 @@
         <v>674</v>
       </c>
       <c r="K242" t="n">
-        <v>-22.22222222222222</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L242" t="n">
         <v>3420</v>
@@ -12835,7 +12857,7 @@
         <v>674</v>
       </c>
       <c r="K243" t="n">
-        <v>-15.15151515151515</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L243" t="n">
         <v>3420.2</v>
@@ -12886,7 +12908,7 @@
         <v>674</v>
       </c>
       <c r="K244" t="n">
-        <v>-18.75</v>
+        <v>0</v>
       </c>
       <c r="L244" t="n">
         <v>3420.5</v>
@@ -12937,7 +12959,7 @@
         <v>678</v>
       </c>
       <c r="K245" t="n">
-        <v>-27.77777777777778</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L245" t="n">
         <v>3420.1</v>
@@ -12988,7 +13010,7 @@
         <v>678</v>
       </c>
       <c r="K246" t="n">
-        <v>-27.77777777777778</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L246" t="n">
         <v>3420.5</v>
@@ -13039,7 +13061,7 @@
         <v>678</v>
       </c>
       <c r="K247" t="n">
-        <v>-18.75</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L247" t="n">
         <v>3420.8</v>
@@ -13090,7 +13112,7 @@
         <v>684</v>
       </c>
       <c r="K248" t="n">
-        <v>-25.71428571428571</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L248" t="n">
         <v>3420.1</v>
@@ -13141,7 +13163,7 @@
         <v>685</v>
       </c>
       <c r="K249" t="n">
-        <v>-22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L249" t="n">
         <v>3419.5</v>
@@ -13192,7 +13214,7 @@
         <v>687</v>
       </c>
       <c r="K250" t="n">
-        <v>-11.11111111111111</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L250" t="n">
         <v>3419.2</v>
@@ -13243,7 +13265,7 @@
         <v>687</v>
       </c>
       <c r="K251" t="n">
-        <v>-11.11111111111111</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L251" t="n">
         <v>3418.5</v>
@@ -13294,7 +13316,7 @@
         <v>688</v>
       </c>
       <c r="K252" t="n">
-        <v>-16.66666666666666</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L252" t="n">
         <v>3417.7</v>
@@ -13345,7 +13367,7 @@
         <v>693</v>
       </c>
       <c r="K253" t="n">
-        <v>-2.439024390243902</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L253" t="n">
         <v>3417.4</v>
@@ -13396,7 +13418,7 @@
         <v>697</v>
       </c>
       <c r="K254" t="n">
-        <v>-9.090909090909092</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L254" t="n">
         <v>3416.7</v>
@@ -13447,7 +13469,7 @@
         <v>703</v>
       </c>
       <c r="K255" t="n">
-        <v>-27.65957446808511</v>
+        <v>-36</v>
       </c>
       <c r="L255" t="n">
         <v>3415.8</v>
@@ -13498,7 +13520,7 @@
         <v>707</v>
       </c>
       <c r="K256" t="n">
-        <v>-2.325581395348837</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L256" t="n">
         <v>3415.3</v>
@@ -13549,7 +13571,7 @@
         <v>711</v>
       </c>
       <c r="K257" t="n">
-        <v>4.347826086956522</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L257" t="n">
         <v>3415.2</v>
@@ -13600,7 +13622,7 @@
         <v>713</v>
       </c>
       <c r="K258" t="n">
-        <v>0</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L258" t="n">
         <v>3415.9</v>
@@ -13651,7 +13673,7 @@
         <v>717</v>
       </c>
       <c r="K259" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L259" t="n">
         <v>3416.1</v>
@@ -13702,7 +13724,7 @@
         <v>720</v>
       </c>
       <c r="K260" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L260" t="n">
         <v>3416.4</v>
@@ -13753,7 +13775,7 @@
         <v>721</v>
       </c>
       <c r="K261" t="n">
-        <v>-10.63829787234043</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L261" t="n">
         <v>3416.6</v>
@@ -13804,7 +13826,7 @@
         <v>722</v>
       </c>
       <c r="K262" t="n">
-        <v>-12.5</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L262" t="n">
         <v>3416.8</v>
@@ -13855,7 +13877,7 @@
         <v>724</v>
       </c>
       <c r="K263" t="n">
-        <v>-16</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L263" t="n">
         <v>3416.3</v>
@@ -13906,7 +13928,7 @@
         <v>726</v>
       </c>
       <c r="K264" t="n">
-        <v>-11.53846153846154</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L264" t="n">
         <v>3416.4</v>
@@ -13957,7 +13979,7 @@
         <v>726</v>
       </c>
       <c r="K265" t="n">
-        <v>-4.166666666666666</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L265" t="n">
         <v>3417.1</v>
@@ -14008,7 +14030,7 @@
         <v>727</v>
       </c>
       <c r="K266" t="n">
-        <v>-2.040816326530612</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>3417.5</v>
@@ -14059,7 +14081,7 @@
         <v>728</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L267" t="n">
         <v>3417.6</v>
@@ -14110,7 +14132,7 @@
         <v>735</v>
       </c>
       <c r="K268" t="n">
-        <v>-1.96078431372549</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L268" t="n">
         <v>3416.8</v>
@@ -14161,7 +14183,7 @@
         <v>739</v>
       </c>
       <c r="K269" t="n">
-        <v>-11.11111111111111</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L269" t="n">
         <v>3416</v>
@@ -14212,7 +14234,7 @@
         <v>741</v>
       </c>
       <c r="K270" t="n">
-        <v>-11.11111111111111</v>
+        <v>-40</v>
       </c>
       <c r="L270" t="n">
         <v>3415.1</v>
@@ -14263,7 +14285,7 @@
         <v>741</v>
       </c>
       <c r="K271" t="n">
-        <v>-11.11111111111111</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L271" t="n">
         <v>3414.3</v>
@@ -14314,7 +14336,7 @@
         <v>745</v>
       </c>
       <c r="K272" t="n">
-        <v>-15.78947368421053</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L272" t="n">
         <v>3413.2</v>
@@ -14365,7 +14387,7 @@
         <v>750</v>
       </c>
       <c r="K273" t="n">
-        <v>-15.78947368421053</v>
+        <v>-25</v>
       </c>
       <c r="L273" t="n">
         <v>3412.8</v>
@@ -14416,7 +14438,7 @@
         <v>751</v>
       </c>
       <c r="K274" t="n">
-        <v>-7.407407407407407</v>
+        <v>-20</v>
       </c>
       <c r="L274" t="n">
         <v>3412.3</v>
@@ -14467,7 +14489,7 @@
         <v>753</v>
       </c>
       <c r="K275" t="n">
-        <v>0</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L275" t="n">
         <v>3411.6</v>
@@ -14518,7 +14540,7 @@
         <v>754</v>
       </c>
       <c r="K276" t="n">
-        <v>-10.63829787234043</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L276" t="n">
         <v>3410.7</v>
@@ -14569,7 +14591,7 @@
         <v>756</v>
       </c>
       <c r="K277" t="n">
-        <v>-24.44444444444444</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L277" t="n">
         <v>3409.5</v>
@@ -14620,7 +14642,7 @@
         <v>760</v>
       </c>
       <c r="K278" t="n">
-        <v>-36.17021276595745</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L278" t="n">
         <v>3408.6</v>
@@ -14671,7 +14693,7 @@
         <v>761</v>
       </c>
       <c r="K279" t="n">
-        <v>-27.27272727272727</v>
+        <v>-30</v>
       </c>
       <c r="L279" t="n">
         <v>3408.2</v>
@@ -14722,7 +14744,7 @@
         <v>763</v>
       </c>
       <c r="K280" t="n">
-        <v>-39.53488372093023</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L280" t="n">
         <v>3407.4</v>
@@ -14773,7 +14795,7 @@
         <v>765</v>
       </c>
       <c r="K281" t="n">
-        <v>-31.81818181818182</v>
+        <v>-10</v>
       </c>
       <c r="L281" t="n">
         <v>3406.8</v>
@@ -14824,7 +14846,7 @@
         <v>767</v>
       </c>
       <c r="K282" t="n">
-        <v>-24.44444444444444</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L282" t="n">
         <v>3406.8</v>
@@ -14875,7 +14897,7 @@
         <v>770</v>
       </c>
       <c r="K283" t="n">
-        <v>-13.04347826086956</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L283" t="n">
         <v>3406.6</v>
@@ -14926,7 +14948,7 @@
         <v>779</v>
       </c>
       <c r="K284" t="n">
-        <v>-32.0754716981132</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L284" t="n">
         <v>3405.4</v>
@@ -14977,7 +14999,7 @@
         <v>780</v>
       </c>
       <c r="K285" t="n">
-        <v>-29.62962962962963</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L285" t="n">
         <v>3404.5</v>
@@ -15028,7 +15050,7 @@
         <v>783</v>
       </c>
       <c r="K286" t="n">
-        <v>-25</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L286" t="n">
         <v>3404</v>
@@ -15079,7 +15101,7 @@
         <v>787</v>
       </c>
       <c r="K287" t="n">
-        <v>-32.20338983050847</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L287" t="n">
         <v>3403.3</v>
@@ -15130,7 +15152,7 @@
         <v>788</v>
       </c>
       <c r="K288" t="n">
-        <v>-20.75471698113208</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L288" t="n">
         <v>3403.1</v>
@@ -15181,7 +15203,7 @@
         <v>792</v>
       </c>
       <c r="K289" t="n">
-        <v>-5.660377358490567</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L289" t="n">
         <v>3403.2</v>
@@ -15232,7 +15254,7 @@
         <v>792</v>
       </c>
       <c r="K290" t="n">
-        <v>-9.803921568627452</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L290" t="n">
         <v>3403.5</v>
@@ -15283,7 +15305,7 @@
         <v>796</v>
       </c>
       <c r="K291" t="n">
-        <v>-16.36363636363636</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L291" t="n">
         <v>3403.2</v>
@@ -15334,7 +15356,7 @@
         <v>798</v>
       </c>
       <c r="K292" t="n">
-        <v>-5.660377358490567</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L292" t="n">
         <v>3402.9</v>
@@ -15385,7 +15407,7 @@
         <v>799</v>
       </c>
       <c r="K293" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L293" t="n">
         <v>3402.4</v>
@@ -15436,7 +15458,7 @@
         <v>800</v>
       </c>
       <c r="K294" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L294" t="n">
         <v>3402.9</v>
@@ -15487,7 +15509,7 @@
         <v>800</v>
       </c>
       <c r="K295" t="n">
-        <v>-10.63829787234043</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L295" t="n">
         <v>3403.3</v>
@@ -15538,7 +15560,7 @@
         <v>801</v>
       </c>
       <c r="K296" t="n">
-        <v>-10.63829787234043</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L296" t="n">
         <v>3403.3</v>
@@ -15589,7 +15611,7 @@
         <v>806</v>
       </c>
       <c r="K297" t="n">
-        <v>4</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L297" t="n">
         <v>3404.2</v>
@@ -15640,7 +15662,7 @@
         <v>808</v>
       </c>
       <c r="K298" t="n">
-        <v>16.66666666666666</v>
+        <v>37.5</v>
       </c>
       <c r="L298" t="n">
         <v>3405.2</v>
@@ -15691,7 +15713,7 @@
         <v>813</v>
       </c>
       <c r="K299" t="n">
-        <v>23.07692307692308</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L299" t="n">
         <v>3406.3</v>
@@ -15742,7 +15764,7 @@
         <v>814</v>
       </c>
       <c r="K300" t="n">
-        <v>29.41176470588236</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="L300" t="n">
         <v>3407.5</v>
@@ -15793,7 +15815,7 @@
         <v>815</v>
       </c>
       <c r="K301" t="n">
-        <v>24</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L301" t="n">
         <v>3409</v>
@@ -15844,7 +15866,7 @@
         <v>819</v>
       </c>
       <c r="K302" t="n">
-        <v>11.53846153846154</v>
+        <v>40</v>
       </c>
       <c r="L302" t="n">
         <v>3409.9</v>
@@ -15895,7 +15917,7 @@
         <v>821</v>
       </c>
       <c r="K303" t="n">
-        <v>1.96078431372549</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L303" t="n">
         <v>3410.5</v>
@@ -15946,7 +15968,7 @@
         <v>824</v>
       </c>
       <c r="K304" t="n">
-        <v>28.88888888888889</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L304" t="n">
         <v>3411.3</v>
@@ -15997,7 +16019,7 @@
         <v>827</v>
       </c>
       <c r="K305" t="n">
-        <v>19.14893617021277</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L305" t="n">
         <v>3411.8</v>
@@ -16048,7 +16070,7 @@
         <v>832</v>
       </c>
       <c r="K306" t="n">
-        <v>2.040816326530612</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L306" t="n">
         <v>3411.9</v>
@@ -16099,7 +16121,7 @@
         <v>837</v>
       </c>
       <c r="K307" t="n">
-        <v>0</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L307" t="n">
         <v>3411</v>
@@ -16150,7 +16172,7 @@
         <v>840</v>
       </c>
       <c r="K308" t="n">
-        <v>3.846153846153846</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L308" t="n">
         <v>3410.2</v>
@@ -16201,7 +16223,7 @@
         <v>841</v>
       </c>
       <c r="K309" t="n">
-        <v>-2.040816326530612</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L309" t="n">
         <v>3409</v>
@@ -16252,7 +16274,7 @@
         <v>841</v>
       </c>
       <c r="K310" t="n">
-        <v>-2.040816326530612</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L310" t="n">
         <v>3407.7</v>
@@ -16303,7 +16325,7 @@
         <v>841</v>
       </c>
       <c r="K311" t="n">
-        <v>6.666666666666667</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L311" t="n">
         <v>3406.5</v>
@@ -16354,7 +16376,7 @@
         <v>846</v>
       </c>
       <c r="K312" t="n">
-        <v>12.5</v>
+        <v>-4</v>
       </c>
       <c r="L312" t="n">
         <v>3406.2</v>
@@ -16405,7 +16427,7 @@
         <v>846</v>
       </c>
       <c r="K313" t="n">
-        <v>10.63829787234043</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L313" t="n">
         <v>3406.1</v>
@@ -16456,7 +16478,7 @@
         <v>851</v>
       </c>
       <c r="K314" t="n">
-        <v>17.64705882352941</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L314" t="n">
         <v>3406.2</v>
@@ -16507,7 +16529,7 @@
         <v>854</v>
       </c>
       <c r="K315" t="n">
-        <v>11.11111111111111</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L315" t="n">
         <v>3406.3</v>
@@ -16558,7 +16580,7 @@
         <v>857</v>
       </c>
       <c r="K316" t="n">
-        <v>7.142857142857142</v>
+        <v>40</v>
       </c>
       <c r="L316" t="n">
         <v>3406.6</v>
@@ -16609,7 +16631,7 @@
         <v>858</v>
       </c>
       <c r="K317" t="n">
-        <v>-3.846153846153846</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L317" t="n">
         <v>3407.3</v>
@@ -16660,7 +16682,7 @@
         <v>858</v>
       </c>
       <c r="K318" t="n">
-        <v>-8</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L318" t="n">
         <v>3407.7</v>
@@ -16711,7 +16733,7 @@
         <v>862</v>
       </c>
       <c r="K319" t="n">
-        <v>-26.53061224489796</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L319" t="n">
         <v>3407.6</v>
@@ -16762,7 +16784,7 @@
         <v>864</v>
       </c>
       <c r="K320" t="n">
-        <v>-24</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L320" t="n">
         <v>3407.7</v>
@@ -16813,7 +16835,7 @@
         <v>866</v>
       </c>
       <c r="K321" t="n">
-        <v>-25.49019607843137</v>
+        <v>-30</v>
       </c>
       <c r="L321" t="n">
         <v>3407.6</v>
@@ -16864,7 +16886,7 @@
         <v>868</v>
       </c>
       <c r="K322" t="n">
-        <v>-14.28571428571428</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L322" t="n">
         <v>3407.2</v>
@@ -16915,7 +16937,7 @@
         <v>872</v>
       </c>
       <c r="K323" t="n">
-        <v>-1.96078431372549</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L323" t="n">
         <v>3407.2</v>
@@ -16966,7 +16988,7 @@
         <v>873</v>
       </c>
       <c r="K324" t="n">
-        <v>-6.122448979591836</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L324" t="n">
         <v>3406.8</v>
@@ -17017,7 +17039,7 @@
         <v>875</v>
       </c>
       <c r="K325" t="n">
-        <v>4.166666666666666</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L325" t="n">
         <v>3406.9</v>
@@ -17068,7 +17090,7 @@
         <v>876</v>
       </c>
       <c r="K326" t="n">
-        <v>18.18181818181818</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L326" t="n">
         <v>3407.4</v>
@@ -17119,7 +17141,7 @@
         <v>885</v>
       </c>
       <c r="K327" t="n">
-        <v>8.333333333333332</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L327" t="n">
         <v>3407.1</v>
@@ -17170,7 +17192,7 @@
         <v>885</v>
       </c>
       <c r="K328" t="n">
-        <v>2.222222222222222</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L328" t="n">
         <v>3406.8</v>
@@ -17221,7 +17243,7 @@
         <v>888</v>
       </c>
       <c r="K329" t="n">
-        <v>6.382978723404255</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L329" t="n">
         <v>3407.2</v>
@@ -17272,7 +17294,7 @@
         <v>891</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L330" t="n">
         <v>3407.1</v>
@@ -17323,7 +17345,7 @@
         <v>895</v>
       </c>
       <c r="K331" t="n">
-        <v>-7.407407407407407</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L331" t="n">
         <v>3406.8</v>
@@ -17374,7 +17396,7 @@
         <v>902</v>
       </c>
       <c r="K332" t="n">
-        <v>-3.571428571428571</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L332" t="n">
         <v>3407</v>
@@ -17425,7 +17447,7 @@
         <v>905</v>
       </c>
       <c r="K333" t="n">
-        <v>1.694915254237288</v>
+        <v>0</v>
       </c>
       <c r="L333" t="n">
         <v>3407.1</v>
@@ -17476,7 +17498,7 @@
         <v>909</v>
       </c>
       <c r="K334" t="n">
-        <v>-13.79310344827586</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L334" t="n">
         <v>3406.7</v>
@@ -17527,7 +17549,7 @@
         <v>910</v>
       </c>
       <c r="K335" t="n">
-        <v>-10.71428571428571</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L335" t="n">
         <v>3406</v>
@@ -17578,7 +17600,7 @@
         <v>913</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L336" t="n">
         <v>3405.5</v>
@@ -17629,7 +17651,7 @@
         <v>918</v>
       </c>
       <c r="K337" t="n">
-        <v>-6.666666666666667</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L337" t="n">
         <v>3405.4</v>
@@ -17680,7 +17702,7 @@
         <v>921</v>
       </c>
       <c r="K338" t="n">
-        <v>-1.587301587301587</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L338" t="n">
         <v>3405.6</v>
@@ -17731,7 +17753,7 @@
         <v>924</v>
       </c>
       <c r="K339" t="n">
-        <v>0</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L339" t="n">
         <v>3405.2</v>
@@ -17782,7 +17804,7 @@
         <v>927</v>
       </c>
       <c r="K340" t="n">
-        <v>1.587301587301587</v>
+        <v>18.75</v>
       </c>
       <c r="L340" t="n">
         <v>3405.4</v>
@@ -17833,7 +17855,7 @@
         <v>928</v>
       </c>
       <c r="K341" t="n">
-        <v>6.451612903225806</v>
+        <v>0</v>
       </c>
       <c r="L341" t="n">
         <v>3406.1</v>
@@ -17884,7 +17906,7 @@
         <v>932</v>
       </c>
       <c r="K342" t="n">
-        <v>-3.125</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L342" t="n">
         <v>3405.7</v>
@@ -17935,7 +17957,7 @@
         <v>935</v>
       </c>
       <c r="K343" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L343" t="n">
         <v>3405.3</v>
@@ -17986,7 +18008,7 @@
         <v>936</v>
       </c>
       <c r="K344" t="n">
-        <v>-4.761904761904762</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L344" t="n">
         <v>3405.4</v>
@@ -18037,7 +18059,7 @@
         <v>939</v>
       </c>
       <c r="K345" t="n">
-        <v>-12.5</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L345" t="n">
         <v>3405.3</v>
@@ -18088,7 +18110,7 @@
         <v>941</v>
       </c>
       <c r="K346" t="n">
-        <v>-16.92307692307692</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L346" t="n">
         <v>3404.7</v>
@@ -18139,7 +18161,7 @@
         <v>946</v>
       </c>
       <c r="K347" t="n">
-        <v>4.918032786885246</v>
+        <v>4</v>
       </c>
       <c r="L347" t="n">
         <v>3405.1</v>
@@ -18190,7 +18212,7 @@
         <v>946</v>
       </c>
       <c r="K348" t="n">
-        <v>4.918032786885246</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L348" t="n">
         <v>3405.2</v>
@@ -18241,7 +18263,7 @@
         <v>946</v>
       </c>
       <c r="K349" t="n">
-        <v>0</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L349" t="n">
         <v>3405.6</v>
@@ -18292,7 +18314,7 @@
         <v>946</v>
       </c>
       <c r="K350" t="n">
-        <v>5.454545454545454</v>
+        <v>0</v>
       </c>
       <c r="L350" t="n">
         <v>3405.7</v>
@@ -18343,7 +18365,7 @@
         <v>951</v>
       </c>
       <c r="K351" t="n">
-        <v>3.571428571428571</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L351" t="n">
         <v>3405.2</v>
@@ -18394,7 +18416,7 @@
         <v>953</v>
       </c>
       <c r="K352" t="n">
-        <v>-5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L352" t="n">
         <v>3405.3</v>
@@ -18445,7 +18467,7 @@
         <v>954</v>
       </c>
       <c r="K353" t="n">
-        <v>-10.20408163265306</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L353" t="n">
         <v>3405.2</v>
@@ -18496,7 +18518,7 @@
         <v>955</v>
       </c>
       <c r="K354" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L354" t="n">
         <v>3404.9</v>
@@ -18547,7 +18569,7 @@
         <v>957</v>
       </c>
       <c r="K355" t="n">
-        <v>-6.382978723404255</v>
+        <v>0</v>
       </c>
       <c r="L355" t="n">
         <v>3404.7</v>
@@ -18598,7 +18620,7 @@
         <v>958</v>
       </c>
       <c r="K356" t="n">
-        <v>-15.55555555555556</v>
+        <v>-50</v>
       </c>
       <c r="L356" t="n">
         <v>3404.6</v>
@@ -18649,7 +18671,7 @@
         <v>962</v>
       </c>
       <c r="K357" t="n">
-        <v>-13.63636363636363</v>
+        <v>-62.5</v>
       </c>
       <c r="L357" t="n">
         <v>3403.6</v>
@@ -18700,7 +18722,7 @@
         <v>968</v>
       </c>
       <c r="K358" t="n">
-        <v>-31.91489361702128</v>
+        <v>-72.72727272727273</v>
       </c>
       <c r="L358" t="n">
         <v>3402</v>
@@ -18751,7 +18773,7 @@
         <v>970</v>
       </c>
       <c r="K359" t="n">
-        <v>-30.43478260869566</v>
+        <v>-75</v>
       </c>
       <c r="L359" t="n">
         <v>3400.2</v>
@@ -18802,7 +18824,7 @@
         <v>983</v>
       </c>
       <c r="K360" t="n">
-        <v>-53.57142857142857</v>
+        <v>-81.25</v>
       </c>
       <c r="L360" t="n">
         <v>3397.1</v>
@@ -18853,7 +18875,7 @@
         <v>990</v>
       </c>
       <c r="K361" t="n">
-        <v>-38.70967741935484</v>
+        <v>-56.75675675675676</v>
       </c>
       <c r="L361" t="n">
         <v>3395.2</v>
@@ -18904,7 +18926,7 @@
         <v>993</v>
       </c>
       <c r="K362" t="n">
-        <v>-37.70491803278689</v>
+        <v>-64.1025641025641</v>
       </c>
       <c r="L362" t="n">
         <v>3392.8</v>
@@ -18955,7 +18977,7 @@
         <v>995</v>
       </c>
       <c r="K363" t="n">
-        <v>-40</v>
+        <v>-55.00000000000001</v>
       </c>
       <c r="L363" t="n">
         <v>3390.5</v>
@@ -19006,7 +19028,7 @@
         <v>999</v>
       </c>
       <c r="K364" t="n">
-        <v>-33.33333333333333</v>
+        <v>-38.09523809523809</v>
       </c>
       <c r="L364" t="n">
         <v>3388.7</v>
@@ -19061,7 +19083,7 @@
         <v>1001</v>
       </c>
       <c r="K365" t="n">
-        <v>-32.25806451612903</v>
+        <v>-39.53488372093023</v>
       </c>
       <c r="L365" t="n">
         <v>3386.9</v>
@@ -19120,7 +19142,7 @@
         <v>1002</v>
       </c>
       <c r="K366" t="n">
-        <v>-27.86885245901639</v>
+        <v>-30</v>
       </c>
       <c r="L366" t="n">
         <v>3385.3</v>
@@ -19179,7 +19201,7 @@
         <v>1003</v>
       </c>
       <c r="K367" t="n">
-        <v>-36.84210526315789</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L367" t="n">
         <v>3384.2</v>
@@ -19238,7 +19260,7 @@
         <v>1009</v>
       </c>
       <c r="K368" t="n">
-        <v>-42.85714285714285</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L368" t="n">
         <v>3383.1</v>
@@ -19295,7 +19317,7 @@
         <v>1009</v>
       </c>
       <c r="K369" t="n">
-        <v>-42.85714285714285</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L369" t="n">
         <v>3382.2</v>
@@ -19352,7 +19374,7 @@
         <v>1014</v>
       </c>
       <c r="K370" t="n">
-        <v>-47.05882352941176</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L370" t="n">
         <v>3382.1</v>
@@ -19409,7 +19431,7 @@
         <v>1019</v>
       </c>
       <c r="K371" t="n">
-        <v>-32.35294117647059</v>
+        <v>0</v>
       </c>
       <c r="L371" t="n">
         <v>3381.8</v>
@@ -19466,7 +19488,7 @@
         <v>1024</v>
       </c>
       <c r="K372" t="n">
-        <v>-40.84507042253522</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L372" t="n">
         <v>3381.3</v>
@@ -19523,7 +19545,7 @@
         <v>1031</v>
       </c>
       <c r="K373" t="n">
-        <v>-29.87012987012987</v>
+        <v>-12.5</v>
       </c>
       <c r="L373" t="n">
         <v>3381.3</v>
@@ -19580,7 +19602,7 @@
         <v>1036</v>
       </c>
       <c r="K374" t="n">
-        <v>-20.98765432098765</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L374" t="n">
         <v>3381.4</v>
@@ -19637,7 +19659,7 @@
         <v>1037</v>
       </c>
       <c r="K375" t="n">
-        <v>-20</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L375" t="n">
         <v>3381.6</v>
@@ -19694,7 +19716,7 @@
         <v>1044</v>
       </c>
       <c r="K376" t="n">
-        <v>-9.302325581395349</v>
+        <v>17.07317073170732</v>
       </c>
       <c r="L376" t="n">
         <v>3382.4</v>
@@ -19751,7 +19773,7 @@
         <v>1050</v>
       </c>
       <c r="K377" t="n">
-        <v>-11.36363636363636</v>
+        <v>17.07317073170732</v>
       </c>
       <c r="L377" t="n">
         <v>3382.5</v>
@@ -19808,7 +19830,7 @@
         <v>1053</v>
       </c>
       <c r="K378" t="n">
-        <v>-1.176470588235294</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="L378" t="n">
         <v>3383.5</v>
@@ -19865,7 +19887,7 @@
         <v>1055</v>
       </c>
       <c r="K379" t="n">
-        <v>-1.176470588235294</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="L379" t="n">
         <v>3384.3</v>
@@ -19922,7 +19944,7 @@
         <v>1057</v>
       </c>
       <c r="K380" t="n">
-        <v>18.91891891891892</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L380" t="n">
         <v>3385.8</v>
@@ -19979,7 +20001,7 @@
         <v>1062</v>
       </c>
       <c r="K381" t="n">
-        <v>2.777777777777778</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L381" t="n">
         <v>3386.3</v>
@@ -20036,7 +20058,7 @@
         <v>1064</v>
       </c>
       <c r="K382" t="n">
-        <v>4.225352112676056</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L382" t="n">
         <v>3387.1</v>
@@ -20093,7 +20115,7 @@
         <v>1069</v>
       </c>
       <c r="K383" t="n">
-        <v>8.108108108108109</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L383" t="n">
         <v>3387.7</v>
@@ -20207,7 +20229,7 @@
         <v>1074</v>
       </c>
       <c r="K385" t="n">
-        <v>6.849315068493151</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L385" t="n">
         <v>3387.9</v>
@@ -20264,7 +20286,7 @@
         <v>1075</v>
       </c>
       <c r="K386" t="n">
-        <v>4.10958904109589</v>
+        <v>4</v>
       </c>
       <c r="L386" t="n">
         <v>3387.4</v>
@@ -20321,7 +20343,7 @@
         <v>1077</v>
       </c>
       <c r="K387" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L387" t="n">
         <v>3387.3</v>
@@ -20372,7 +20394,7 @@
         <v>1081</v>
       </c>
       <c r="K388" t="n">
-        <v>13.88888888888889</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L388" t="n">
         <v>3387.3</v>
@@ -20423,7 +20445,7 @@
         <v>1085</v>
       </c>
       <c r="K389" t="n">
-        <v>7.894736842105263</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L389" t="n">
         <v>3387.1</v>
@@ -20474,7 +20496,7 @@
         <v>1086</v>
       </c>
       <c r="K390" t="n">
-        <v>16.66666666666666</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L390" t="n">
         <v>3386.8</v>
@@ -20525,7 +20547,7 @@
         <v>1087</v>
       </c>
       <c r="K391" t="n">
-        <v>11.76470588235294</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L391" t="n">
         <v>3387.1</v>
@@ -20576,7 +20598,7 @@
         <v>1090</v>
       </c>
       <c r="K392" t="n">
-        <v>15.15151515151515</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L392" t="n">
         <v>3387.3</v>
@@ -20627,7 +20649,7 @@
         <v>1090</v>
       </c>
       <c r="K393" t="n">
-        <v>5.084745762711865</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L393" t="n">
         <v>3387</v>
@@ -20678,7 +20700,7 @@
         <v>1095</v>
       </c>
       <c r="K394" t="n">
-        <v>5.084745762711865</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L394" t="n">
         <v>3387.4</v>
@@ -20729,7 +20751,7 @@
         <v>1105</v>
       </c>
       <c r="K395" t="n">
-        <v>20.58823529411764</v>
+        <v>40</v>
       </c>
       <c r="L395" t="n">
         <v>3388.5</v>
@@ -20780,7 +20802,7 @@
         <v>1113</v>
       </c>
       <c r="K396" t="n">
-        <v>-1.449275362318841</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L396" t="n">
         <v>3388.9</v>
@@ -20831,7 +20853,7 @@
         <v>1114</v>
       </c>
       <c r="K397" t="n">
-        <v>6.25</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L397" t="n">
         <v>3389.4</v>
@@ -20882,7 +20904,7 @@
         <v>1117</v>
       </c>
       <c r="K398" t="n">
-        <v>6.25</v>
+        <v>25</v>
       </c>
       <c r="L398" t="n">
         <v>3389.8</v>
@@ -20933,7 +20955,7 @@
         <v>1119</v>
       </c>
       <c r="K399" t="n">
-        <v>6.25</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L399" t="n">
         <v>3390.4</v>
@@ -20984,7 +21006,7 @@
         <v>1119</v>
       </c>
       <c r="K400" t="n">
-        <v>3.225806451612903</v>
+        <v>12.5</v>
       </c>
       <c r="L400" t="n">
         <v>3390.9</v>
@@ -21035,7 +21057,7 @@
         <v>1122</v>
       </c>
       <c r="K401" t="n">
-        <v>16.66666666666666</v>
+        <v>31.25</v>
       </c>
       <c r="L401" t="n">
         <v>3391.6</v>
@@ -21086,7 +21108,7 @@
         <v>1126</v>
       </c>
       <c r="K402" t="n">
-        <v>12.90322580645161</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L402" t="n">
         <v>3392.2</v>
@@ -21137,7 +21159,7 @@
         <v>1127</v>
       </c>
       <c r="K403" t="n">
-        <v>6.896551724137931</v>
+        <v>6.25</v>
       </c>
       <c r="L403" t="n">
         <v>3392.9</v>
@@ -21188,7 +21210,7 @@
         <v>1129</v>
       </c>
       <c r="K404" t="n">
-        <v>6.896551724137931</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L404" t="n">
         <v>3392.9</v>
@@ -21239,7 +21261,7 @@
         <v>1132</v>
       </c>
       <c r="K405" t="n">
-        <v>6.896551724137931</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L405" t="n">
         <v>3392.2</v>
@@ -21290,7 +21312,7 @@
         <v>1132</v>
       </c>
       <c r="K406" t="n">
-        <v>8.771929824561402</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L406" t="n">
         <v>3392.3</v>
@@ -21341,7 +21363,7 @@
         <v>1135</v>
       </c>
       <c r="K407" t="n">
-        <v>6.896551724137931</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L407" t="n">
         <v>3392.2</v>
@@ -21392,7 +21414,7 @@
         <v>1145</v>
       </c>
       <c r="K408" t="n">
-        <v>-15.625</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L408" t="n">
         <v>3390.8</v>
@@ -21443,7 +21465,7 @@
         <v>1160</v>
       </c>
       <c r="K409" t="n">
-        <v>12</v>
+        <v>7.317073170731707</v>
       </c>
       <c r="L409" t="n">
         <v>3391.1</v>
@@ -21494,7 +21516,7 @@
         <v>1162</v>
       </c>
       <c r="K410" t="n">
-        <v>13.1578947368421</v>
+        <v>5</v>
       </c>
       <c r="L410" t="n">
         <v>3391.6</v>
@@ -21545,7 +21567,7 @@
         <v>1167</v>
       </c>
       <c r="K411" t="n">
-        <v>5</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="L411" t="n">
         <v>3391.3</v>
@@ -21596,7 +21618,7 @@
         <v>1169</v>
       </c>
       <c r="K412" t="n">
-        <v>11.39240506329114</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L412" t="n">
         <v>3391.6</v>
@@ -21647,7 +21669,7 @@
         <v>1172</v>
       </c>
       <c r="K413" t="n">
-        <v>7.317073170731707</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L413" t="n">
         <v>3391.5</v>
@@ -21698,7 +21720,7 @@
         <v>1173</v>
       </c>
       <c r="K414" t="n">
-        <v>0</v>
+        <v>-7.317073170731707</v>
       </c>
       <c r="L414" t="n">
         <v>3391.5</v>
@@ -21749,7 +21771,7 @@
         <v>1174</v>
       </c>
       <c r="K415" t="n">
-        <v>-13.04347826086956</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L415" t="n">
         <v>3391.3</v>
@@ -21800,7 +21822,7 @@
         <v>1175</v>
       </c>
       <c r="K416" t="n">
-        <v>-3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L416" t="n">
         <v>3391</v>
@@ -21851,7 +21873,7 @@
         <v>1175</v>
       </c>
       <c r="K417" t="n">
-        <v>-1.639344262295082</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L417" t="n">
         <v>3391</v>
@@ -21902,7 +21924,7 @@
         <v>1178</v>
       </c>
       <c r="K418" t="n">
-        <v>-11.47540983606557</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L418" t="n">
         <v>3391.7</v>
@@ -21953,7 +21975,7 @@
         <v>1181</v>
       </c>
       <c r="K419" t="n">
-        <v>-3.225806451612903</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L419" t="n">
         <v>3391.2</v>
@@ -22055,7 +22077,7 @@
         <v>1184</v>
       </c>
       <c r="K421" t="n">
-        <v>-3.225806451612903</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L421" t="n">
         <v>3390.8</v>
@@ -22106,7 +22128,7 @@
         <v>1185</v>
       </c>
       <c r="K422" t="n">
-        <v>5.084745762711865</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L422" t="n">
         <v>3390.8</v>
@@ -22157,7 +22179,7 @@
         <v>1185</v>
       </c>
       <c r="K423" t="n">
-        <v>3.448275862068965</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L423" t="n">
         <v>3391.1</v>
@@ -22208,7 +22230,7 @@
         <v>1185</v>
       </c>
       <c r="K424" t="n">
-        <v>7.142857142857142</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L424" t="n">
         <v>3391.5</v>
@@ -22259,7 +22281,7 @@
         <v>1191</v>
       </c>
       <c r="K425" t="n">
-        <v>11.86440677966102</v>
+        <v>62.5</v>
       </c>
       <c r="L425" t="n">
         <v>3392.4</v>
@@ -22310,7 +22332,7 @@
         <v>1196</v>
       </c>
       <c r="K426" t="n">
-        <v>18.75</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L426" t="n">
         <v>3393.9</v>
@@ -22361,7 +22383,7 @@
         <v>1199</v>
       </c>
       <c r="K427" t="n">
-        <v>28.125</v>
+        <v>100</v>
       </c>
       <c r="L427" t="n">
         <v>3395.7</v>
@@ -22412,7 +22434,7 @@
         <v>1201</v>
       </c>
       <c r="K428" t="n">
-        <v>53.57142857142857</v>
+        <v>100</v>
       </c>
       <c r="L428" t="n">
         <v>3398</v>
@@ -22463,7 +22485,7 @@
         <v>1206</v>
       </c>
       <c r="K429" t="n">
-        <v>43.47826086956522</v>
+        <v>100</v>
       </c>
       <c r="L429" t="n">
         <v>3400.5</v>
@@ -22514,7 +22536,7 @@
         <v>1208</v>
       </c>
       <c r="K430" t="n">
-        <v>43.47826086956522</v>
+        <v>100</v>
       </c>
       <c r="L430" t="n">
         <v>3403</v>
@@ -22565,7 +22587,7 @@
         <v>1211</v>
       </c>
       <c r="K431" t="n">
-        <v>63.63636363636363</v>
+        <v>100</v>
       </c>
       <c r="L431" t="n">
         <v>3405.7</v>
@@ -22616,7 +22638,7 @@
         <v>1221</v>
       </c>
       <c r="K432" t="n">
-        <v>69.23076923076923</v>
+        <v>100</v>
       </c>
       <c r="L432" t="n">
         <v>3409.3</v>
@@ -22667,7 +22689,7 @@
         <v>1238</v>
       </c>
       <c r="K433" t="n">
-        <v>33.33333333333333</v>
+        <v>35.84905660377358</v>
       </c>
       <c r="L433" t="n">
         <v>3411.2</v>
@@ -22718,7 +22740,7 @@
         <v>1250</v>
       </c>
       <c r="K434" t="n">
-        <v>45.45454545454545</v>
+        <v>42.3728813559322</v>
       </c>
       <c r="L434" t="n">
         <v>3414.3</v>
@@ -22769,7 +22791,7 @@
         <v>1252</v>
       </c>
       <c r="K435" t="n">
-        <v>41.02564102564102</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="L435" t="n">
         <v>3416.6</v>
@@ -22820,7 +22842,7 @@
         <v>1255</v>
       </c>
       <c r="K436" t="n">
-        <v>45</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="L436" t="n">
         <v>3418.7</v>
@@ -22871,7 +22893,7 @@
         <v>1255</v>
       </c>
       <c r="K437" t="n">
-        <v>45</v>
+        <v>29.62962962962963</v>
       </c>
       <c r="L437" t="n">
         <v>3420.5</v>
@@ -22922,7 +22944,7 @@
         <v>1261</v>
       </c>
       <c r="K438" t="n">
-        <v>39.75903614457831</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L438" t="n">
         <v>3421.5</v>
@@ -22973,7 +22995,7 @@
         <v>1263</v>
       </c>
       <c r="K439" t="n">
-        <v>39.02439024390244</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L439" t="n">
         <v>3422.2</v>
@@ -23024,7 +23046,7 @@
         <v>1267</v>
       </c>
       <c r="K440" t="n">
-        <v>30.95238095238095</v>
+        <v>-3.571428571428571</v>
       </c>
       <c r="L440" t="n">
         <v>3422.3</v>
@@ -23075,7 +23097,7 @@
         <v>1268</v>
       </c>
       <c r="K441" t="n">
-        <v>28.57142857142857</v>
+        <v>-27.65957446808511</v>
       </c>
       <c r="L441" t="n">
         <v>3422</v>
@@ -23126,7 +23148,7 @@
         <v>1268</v>
       </c>
       <c r="K442" t="n">
-        <v>27.71084337349398</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L442" t="n">
         <v>3420.7</v>
@@ -23177,7 +23199,7 @@
         <v>1276</v>
       </c>
       <c r="K443" t="n">
-        <v>16.48351648351648</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L443" t="n">
         <v>3420.3</v>
@@ -23228,7 +23250,7 @@
         <v>1286</v>
       </c>
       <c r="K444" t="n">
-        <v>24.75247524752475</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L444" t="n">
         <v>3419.7</v>
@@ -23279,7 +23301,7 @@
         <v>1292</v>
       </c>
       <c r="K445" t="n">
-        <v>12.87128712871287</v>
+        <v>-35.13513513513514</v>
       </c>
       <c r="L445" t="n">
         <v>3418.7</v>
@@ -23330,7 +23352,7 @@
         <v>1292</v>
       </c>
       <c r="K446" t="n">
-        <v>8.333333333333332</v>
+        <v>-35.13513513513514</v>
       </c>
       <c r="L446" t="n">
         <v>3417.4</v>
@@ -23381,7 +23403,7 @@
         <v>1292</v>
       </c>
       <c r="K447" t="n">
-        <v>5.376344086021505</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L447" t="n">
         <v>3416.1</v>
@@ -23432,7 +23454,7 @@
         <v>1294</v>
       </c>
       <c r="K448" t="n">
-        <v>1.075268817204301</v>
+        <v>-35.48387096774194</v>
       </c>
       <c r="L448" t="n">
         <v>3415.2</v>
@@ -23483,7 +23505,7 @@
         <v>1295</v>
       </c>
       <c r="K449" t="n">
-        <v>-5.617977528089887</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L449" t="n">
         <v>3414</v>
@@ -23534,7 +23556,7 @@
         <v>1298</v>
       </c>
       <c r="K450" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L450" t="n">
         <v>3412.9</v>
@@ -23585,7 +23607,7 @@
         <v>1300</v>
       </c>
       <c r="K451" t="n">
-        <v>-12.35955056179775</v>
+        <v>-25</v>
       </c>
       <c r="L451" t="n">
         <v>3412.1</v>
@@ -23636,7 +23658,7 @@
         <v>1301</v>
       </c>
       <c r="K452" t="n">
-        <v>-25</v>
+        <v>4</v>
       </c>
       <c r="L452" t="n">
         <v>3411.4</v>
@@ -23687,7 +23709,7 @@
         <v>1302</v>
       </c>
       <c r="K453" t="n">
-        <v>-6.25</v>
+        <v>-62.5</v>
       </c>
       <c r="L453" t="n">
         <v>3411.4</v>
@@ -23738,7 +23760,7 @@
         <v>1302</v>
       </c>
       <c r="K454" t="n">
-        <v>-30.76923076923077</v>
+        <v>-40</v>
       </c>
       <c r="L454" t="n">
         <v>3410.4</v>
@@ -23789,7 +23811,7 @@
         <v>1303</v>
       </c>
       <c r="K455" t="n">
-        <v>-29.41176470588236</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L455" t="n">
         <v>3409.9</v>
@@ -23840,7 +23862,7 @@
         <v>1305</v>
       </c>
       <c r="K456" t="n">
-        <v>-32</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L456" t="n">
         <v>3409.6</v>
@@ -23891,7 +23913,7 @@
         <v>1309</v>
       </c>
       <c r="K457" t="n">
-        <v>-22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L457" t="n">
         <v>3409.7</v>
@@ -23942,7 +23964,7 @@
         <v>1312</v>
       </c>
       <c r="K458" t="n">
-        <v>-17.64705882352941</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L458" t="n">
         <v>3409.7</v>
@@ -23993,7 +24015,7 @@
         <v>1318</v>
       </c>
       <c r="K459" t="n">
-        <v>-9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L459" t="n">
         <v>3410.4</v>
@@ -24044,7 +24066,7 @@
         <v>1319</v>
       </c>
       <c r="K460" t="n">
-        <v>0</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L460" t="n">
         <v>3411.5</v>
@@ -24095,7 +24117,7 @@
         <v>1326</v>
       </c>
       <c r="K461" t="n">
-        <v>-10.3448275862069</v>
+        <v>4</v>
       </c>
       <c r="L461" t="n">
         <v>3411.7</v>
@@ -24146,7 +24168,7 @@
         <v>1327</v>
       </c>
       <c r="K462" t="n">
-        <v>-11.86440677966102</v>
+        <v>4</v>
       </c>
       <c r="L462" t="n">
         <v>3411.7</v>
@@ -24197,7 +24219,7 @@
         <v>1332</v>
       </c>
       <c r="K463" t="n">
-        <v>10.71428571428571</v>
+        <v>20</v>
       </c>
       <c r="L463" t="n">
         <v>3412.3</v>
@@ -24248,7 +24270,7 @@
         <v>1334</v>
       </c>
       <c r="K464" t="n">
-        <v>-12.5</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L464" t="n">
         <v>3412.7</v>
@@ -24299,7 +24321,7 @@
         <v>1336</v>
       </c>
       <c r="K465" t="n">
-        <v>4.545454545454546</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L465" t="n">
         <v>3413.4</v>
@@ -24350,7 +24372,7 @@
         <v>1339</v>
       </c>
       <c r="K466" t="n">
-        <v>-2.127659574468085</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L466" t="n">
         <v>3413.6</v>
@@ -24401,7 +24423,7 @@
         <v>1341</v>
       </c>
       <c r="K467" t="n">
-        <v>-6.122448979591836</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L467" t="n">
         <v>3413.2</v>
@@ -24452,7 +24474,7 @@
         <v>1341</v>
       </c>
       <c r="K468" t="n">
-        <v>-2.127659574468085</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L468" t="n">
         <v>3413.1</v>
@@ -24503,7 +24525,7 @@
         <v>1341</v>
       </c>
       <c r="K469" t="n">
-        <v>0</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L469" t="n">
         <v>3412.4</v>
@@ -24554,7 +24576,7 @@
         <v>1345</v>
       </c>
       <c r="K470" t="n">
-        <v>-2.127659574468085</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L470" t="n">
         <v>3411.2</v>
@@ -24605,7 +24627,7 @@
         <v>1348</v>
       </c>
       <c r="K471" t="n">
-        <v>0</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L471" t="n">
         <v>3411</v>
@@ -24656,7 +24678,7 @@
         <v>1349</v>
       </c>
       <c r="K472" t="n">
-        <v>-4.166666666666666</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L472" t="n">
         <v>3410.8</v>
@@ -24707,7 +24729,7 @@
         <v>1350</v>
       </c>
       <c r="K473" t="n">
-        <v>-4.166666666666666</v>
+        <v>-37.5</v>
       </c>
       <c r="L473" t="n">
         <v>3410</v>
@@ -24758,7 +24780,7 @@
         <v>1353</v>
       </c>
       <c r="K474" t="n">
-        <v>1.96078431372549</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L474" t="n">
         <v>3409.7</v>
@@ -24809,7 +24831,7 @@
         <v>1353</v>
       </c>
       <c r="K475" t="n">
-        <v>4</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L475" t="n">
         <v>3409.2</v>
@@ -24860,7 +24882,7 @@
         <v>1359</v>
       </c>
       <c r="K476" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L476" t="n">
         <v>3409.6</v>
@@ -24911,7 +24933,7 @@
         <v>1365</v>
       </c>
       <c r="K477" t="n">
-        <v>-7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L477" t="n">
         <v>3409.6</v>
@@ -24962,7 +24984,7 @@
         <v>1366</v>
       </c>
       <c r="K478" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L478" t="n">
         <v>3409.7</v>
@@ -25013,7 +25035,7 @@
         <v>1367</v>
       </c>
       <c r="K479" t="n">
-        <v>-14.28571428571428</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L479" t="n">
         <v>3409.7</v>
@@ -25064,7 +25086,7 @@
         <v>1370</v>
       </c>
       <c r="K480" t="n">
-        <v>-9.803921568627452</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L480" t="n">
         <v>3410.4</v>
@@ -25115,7 +25137,7 @@
         <v>1370</v>
       </c>
       <c r="K481" t="n">
-        <v>4.545454545454546</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L481" t="n">
         <v>3410.8</v>
@@ -25166,7 +25188,7 @@
         <v>1372</v>
       </c>
       <c r="K482" t="n">
-        <v>2.222222222222222</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L482" t="n">
         <v>3411.1</v>
@@ -25217,7 +25239,7 @@
         <v>1372</v>
       </c>
       <c r="K483" t="n">
-        <v>-10</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L483" t="n">
         <v>3411.5</v>
@@ -25268,7 +25290,7 @@
         <v>1375</v>
       </c>
       <c r="K484" t="n">
-        <v>2.439024390243902</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L484" t="n">
         <v>3411.9</v>
@@ -25319,7 +25341,7 @@
         <v>1377</v>
       </c>
       <c r="K485" t="n">
-        <v>2.439024390243902</v>
+        <v>0</v>
       </c>
       <c r="L485" t="n">
         <v>3412.5</v>
@@ -25370,7 +25392,7 @@
         <v>1381</v>
       </c>
       <c r="K486" t="n">
-        <v>19.04761904761905</v>
+        <v>62.5</v>
       </c>
       <c r="L486" t="n">
         <v>3412.9</v>
@@ -25421,7 +25443,7 @@
         <v>1387</v>
       </c>
       <c r="K487" t="n">
-        <v>8.695652173913043</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L487" t="n">
         <v>3413.3</v>
@@ -25472,7 +25494,7 @@
         <v>1395</v>
       </c>
       <c r="K488" t="n">
-        <v>-7.407407407407407</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L488" t="n">
         <v>3412.8</v>
@@ -25523,7 +25545,7 @@
         <v>1400</v>
       </c>
       <c r="K489" t="n">
-        <v>1.694915254237288</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L489" t="n">
         <v>3412.9</v>
@@ -25574,7 +25596,7 @@
         <v>1404</v>
       </c>
       <c r="K490" t="n">
-        <v>1.694915254237288</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L490" t="n">
         <v>3412.3</v>
@@ -25625,7 +25647,7 @@
         <v>1404</v>
       </c>
       <c r="K491" t="n">
-        <v>-3.571428571428571</v>
+        <v>-12.5</v>
       </c>
       <c r="L491" t="n">
         <v>3411.7</v>
@@ -25676,7 +25698,7 @@
         <v>1405</v>
       </c>
       <c r="K492" t="n">
-        <v>-3.571428571428571</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L492" t="n">
         <v>3411.2</v>
@@ -25727,7 +25749,7 @@
         <v>1405</v>
       </c>
       <c r="K493" t="n">
-        <v>-1.818181818181818</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L493" t="n">
         <v>3410.7</v>
@@ -25778,7 +25800,7 @@
         <v>1408</v>
       </c>
       <c r="K494" t="n">
-        <v>-1.818181818181818</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L494" t="n">
         <v>3410.2</v>
@@ -25829,7 +25851,7 @@
         <v>1412</v>
       </c>
       <c r="K495" t="n">
-        <v>-8.474576271186439</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L495" t="n">
         <v>3409.1</v>
@@ -25880,7 +25902,7 @@
         <v>1413</v>
       </c>
       <c r="K496" t="n">
-        <v>-22.22222222222222</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L496" t="n">
         <v>3407.5</v>
@@ -25931,7 +25953,7 @@
         <v>1415</v>
       </c>
       <c r="K497" t="n">
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="L497" t="n">
         <v>3406.3</v>
@@ -25982,7 +26004,7 @@
         <v>1416</v>
       </c>
       <c r="K498" t="n">
-        <v>-16</v>
+        <v>-50</v>
       </c>
       <c r="L498" t="n">
         <v>3406</v>
@@ -26033,7 +26055,7 @@
         <v>1417</v>
       </c>
       <c r="K499" t="n">
-        <v>-16</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L499" t="n">
         <v>3405.1</v>
@@ -26084,7 +26106,7 @@
         <v>1422</v>
       </c>
       <c r="K500" t="n">
-        <v>-11.53846153846154</v>
+        <v>0</v>
       </c>
       <c r="L500" t="n">
         <v>3405.1</v>
@@ -26135,7 +26157,7 @@
         <v>1426</v>
       </c>
       <c r="K501" t="n">
-        <v>-17.85714285714286</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L501" t="n">
         <v>3404.7</v>
@@ -26186,7 +26208,7 @@
         <v>1428</v>
       </c>
       <c r="K502" t="n">
-        <v>-10.71428571428571</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L502" t="n">
         <v>3404.6</v>
@@ -26237,7 +26259,7 @@
         <v>1435</v>
       </c>
       <c r="K503" t="n">
-        <v>-20.63492063492063</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L503" t="n">
         <v>3403.8</v>
@@ -26288,7 +26310,7 @@
         <v>1438</v>
       </c>
       <c r="K504" t="n">
-        <v>-30.15873015873016</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L504" t="n">
         <v>3402.4</v>
@@ -26339,7 +26361,7 @@
         <v>1439</v>
       </c>
       <c r="K505" t="n">
-        <v>-32.25806451612903</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L505" t="n">
         <v>3401.5</v>
@@ -26390,7 +26412,7 @@
         <v>1439</v>
       </c>
       <c r="K506" t="n">
-        <v>-41.37931034482759</v>
+        <v>-25</v>
       </c>
       <c r="L506" t="n">
         <v>3400.7</v>
@@ -26441,7 +26463,7 @@
         <v>1439</v>
       </c>
       <c r="K507" t="n">
-        <v>-34.61538461538461</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L507" t="n">
         <v>3400.1</v>
@@ -26492,7 +26514,7 @@
         <v>1443</v>
       </c>
       <c r="K508" t="n">
-        <v>-12.5</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L508" t="n">
         <v>3399.8</v>
@@ -26543,7 +26565,7 @@
         <v>1443</v>
       </c>
       <c r="K509" t="n">
-        <v>-25.58139534883721</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L509" t="n">
         <v>3399.6</v>
@@ -26594,7 +26616,7 @@
         <v>1446</v>
       </c>
       <c r="K510" t="n">
-        <v>-23.80952380952381</v>
+        <v>-30</v>
       </c>
       <c r="L510" t="n">
         <v>3398.6</v>
@@ -26645,7 +26667,7 @@
         <v>1447</v>
       </c>
       <c r="K511" t="n">
-        <v>-25.58139534883721</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L511" t="n">
         <v>3397.9</v>
@@ -26696,7 +26718,7 @@
         <v>1447</v>
       </c>
       <c r="K512" t="n">
-        <v>-23.80952380952381</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L512" t="n">
         <v>3397</v>
@@ -26747,7 +26769,7 @@
         <v>1449</v>
       </c>
       <c r="K513" t="n">
-        <v>-27.27272727272727</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L513" t="n">
         <v>3396.6</v>
@@ -26798,7 +26820,7 @@
         <v>1450</v>
       </c>
       <c r="K514" t="n">
-        <v>-33.33333333333333</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L514" t="n">
         <v>3396.6</v>
@@ -26849,7 +26871,7 @@
         <v>1450</v>
       </c>
       <c r="K515" t="n">
-        <v>-26.31578947368421</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L515" t="n">
         <v>3396.5</v>
@@ -26900,7 +26922,7 @@
         <v>1450</v>
       </c>
       <c r="K516" t="n">
-        <v>-24.32432432432433</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L516" t="n">
         <v>3396.4</v>
@@ -26951,7 +26973,7 @@
         <v>1450</v>
       </c>
       <c r="K517" t="n">
-        <v>-20</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L517" t="n">
         <v>3396.3</v>
@@ -27002,7 +27024,7 @@
         <v>1454</v>
       </c>
       <c r="K518" t="n">
-        <v>-10.52631578947368</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L518" t="n">
         <v>3396.2</v>
@@ -27053,7 +27075,7 @@
         <v>1454</v>
       </c>
       <c r="K519" t="n">
-        <v>-8.108108108108109</v>
+        <v>25</v>
       </c>
       <c r="L519" t="n">
         <v>3396.1</v>
@@ -27104,7 +27126,7 @@
         <v>1455</v>
       </c>
       <c r="K520" t="n">
-        <v>-27.27272727272727</v>
+        <v>25</v>
       </c>
       <c r="L520" t="n">
         <v>3396.2</v>
@@ -27155,7 +27177,7 @@
         <v>1458</v>
       </c>
       <c r="K521" t="n">
-        <v>-25</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L521" t="n">
         <v>3396.1</v>
@@ -27206,7 +27228,7 @@
         <v>1458</v>
       </c>
       <c r="K522" t="n">
-        <v>-33.33333333333333</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L522" t="n">
         <v>3396</v>
@@ -27257,7 +27279,7 @@
         <v>1460</v>
       </c>
       <c r="K523" t="n">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="L523" t="n">
         <v>3396.3</v>
@@ -27359,7 +27381,7 @@
         <v>1467</v>
       </c>
       <c r="K525" t="n">
-        <v>14.28571428571428</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L525" t="n">
         <v>3396.8</v>
@@ -27410,7 +27432,7 @@
         <v>1468</v>
       </c>
       <c r="K526" t="n">
-        <v>10.3448275862069</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L526" t="n">
         <v>3397.2</v>
@@ -27461,7 +27483,7 @@
         <v>1469</v>
       </c>
       <c r="K527" t="n">
-        <v>13.33333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L527" t="n">
         <v>3397.7</v>
@@ -27512,7 +27534,7 @@
         <v>1470</v>
       </c>
       <c r="K528" t="n">
-        <v>-3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L528" t="n">
         <v>3397.7</v>
@@ -27563,7 +27585,7 @@
         <v>1472</v>
       </c>
       <c r="K529" t="n">
-        <v>3.448275862068965</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L529" t="n">
         <v>3397.9</v>
@@ -27614,7 +27636,7 @@
         <v>1481</v>
       </c>
       <c r="K530" t="n">
-        <v>37.14285714285715</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L530" t="n">
         <v>3399.1</v>
@@ -27665,7 +27687,7 @@
         <v>1482</v>
       </c>
       <c r="K531" t="n">
-        <v>42.85714285714285</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L531" t="n">
         <v>3400.7</v>
@@ -27716,7 +27738,7 @@
         <v>1483</v>
       </c>
       <c r="K532" t="n">
-        <v>38.88888888888889</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L532" t="n">
         <v>3402.2</v>
@@ -27767,7 +27789,7 @@
         <v>1484</v>
       </c>
       <c r="K533" t="n">
-        <v>48.57142857142857</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L533" t="n">
         <v>3403.6</v>
@@ -27818,7 +27840,7 @@
         <v>1484</v>
       </c>
       <c r="K534" t="n">
-        <v>47.05882352941176</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L534" t="n">
         <v>3405.2</v>
@@ -27869,7 +27891,7 @@
         <v>1485</v>
       </c>
       <c r="K535" t="n">
-        <v>42.85714285714285</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L535" t="n">
         <v>3406.2</v>
@@ -27920,7 +27942,7 @@
         <v>1487</v>
       </c>
       <c r="K536" t="n">
-        <v>45.94594594594595</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L536" t="n">
         <v>3407.5</v>
@@ -27971,7 +27993,7 @@
         <v>1494</v>
       </c>
       <c r="K537" t="n">
-        <v>22.72727272727273</v>
+        <v>25</v>
       </c>
       <c r="L537" t="n">
         <v>3408</v>
@@ -28022,7 +28044,7 @@
         <v>1497</v>
       </c>
       <c r="K538" t="n">
-        <v>6.976744186046512</v>
+        <v>4</v>
       </c>
       <c r="L538" t="n">
         <v>3408.3</v>
@@ -28073,7 +28095,7 @@
         <v>1501</v>
       </c>
       <c r="K539" t="n">
-        <v>14.8936170212766</v>
+        <v>-20</v>
       </c>
       <c r="L539" t="n">
         <v>3408.8</v>
@@ -28124,7 +28146,7 @@
         <v>1506</v>
       </c>
       <c r="K540" t="n">
-        <v>5.88235294117647</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L540" t="n">
         <v>3407.9</v>
@@ -28175,7 +28197,7 @@
         <v>1506</v>
       </c>
       <c r="K541" t="n">
-        <v>12.5</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L541" t="n">
         <v>3406.9</v>
@@ -28226,7 +28248,7 @@
         <v>1513</v>
       </c>
       <c r="K542" t="n">
-        <v>23.63636363636364</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L542" t="n">
         <v>3406.7</v>
@@ -28277,7 +28299,7 @@
         <v>1517</v>
       </c>
       <c r="K543" t="n">
-        <v>12.28070175438596</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L543" t="n">
         <v>3406</v>
@@ -28328,7 +28350,7 @@
         <v>1521</v>
       </c>
       <c r="K544" t="n">
-        <v>8.474576271186439</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L544" t="n">
         <v>3404.9</v>
@@ -28379,7 +28401,7 @@
         <v>1522</v>
       </c>
       <c r="K545" t="n">
-        <v>-1.818181818181818</v>
+        <v>-37.14285714285715</v>
       </c>
       <c r="L545" t="n">
         <v>3403.8</v>
@@ -28430,7 +28452,7 @@
         <v>1524</v>
       </c>
       <c r="K546" t="n">
-        <v>-3.571428571428571</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L546" t="n">
         <v>3402.3</v>
@@ -28481,7 +28503,7 @@
         <v>1525</v>
       </c>
       <c r="K547" t="n">
-        <v>-3.571428571428571</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L547" t="n">
         <v>3401.6</v>
@@ -28532,7 +28554,7 @@
         <v>1527</v>
       </c>
       <c r="K548" t="n">
-        <v>-5.263157894736842</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L548" t="n">
         <v>3401</v>
@@ -28583,7 +28605,7 @@
         <v>1529</v>
       </c>
       <c r="K549" t="n">
-        <v>-5.263157894736842</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L549" t="n">
         <v>3400.2</v>
@@ -28634,7 +28656,7 @@
         <v>1531</v>
       </c>
       <c r="K550" t="n">
-        <v>-20</v>
+        <v>-4</v>
       </c>
       <c r="L550" t="n">
         <v>3400.1</v>
@@ -28685,7 +28707,7 @@
         <v>1534</v>
       </c>
       <c r="K551" t="n">
-        <v>-15.38461538461539</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L551" t="n">
         <v>3400.3</v>
@@ -28736,7 +28758,7 @@
         <v>1537</v>
       </c>
       <c r="K552" t="n">
-        <v>-18.51851851851852</v>
+        <v>-20</v>
       </c>
       <c r="L552" t="n">
         <v>3399.5</v>
@@ -28787,7 +28809,7 @@
         <v>1544</v>
       </c>
       <c r="K553" t="n">
-        <v>-30</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L553" t="n">
         <v>3398.4</v>
@@ -28838,7 +28860,7 @@
         <v>1546</v>
       </c>
       <c r="K554" t="n">
-        <v>-25.80645161290322</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L554" t="n">
         <v>3397.9</v>
@@ -28889,7 +28911,7 @@
         <v>1548</v>
       </c>
       <c r="K555" t="n">
-        <v>-20.63492063492063</v>
+        <v>0</v>
       </c>
       <c r="L555" t="n">
         <v>3397.7</v>
@@ -28940,7 +28962,7 @@
         <v>1550</v>
       </c>
       <c r="K556" t="n">
-        <v>-20.63492063492063</v>
+        <v>4</v>
       </c>
       <c r="L556" t="n">
         <v>3397.9</v>
@@ -28991,7 +29013,7 @@
         <v>1554</v>
       </c>
       <c r="K557" t="n">
-        <v>-16.66666666666666</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L557" t="n">
         <v>3397.6</v>
@@ -29042,7 +29064,7 @@
         <v>1559</v>
       </c>
       <c r="K558" t="n">
-        <v>-3.225806451612903</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L558" t="n">
         <v>3398</v>
@@ -29093,7 +29115,7 @@
         <v>1562</v>
       </c>
       <c r="K559" t="n">
-        <v>-14.75409836065574</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L559" t="n">
         <v>3397.9</v>
@@ -29144,7 +29166,7 @@
         <v>1563</v>
       </c>
       <c r="K560" t="n">
-        <v>-8.771929824561402</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L560" t="n">
         <v>3397.5</v>
@@ -29195,7 +29217,7 @@
         <v>1565</v>
       </c>
       <c r="K561" t="n">
-        <v>-5.084745762711865</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L561" t="n">
         <v>3397</v>
@@ -29246,7 +29268,7 @@
         <v>1571</v>
       </c>
       <c r="K562" t="n">
-        <v>-6.896551724137931</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L562" t="n">
         <v>3397.4</v>
@@ -29297,7 +29319,7 @@
         <v>1575</v>
       </c>
       <c r="K563" t="n">
-        <v>-6.896551724137931</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L563" t="n">
         <v>3398.1</v>
@@ -29348,7 +29370,7 @@
         <v>1582</v>
       </c>
       <c r="K564" t="n">
-        <v>11.47540983606557</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L564" t="n">
         <v>3399.3</v>
@@ -29399,7 +29421,7 @@
         <v>1586</v>
       </c>
       <c r="K565" t="n">
-        <v>6.25</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L565" t="n">
         <v>3399.9</v>
@@ -29450,7 +29472,7 @@
         <v>1590</v>
       </c>
       <c r="K566" t="n">
-        <v>15.15151515151515</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L566" t="n">
         <v>3400.7</v>
@@ -29501,7 +29523,7 @@
         <v>1597</v>
       </c>
       <c r="K567" t="n">
-        <v>2.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="L567" t="n">
         <v>3401.2</v>
@@ -29552,7 +29574,7 @@
         <v>1597</v>
       </c>
       <c r="K568" t="n">
-        <v>5.714285714285714</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L568" t="n">
         <v>3401.2</v>
@@ -29603,7 +29625,7 @@
         <v>1602</v>
       </c>
       <c r="K569" t="n">
-        <v>9.58904109589041</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L569" t="n">
         <v>3402</v>
@@ -29654,7 +29676,7 @@
         <v>1604</v>
       </c>
       <c r="K570" t="n">
-        <v>4.10958904109589</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L570" t="n">
         <v>3402.7</v>
@@ -29705,7 +29727,7 @@
         <v>1606</v>
       </c>
       <c r="K571" t="n">
-        <v>2.777777777777778</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L571" t="n">
         <v>3403.4</v>
@@ -29756,7 +29778,7 @@
         <v>1609</v>
       </c>
       <c r="K572" t="n">
-        <v>11.11111111111111</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L572" t="n">
         <v>3403.8</v>
@@ -29807,7 +29829,7 @@
         <v>1610</v>
       </c>
       <c r="K573" t="n">
-        <v>24.24242424242424</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L573" t="n">
         <v>3404.7</v>
@@ -29858,7 +29880,7 @@
         <v>1617</v>
       </c>
       <c r="K574" t="n">
-        <v>29.57746478873239</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L574" t="n">
         <v>3405.6</v>
@@ -29909,7 +29931,7 @@
         <v>1621</v>
       </c>
       <c r="K575" t="n">
-        <v>20.54794520547945</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L575" t="n">
         <v>3406.5</v>
@@ -29960,7 +29982,7 @@
         <v>1622</v>
       </c>
       <c r="K576" t="n">
-        <v>16.66666666666666</v>
+        <v>44</v>
       </c>
       <c r="L576" t="n">
         <v>3406.9</v>
@@ -30011,7 +30033,7 @@
         <v>1632</v>
       </c>
       <c r="K577" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L577" t="n">
         <v>3409</v>
@@ -30062,7 +30084,7 @@
         <v>1634</v>
       </c>
       <c r="K578" t="n">
-        <v>25.33333333333334</v>
+        <v>43.75</v>
       </c>
       <c r="L578" t="n">
         <v>3410.9</v>
@@ -30113,7 +30135,7 @@
         <v>1637</v>
       </c>
       <c r="K579" t="n">
-        <v>33.33333333333333</v>
+        <v>57.57575757575758</v>
       </c>
       <c r="L579" t="n">
         <v>3412.6</v>
@@ -30164,7 +30186,7 @@
         <v>1638</v>
       </c>
       <c r="K580" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L580" t="n">
         <v>3414.4</v>
@@ -30215,7 +30237,7 @@
         <v>1644</v>
       </c>
       <c r="K581" t="n">
-        <v>21.51898734177215</v>
+        <v>20</v>
       </c>
       <c r="L581" t="n">
         <v>3415.4</v>
@@ -30266,7 +30288,7 @@
         <v>1646</v>
       </c>
       <c r="K582" t="n">
-        <v>12</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L582" t="n">
         <v>3415.9</v>
@@ -30317,7 +30339,7 @@
         <v>1650</v>
       </c>
       <c r="K583" t="n">
-        <v>22.66666666666666</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L583" t="n">
         <v>3416.7</v>
@@ -30368,7 +30390,7 @@
         <v>1651</v>
       </c>
       <c r="K584" t="n">
-        <v>13.04347826086956</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L584" t="n">
         <v>3416.7</v>
@@ -30419,7 +30441,7 @@
         <v>1651</v>
       </c>
       <c r="K585" t="n">
-        <v>20</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L585" t="n">
         <v>3417.1</v>
@@ -30470,7 +30492,7 @@
         <v>1654</v>
       </c>
       <c r="K586" t="n">
-        <v>9.375</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L586" t="n">
         <v>3417.3</v>
@@ -30521,7 +30543,7 @@
         <v>1656</v>
       </c>
       <c r="K587" t="n">
-        <v>25.42372881355932</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L587" t="n">
         <v>3416.7</v>
@@ -30572,7 +30594,7 @@
         <v>1657</v>
       </c>
       <c r="K588" t="n">
-        <v>23.33333333333333</v>
+        <v>-40</v>
       </c>
       <c r="L588" t="n">
         <v>3416.2</v>
@@ -30623,7 +30645,7 @@
         <v>1657</v>
       </c>
       <c r="K589" t="n">
-        <v>16.36363636363636</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L589" t="n">
         <v>3415.4</v>
@@ -30674,7 +30696,7 @@
         <v>1658</v>
       </c>
       <c r="K590" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L590" t="n">
         <v>3414.8</v>
@@ -30725,7 +30747,7 @@
         <v>1663</v>
       </c>
       <c r="K591" t="n">
-        <v>8.771929824561402</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L591" t="n">
         <v>3414.3</v>
@@ -30776,7 +30798,7 @@
         <v>1665</v>
       </c>
       <c r="K592" t="n">
-        <v>7.142857142857142</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L592" t="n">
         <v>3414.2</v>
@@ -30827,7 +30849,7 @@
         <v>1665</v>
       </c>
       <c r="K593" t="n">
-        <v>5.454545454545454</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L593" t="n">
         <v>3413.7</v>
@@ -30878,7 +30900,7 @@
         <v>1667</v>
       </c>
       <c r="K594" t="n">
-        <v>-12</v>
+        <v>-37.5</v>
       </c>
       <c r="L594" t="n">
         <v>3413.1</v>
@@ -30929,7 +30951,7 @@
         <v>1667</v>
       </c>
       <c r="K595" t="n">
-        <v>-4.347826086956522</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L595" t="n">
         <v>3412.5</v>
@@ -30980,7 +31002,7 @@
         <v>1667</v>
       </c>
       <c r="K596" t="n">
-        <v>-2.222222222222222</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L596" t="n">
         <v>3412.2</v>
@@ -31031,7 +31053,7 @@
         <v>1668</v>
       </c>
       <c r="K597" t="n">
-        <v>-27.77777777777778</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L597" t="n">
         <v>3411.8</v>
@@ -31082,7 +31104,7 @@
         <v>1671</v>
       </c>
       <c r="K598" t="n">
-        <v>-13.51351351351351</v>
+        <v>0</v>
       </c>
       <c r="L598" t="n">
         <v>3411.8</v>
@@ -31133,7 +31155,7 @@
         <v>1677</v>
       </c>
       <c r="K599" t="n">
-        <v>-5</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L599" t="n">
         <v>3412.4</v>
@@ -31184,7 +31206,7 @@
         <v>1686</v>
       </c>
       <c r="K600" t="n">
-        <v>-20.83333333333334</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L600" t="n">
         <v>3412</v>
@@ -31235,7 +31257,7 @@
         <v>1687</v>
       </c>
       <c r="K601" t="n">
-        <v>-11.62790697674419</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L601" t="n">
         <v>3412</v>
@@ -31286,7 +31308,7 @@
         <v>1690</v>
       </c>
       <c r="K602" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L602" t="n">
         <v>3412.1</v>
@@ -31337,7 +31359,7 @@
         <v>1692</v>
       </c>
       <c r="K603" t="n">
-        <v>-14.28571428571428</v>
+        <v>4</v>
       </c>
       <c r="L603" t="n">
         <v>3412</v>
@@ -31388,7 +31410,7 @@
         <v>1693</v>
       </c>
       <c r="K604" t="n">
-        <v>-9.523809523809524</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L604" t="n">
         <v>3412.2</v>
@@ -31439,7 +31461,7 @@
         <v>1693</v>
       </c>
       <c r="K605" t="n">
-        <v>-9.523809523809524</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L605" t="n">
         <v>3412.4</v>
@@ -31490,7 +31512,7 @@
         <v>1697</v>
       </c>
       <c r="K606" t="n">
-        <v>-11.62790697674419</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L606" t="n">
         <v>3412.2</v>
@@ -31541,7 +31563,7 @@
         <v>1698</v>
       </c>
       <c r="K607" t="n">
-        <v>-14.28571428571428</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L607" t="n">
         <v>3412</v>
@@ -31592,7 +31614,7 @@
         <v>1702</v>
       </c>
       <c r="K608" t="n">
-        <v>-2.222222222222222</v>
+        <v>-28</v>
       </c>
       <c r="L608" t="n">
         <v>3411.9</v>
@@ -31643,7 +31665,7 @@
         <v>1703</v>
       </c>
       <c r="K609" t="n">
-        <v>0</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L609" t="n">
         <v>3411.3</v>
@@ -31694,7 +31716,7 @@
         <v>1703</v>
       </c>
       <c r="K610" t="n">
-        <v>-2.222222222222222</v>
+        <v>25</v>
       </c>
       <c r="L610" t="n">
         <v>3411.6</v>
@@ -31745,7 +31767,7 @@
         <v>1711</v>
       </c>
       <c r="K611" t="n">
-        <v>25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L611" t="n">
         <v>3412.8</v>
@@ -31796,7 +31818,7 @@
         <v>1711</v>
       </c>
       <c r="K612" t="n">
-        <v>21.73913043478261</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L612" t="n">
         <v>3413.7</v>
@@ -31847,7 +31869,7 @@
         <v>1714</v>
       </c>
       <c r="K613" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L613" t="n">
         <v>3414.5</v>
@@ -31898,7 +31920,7 @@
         <v>1717</v>
       </c>
       <c r="K614" t="n">
-        <v>24</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L614" t="n">
         <v>3415.5</v>
@@ -31949,7 +31971,7 @@
         <v>1719</v>
       </c>
       <c r="K615" t="n">
-        <v>26.92307692307692</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L615" t="n">
         <v>3416.7</v>
@@ -32000,7 +32022,7 @@
         <v>1730</v>
       </c>
       <c r="K616" t="n">
-        <v>39.68253968253968</v>
+        <v>81.25</v>
       </c>
       <c r="L616" t="n">
         <v>3419.4</v>
@@ -32051,7 +32073,7 @@
         <v>1730</v>
       </c>
       <c r="K617" t="n">
-        <v>38.70967741935484</v>
+        <v>78.57142857142857</v>
       </c>
       <c r="L617" t="n">
         <v>3422</v>
@@ -32102,7 +32124,7 @@
         <v>1735</v>
       </c>
       <c r="K618" t="n">
-        <v>40.625</v>
+        <v>81.25</v>
       </c>
       <c r="L618" t="n">
         <v>3424.7</v>
@@ -32153,7 +32175,7 @@
         <v>1739</v>
       </c>
       <c r="K619" t="n">
-        <v>38.70967741935484</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L619" t="n">
         <v>3427.7</v>
@@ -32204,7 +32226,7 @@
         <v>1742</v>
       </c>
       <c r="K620" t="n">
-        <v>53.57142857142857</v>
+        <v>61.29032258064516</v>
       </c>
       <c r="L620" t="n">
         <v>3430.4</v>
@@ -32255,7 +32277,7 @@
         <v>1750</v>
       </c>
       <c r="K621" t="n">
-        <v>61.90476190476191</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L621" t="n">
         <v>3433.1</v>
@@ -32306,7 +32328,7 @@
         <v>1750</v>
       </c>
       <c r="K622" t="n">
-        <v>60</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L622" t="n">
         <v>3435.8</v>
@@ -32357,7 +32379,7 @@
         <v>1751</v>
       </c>
       <c r="K623" t="n">
-        <v>66.10169491525424</v>
+        <v>82.35294117647058</v>
       </c>
       <c r="L623" t="n">
         <v>3438.9</v>
@@ -32408,7 +32430,7 @@
         <v>1757</v>
       </c>
       <c r="K624" t="n">
-        <v>50</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="L624" t="n">
         <v>3441.1</v>
@@ -32459,7 +32481,7 @@
         <v>1758</v>
       </c>
       <c r="K625" t="n">
-        <v>50.76923076923077</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L625" t="n">
         <v>3443.2</v>
@@ -32510,7 +32532,7 @@
         <v>1762</v>
       </c>
       <c r="K626" t="n">
-        <v>50.76923076923077</v>
+        <v>18.75</v>
       </c>
       <c r="L626" t="n">
         <v>3443.8</v>
@@ -32561,7 +32583,7 @@
         <v>1765</v>
       </c>
       <c r="K627" t="n">
-        <v>52.23880597014925</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L627" t="n">
         <v>3444.7</v>
@@ -32612,7 +32634,7 @@
         <v>1766</v>
       </c>
       <c r="K628" t="n">
-        <v>46.875</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L628" t="n">
         <v>3445</v>
@@ -32663,7 +32685,7 @@
         <v>1769</v>
       </c>
       <c r="K629" t="n">
-        <v>48.48484848484848</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L629" t="n">
         <v>3445.2</v>
@@ -32714,7 +32736,7 @@
         <v>1772</v>
       </c>
       <c r="K630" t="n">
-        <v>42.02898550724638</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L630" t="n">
         <v>3445.4</v>
@@ -32765,7 +32787,7 @@
         <v>1779</v>
       </c>
       <c r="K631" t="n">
-        <v>20.58823529411764</v>
+        <v>-44.82758620689656</v>
       </c>
       <c r="L631" t="n">
         <v>3444.1</v>
@@ -32816,7 +32838,7 @@
         <v>1780</v>
       </c>
       <c r="K632" t="n">
-        <v>21.73913043478261</v>
+        <v>-44.82758620689656</v>
       </c>
       <c r="L632" t="n">
         <v>3442.9</v>
@@ -32867,7 +32889,7 @@
         <v>1781</v>
       </c>
       <c r="K633" t="n">
-        <v>25.37313432835821</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L633" t="n">
         <v>3441.5</v>
@@ -32918,7 +32940,7 @@
         <v>1786</v>
       </c>
       <c r="K634" t="n">
-        <v>13.04347826086956</v>
+        <v>-50</v>
       </c>
       <c r="L634" t="n">
         <v>3440.2</v>
@@ -32969,7 +32991,7 @@
         <v>1792</v>
       </c>
       <c r="K635" t="n">
-        <v>17.80821917808219</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L635" t="n">
         <v>3439.4</v>
@@ -33020,7 +33042,7 @@
         <v>1797</v>
       </c>
       <c r="K636" t="n">
-        <v>-4.477611940298507</v>
+        <v>-37.5</v>
       </c>
       <c r="L636" t="n">
         <v>3438.5</v>
@@ -33071,7 +33093,7 @@
         <v>1801</v>
       </c>
       <c r="K637" t="n">
-        <v>1.408450704225352</v>
+        <v>-20</v>
       </c>
       <c r="L637" t="n">
         <v>3437.7</v>
@@ -33122,7 +33144,7 @@
         <v>1805</v>
       </c>
       <c r="K638" t="n">
-        <v>-11.42857142857143</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L638" t="n">
         <v>3436.6</v>
@@ -33173,7 +33195,7 @@
         <v>1810</v>
       </c>
       <c r="K639" t="n">
-        <v>-9.859154929577464</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L639" t="n">
         <v>3435.7</v>
@@ -33224,7 +33246,7 @@
         <v>1811</v>
       </c>
       <c r="K640" t="n">
-        <v>-4.347826086956522</v>
+        <v>6.25</v>
       </c>
       <c r="L640" t="n">
         <v>3435.2</v>
@@ -33275,7 +33297,7 @@
         <v>1816</v>
       </c>
       <c r="K641" t="n">
-        <v>-24.24242424242424</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L641" t="n">
         <v>3434.9</v>
@@ -33326,7 +33348,7 @@
         <v>1818</v>
       </c>
       <c r="K642" t="n">
-        <v>-20.58823529411764</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L642" t="n">
         <v>3434.7</v>
@@ -33377,7 +33399,7 @@
         <v>1821</v>
       </c>
       <c r="K643" t="n">
-        <v>-17.14285714285714</v>
+        <v>20</v>
       </c>
       <c r="L643" t="n">
         <v>3434.9</v>
@@ -33428,7 +33450,7 @@
         <v>1821</v>
       </c>
       <c r="K644" t="n">
-        <v>-9.375</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L644" t="n">
         <v>3435.6</v>
@@ -33479,7 +33501,7 @@
         <v>1821</v>
       </c>
       <c r="K645" t="n">
-        <v>-11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L645" t="n">
         <v>3435.7</v>
@@ -33530,7 +33552,7 @@
         <v>1821</v>
       </c>
       <c r="K646" t="n">
-        <v>-5.084745762711865</v>
+        <v>10</v>
       </c>
       <c r="L646" t="n">
         <v>3436.3</v>
@@ -33581,7 +33603,7 @@
         <v>1821</v>
       </c>
       <c r="K647" t="n">
-        <v>-10.71428571428571</v>
+        <v>37.5</v>
       </c>
       <c r="L647" t="n">
         <v>3436.5</v>
@@ -33632,7 +33654,7 @@
         <v>1823</v>
       </c>
       <c r="K648" t="n">
-        <v>-12.28070175438596</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L648" t="n">
         <v>3436.9</v>
@@ -33683,7 +33705,7 @@
         <v>1823</v>
       </c>
       <c r="K649" t="n">
-        <v>-18.51851851851852</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L649" t="n">
         <v>3436.8</v>
@@ -33734,7 +33756,7 @@
         <v>1823</v>
       </c>
       <c r="K650" t="n">
-        <v>-13.72549019607843</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L650" t="n">
         <v>3436.6</v>
@@ -33785,7 +33807,7 @@
         <v>1829</v>
       </c>
       <c r="K651" t="n">
-        <v>-12</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L651" t="n">
         <v>3436.3</v>
@@ -33836,7 +33858,7 @@
         <v>1833</v>
       </c>
       <c r="K652" t="n">
-        <v>-20.75471698113208</v>
+        <v>-100</v>
       </c>
       <c r="L652" t="n">
         <v>3435.4</v>
@@ -33887,7 +33909,7 @@
         <v>1833</v>
       </c>
       <c r="K653" t="n">
-        <v>-19.23076923076923</v>
+        <v>-100</v>
       </c>
       <c r="L653" t="n">
         <v>3434.2</v>
@@ -33938,7 +33960,7 @@
         <v>1840</v>
       </c>
       <c r="K654" t="n">
-        <v>3.703703703703703</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L654" t="n">
         <v>3433.7</v>
@@ -33989,7 +34011,7 @@
         <v>1847</v>
       </c>
       <c r="K655" t="n">
-        <v>-20</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L655" t="n">
         <v>3432.5</v>
@@ -34040,7 +34062,7 @@
         <v>1849</v>
       </c>
       <c r="K656" t="n">
-        <v>-7.692307692307693</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L656" t="n">
         <v>3431.5</v>
@@ -34091,7 +34113,7 @@
         <v>1851</v>
       </c>
       <c r="K657" t="n">
-        <v>-20</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L657" t="n">
         <v>3430.3</v>
@@ -34142,7 +34164,7 @@
         <v>1856</v>
       </c>
       <c r="K658" t="n">
-        <v>-21.56862745098039</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L658" t="n">
         <v>3428.8</v>
@@ -34193,7 +34215,7 @@
         <v>1859</v>
       </c>
       <c r="K659" t="n">
-        <v>-38.77551020408163</v>
+        <v>-50</v>
       </c>
       <c r="L659" t="n">
         <v>3427</v>
@@ -34244,7 +34266,7 @@
         <v>1864</v>
       </c>
       <c r="K660" t="n">
-        <v>-28.30188679245283</v>
+        <v>-20</v>
       </c>
       <c r="L660" t="n">
         <v>3425.7</v>
@@ -34295,7 +34317,7 @@
         <v>1864</v>
       </c>
       <c r="K661" t="n">
-        <v>-20.83333333333334</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L661" t="n">
         <v>3425</v>
@@ -34346,7 +34368,7 @@
         <v>1864</v>
       </c>
       <c r="K662" t="n">
-        <v>-26.08695652173913</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L662" t="n">
         <v>3424.7</v>
@@ -34397,7 +34419,7 @@
         <v>1876</v>
       </c>
       <c r="K663" t="n">
-        <v>-5.454545454545454</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L663" t="n">
         <v>3425.6</v>
@@ -34448,7 +34470,7 @@
         <v>1880</v>
       </c>
       <c r="K664" t="n">
-        <v>-11.86440677966102</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L664" t="n">
         <v>3425.4</v>
@@ -34499,7 +34521,7 @@
         <v>1882</v>
       </c>
       <c r="K665" t="n">
-        <v>-14.75409836065574</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L665" t="n">
         <v>3425.7</v>
@@ -34550,7 +34572,7 @@
         <v>1887</v>
       </c>
       <c r="K666" t="n">
-        <v>-21.21212121212121</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L666" t="n">
         <v>3425.3</v>
@@ -34601,7 +34623,7 @@
         <v>1892</v>
       </c>
       <c r="K667" t="n">
-        <v>-12.67605633802817</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L667" t="n">
         <v>3425.6</v>
@@ -34652,7 +34674,7 @@
         <v>1892</v>
       </c>
       <c r="K668" t="n">
-        <v>-10.14492753623188</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L668" t="n">
         <v>3426.4</v>
@@ -34703,7 +34725,7 @@
         <v>1893</v>
       </c>
       <c r="K669" t="n">
-        <v>-8.571428571428571</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L669" t="n">
         <v>3427.6</v>
@@ -34754,7 +34776,7 @@
         <v>1893</v>
       </c>
       <c r="K670" t="n">
-        <v>-8.571428571428571</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L670" t="n">
         <v>3428.3</v>
@@ -34805,7 +34827,7 @@
         <v>1893</v>
       </c>
       <c r="K671" t="n">
-        <v>0</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L671" t="n">
         <v>3429</v>
@@ -34856,7 +34878,7 @@
         <v>1893</v>
       </c>
       <c r="K672" t="n">
-        <v>6.666666666666667</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L672" t="n">
         <v>3429.7</v>
@@ -34907,7 +34929,7 @@
         <v>1893</v>
       </c>
       <c r="K673" t="n">
-        <v>6.666666666666667</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L673" t="n">
         <v>3429.2</v>
@@ -34958,7 +34980,7 @@
         <v>1894</v>
       </c>
       <c r="K674" t="n">
-        <v>-7.407407407407407</v>
+        <v>0</v>
       </c>
       <c r="L674" t="n">
         <v>3429</v>
@@ -35009,7 +35031,7 @@
         <v>1897</v>
       </c>
       <c r="K675" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="L675" t="n">
         <v>3429.3</v>
@@ -35060,7 +35082,7 @@
         <v>1899</v>
       </c>
       <c r="K676" t="n">
-        <v>12</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L676" t="n">
         <v>3430.3</v>
@@ -35111,7 +35133,7 @@
         <v>1903</v>
       </c>
       <c r="K677" t="n">
-        <v>7.692307692307693</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L677" t="n">
         <v>3430.4</v>
@@ -35162,7 +35184,7 @@
         <v>1905</v>
       </c>
       <c r="K678" t="n">
-        <v>22.44897959183674</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L678" t="n">
         <v>3430.7</v>
@@ -35213,7 +35235,7 @@
         <v>1906</v>
       </c>
       <c r="K679" t="n">
-        <v>31.91489361702128</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L679" t="n">
         <v>3431</v>
@@ -35264,7 +35286,7 @@
         <v>1908</v>
       </c>
       <c r="K680" t="n">
-        <v>18.18181818181818</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L680" t="n">
         <v>3431.1</v>
@@ -35315,7 +35337,7 @@
         <v>1909</v>
       </c>
       <c r="K681" t="n">
-        <v>15.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L681" t="n">
         <v>3431.1</v>
@@ -35366,7 +35388,7 @@
         <v>1915</v>
       </c>
       <c r="K682" t="n">
-        <v>1.96078431372549</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L682" t="n">
         <v>3430.5</v>
@@ -35417,7 +35439,7 @@
         <v>1919</v>
       </c>
       <c r="K683" t="n">
-        <v>-16.27906976744186</v>
+        <v>-4</v>
       </c>
       <c r="L683" t="n">
         <v>3430.3</v>
@@ -35468,7 +35490,7 @@
         <v>1919</v>
       </c>
       <c r="K684" t="n">
-        <v>-7.692307692307693</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L684" t="n">
         <v>3430.2</v>
@@ -35519,7 +35541,7 @@
         <v>1926</v>
       </c>
       <c r="K685" t="n">
-        <v>-18.18181818181818</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L685" t="n">
         <v>3429.1</v>
@@ -35570,7 +35592,7 @@
         <v>1927</v>
       </c>
       <c r="K686" t="n">
-        <v>-10</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L686" t="n">
         <v>3427.7</v>
@@ -35621,7 +35643,7 @@
         <v>1928</v>
       </c>
       <c r="K687" t="n">
-        <v>-27.77777777777778</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L687" t="n">
         <v>3426.6</v>
@@ -35672,7 +35694,7 @@
         <v>1930</v>
       </c>
       <c r="K688" t="n">
-        <v>-21.05263157894737</v>
+        <v>-50</v>
       </c>
       <c r="L688" t="n">
         <v>3425.5</v>
@@ -35723,7 +35745,7 @@
         <v>1931</v>
       </c>
       <c r="K689" t="n">
-        <v>-26.31578947368421</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L689" t="n">
         <v>3424.2</v>
@@ -35774,7 +35796,7 @@
         <v>1931</v>
       </c>
       <c r="K690" t="n">
-        <v>-26.31578947368421</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L690" t="n">
         <v>3423.1</v>
@@ -35825,7 +35847,7 @@
         <v>1939</v>
       </c>
       <c r="K691" t="n">
-        <v>-4.347826086956522</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L691" t="n">
         <v>3422.9</v>
@@ -35876,7 +35898,7 @@
         <v>1947</v>
       </c>
       <c r="K692" t="n">
-        <v>-18.51851851851852</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L692" t="n">
         <v>3422.5</v>
@@ -35927,7 +35949,7 @@
         <v>1947</v>
       </c>
       <c r="K693" t="n">
-        <v>-18.51851851851852</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L693" t="n">
         <v>3421.7</v>
@@ -35978,7 +36000,7 @@
         <v>1950</v>
       </c>
       <c r="K694" t="n">
-        <v>-10.71428571428571</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L694" t="n">
         <v>3421.2</v>
@@ -36029,7 +36051,7 @@
         <v>1953</v>
       </c>
       <c r="K695" t="n">
-        <v>-10.71428571428571</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L695" t="n">
         <v>3421.7</v>
@@ -36080,7 +36102,7 @@
         <v>1956</v>
       </c>
       <c r="K696" t="n">
-        <v>-19.29824561403509</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L696" t="n">
         <v>3422</v>
@@ -36131,7 +36153,7 @@
         <v>1956</v>
       </c>
       <c r="K697" t="n">
-        <v>-13.20754716981132</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L697" t="n">
         <v>3422.4</v>
@@ -36182,7 +36204,7 @@
         <v>1959</v>
       </c>
       <c r="K698" t="n">
-        <v>-11.11111111111111</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L698" t="n">
         <v>3422.9</v>
@@ -36233,7 +36255,7 @@
         <v>1961</v>
       </c>
       <c r="K699" t="n">
-        <v>-16.36363636363636</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L699" t="n">
         <v>3423.3</v>
@@ -36284,7 +36306,7 @@
         <v>1965</v>
       </c>
       <c r="K700" t="n">
-        <v>-19.29824561403509</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L700" t="n">
         <v>3423.3</v>
@@ -36335,7 +36357,7 @@
         <v>1969</v>
       </c>
       <c r="K701" t="n">
-        <v>-10</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L701" t="n">
         <v>3422.9</v>
@@ -36386,7 +36408,7 @@
         <v>1969</v>
       </c>
       <c r="K702" t="n">
-        <v>0</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L702" t="n">
         <v>3423.3</v>
@@ -36437,7 +36459,7 @@
         <v>1974</v>
       </c>
       <c r="K703" t="n">
-        <v>1.818181818181818</v>
+        <v>25</v>
       </c>
       <c r="L703" t="n">
         <v>3424.2</v>
@@ -36488,7 +36510,7 @@
         <v>1980</v>
       </c>
       <c r="K704" t="n">
-        <v>-8.196721311475409</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L704" t="n">
         <v>3424.2</v>
@@ -36539,7 +36561,7 @@
         <v>1984</v>
       </c>
       <c r="K705" t="n">
-        <v>10.3448275862069</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L705" t="n">
         <v>3424.3</v>
@@ -36590,7 +36612,7 @@
         <v>1988</v>
       </c>
       <c r="K706" t="n">
-        <v>4.918032786885246</v>
+        <v>0</v>
       </c>
       <c r="L706" t="n">
         <v>3424.3</v>
@@ -36641,7 +36663,7 @@
         <v>1992</v>
       </c>
       <c r="K707" t="n">
-        <v>12.5</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L707" t="n">
         <v>3424.7</v>
@@ -36692,7 +36714,7 @@
         <v>1996</v>
       </c>
       <c r="K708" t="n">
-        <v>3.03030303030303</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L708" t="n">
         <v>3424.4</v>
@@ -36743,7 +36765,7 @@
         <v>2000</v>
       </c>
       <c r="K709" t="n">
-        <v>10.14492753623188</v>
+        <v>20</v>
       </c>
       <c r="L709" t="n">
         <v>3424.7</v>
@@ -36794,7 +36816,7 @@
         <v>2005</v>
       </c>
       <c r="K710" t="n">
-        <v>2.702702702702703</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L710" t="n">
         <v>3424.9</v>
@@ -36845,7 +36867,7 @@
         <v>2006</v>
       </c>
       <c r="K711" t="n">
-        <v>-10.44776119402985</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L711" t="n">
         <v>3424.6</v>
@@ -36896,7 +36918,7 @@
         <v>2007</v>
       </c>
       <c r="K712" t="n">
-        <v>3.333333333333333</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L712" t="n">
         <v>3424.4</v>
@@ -36947,7 +36969,7 @@
         <v>2016</v>
       </c>
       <c r="K713" t="n">
-        <v>-10.14492753623188</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L713" t="n">
         <v>3422.8</v>
@@ -36998,7 +37020,7 @@
         <v>2020</v>
       </c>
       <c r="K714" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L714" t="n">
         <v>3421.4</v>
@@ -37049,7 +37071,7 @@
         <v>2021</v>
       </c>
       <c r="K715" t="n">
-        <v>-23.52941176470588</v>
+        <v>-39.39393939393939</v>
       </c>
       <c r="L715" t="n">
         <v>3419.7</v>
@@ -37100,7 +37122,7 @@
         <v>2025</v>
       </c>
       <c r="K716" t="n">
-        <v>-13.04347826086956</v>
+        <v>-39.39393939393939</v>
       </c>
       <c r="L716" t="n">
         <v>3418.8</v>
@@ -37151,7 +37173,7 @@
         <v>2035</v>
       </c>
       <c r="K717" t="n">
-        <v>1.265822784810127</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L717" t="n">
         <v>3418.5</v>
@@ -37202,7 +37224,7 @@
         <v>2041</v>
       </c>
       <c r="K718" t="n">
-        <v>-9.75609756097561</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L718" t="n">
         <v>3418</v>
@@ -37253,7 +37275,7 @@
         <v>2053</v>
       </c>
       <c r="K719" t="n">
-        <v>-19.56521739130435</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L719" t="n">
         <v>3415.9</v>
@@ -37304,7 +37326,7 @@
         <v>2061</v>
       </c>
       <c r="K720" t="n">
-        <v>-6.25</v>
+        <v>-12.72727272727273</v>
       </c>
       <c r="L720" t="n">
         <v>3415.1</v>
@@ -37355,7 +37377,7 @@
         <v>2061</v>
       </c>
       <c r="K721" t="n">
-        <v>-10.8695652173913</v>
+        <v>-14.81481481481481</v>
       </c>
       <c r="L721" t="n">
         <v>3414.4</v>
@@ -37406,7 +37428,7 @@
         <v>2062</v>
       </c>
       <c r="K722" t="n">
-        <v>-9.67741935483871</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L722" t="n">
         <v>3413.7</v>
@@ -37457,7 +37479,7 @@
         <v>2063</v>
       </c>
       <c r="K723" t="n">
-        <v>-16.85393258426966</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L723" t="n">
         <v>3413.8</v>
@@ -37508,7 +37530,7 @@
         <v>2063</v>
       </c>
       <c r="K724" t="n">
-        <v>-10.8433734939759</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L724" t="n">
         <v>3414.3</v>
@@ -37559,7 +37581,7 @@
         <v>2066</v>
       </c>
       <c r="K725" t="n">
-        <v>-19.51219512195122</v>
+        <v>-7.317073170731707</v>
       </c>
       <c r="L725" t="n">
         <v>3414.4</v>
@@ -37610,7 +37632,7 @@
         <v>2067</v>
       </c>
       <c r="K726" t="n">
-        <v>-16.45569620253164</v>
+        <v>-43.75</v>
       </c>
       <c r="L726" t="n">
         <v>3414</v>
@@ -37661,7 +37683,7 @@
         <v>2068</v>
       </c>
       <c r="K727" t="n">
-        <v>-23.68421052631579</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L727" t="n">
         <v>3412.5</v>
@@ -37712,7 +37734,7 @@
         <v>2071</v>
       </c>
       <c r="K728" t="n">
-        <v>-22.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L728" t="n">
         <v>3411.3</v>
@@ -37763,7 +37785,7 @@
         <v>2076</v>
       </c>
       <c r="K729" t="n">
-        <v>-21.05263157894737</v>
+        <v>-20</v>
       </c>
       <c r="L729" t="n">
         <v>3411.8</v>
@@ -37814,7 +37836,7 @@
         <v>2079</v>
       </c>
       <c r="K730" t="n">
-        <v>-18.91891891891892</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L730" t="n">
         <v>3411.2</v>
@@ -37865,7 +37887,7 @@
         <v>2085</v>
       </c>
       <c r="K731" t="n">
-        <v>-8.860759493670885</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L731" t="n">
         <v>3411.2</v>
@@ -37916,7 +37938,7 @@
         <v>2086</v>
       </c>
       <c r="K732" t="n">
-        <v>-8.860759493670885</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L732" t="n">
         <v>3411.2</v>
@@ -37967,7 +37989,7 @@
         <v>2091</v>
       </c>
       <c r="K733" t="n">
-        <v>-4</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L733" t="n">
         <v>3410.8</v>
@@ -38018,7 +38040,7 @@
         <v>2093</v>
       </c>
       <c r="K734" t="n">
-        <v>-1.36986301369863</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L734" t="n">
         <v>3410.2</v>
@@ -38069,7 +38091,7 @@
         <v>2102</v>
       </c>
       <c r="K735" t="n">
-        <v>8.641975308641975</v>
+        <v>20</v>
       </c>
       <c r="L735" t="n">
         <v>3410.8</v>
@@ -38120,7 +38142,7 @@
         <v>2102</v>
       </c>
       <c r="K736" t="n">
-        <v>3.896103896103896</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L736" t="n">
         <v>3411.5</v>
@@ -38171,7 +38193,7 @@
         <v>2109</v>
       </c>
       <c r="K737" t="n">
-        <v>-18.91891891891892</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L737" t="n">
         <v>3411.6</v>
@@ -38222,7 +38244,7 @@
         <v>2113</v>
       </c>
       <c r="K738" t="n">
-        <v>-5.555555555555555</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L738" t="n">
         <v>3412.4</v>
@@ -38273,7 +38295,7 @@
         <v>2117</v>
       </c>
       <c r="K739" t="n">
-        <v>6.25</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L739" t="n">
         <v>3412.3</v>
@@ -38324,7 +38346,7 @@
         <v>2117</v>
       </c>
       <c r="K740" t="n">
-        <v>-7.142857142857142</v>
+        <v>-12.5</v>
       </c>
       <c r="L740" t="n">
         <v>3412.5</v>
@@ -38375,7 +38397,7 @@
         <v>2117</v>
       </c>
       <c r="K741" t="n">
-        <v>-7.142857142857142</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L741" t="n">
         <v>3412.1</v>
@@ -38426,7 +38448,7 @@
         <v>2119</v>
       </c>
       <c r="K742" t="n">
-        <v>-12.28070175438596</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L742" t="n">
         <v>3411.4</v>
@@ -38477,7 +38499,7 @@
         <v>2119</v>
       </c>
       <c r="K743" t="n">
-        <v>-10.71428571428571</v>
+        <v>0</v>
       </c>
       <c r="L743" t="n">
         <v>3411.2</v>
@@ -38528,7 +38550,7 @@
         <v>2121</v>
       </c>
       <c r="K744" t="n">
-        <v>-13.79310344827586</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L744" t="n">
         <v>3411</v>
@@ -38579,7 +38601,7 @@
         <v>2126</v>
       </c>
       <c r="K745" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L745" t="n">
         <v>3410.4</v>
@@ -38630,7 +38652,7 @@
         <v>2128</v>
       </c>
       <c r="K746" t="n">
-        <v>4.918032786885246</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L746" t="n">
         <v>3410</v>
@@ -38681,7 +38703,7 @@
         <v>2130</v>
       </c>
       <c r="K747" t="n">
-        <v>3.225806451612903</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L747" t="n">
         <v>3410.1</v>
@@ -38732,7 +38754,7 @@
         <v>2131</v>
       </c>
       <c r="K748" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L748" t="n">
         <v>3409.7</v>
@@ -38783,7 +38805,7 @@
         <v>2136</v>
       </c>
       <c r="K749" t="n">
-        <v>-10</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L749" t="n">
         <v>3409.2</v>
@@ -38834,7 +38856,7 @@
         <v>2142</v>
       </c>
       <c r="K750" t="n">
-        <v>4.761904761904762</v>
+        <v>4</v>
       </c>
       <c r="L750" t="n">
         <v>3409.3</v>
@@ -38885,7 +38907,7 @@
         <v>2144</v>
       </c>
       <c r="K751" t="n">
-        <v>-1.694915254237288</v>
+        <v>20</v>
       </c>
       <c r="L751" t="n">
         <v>3409.6</v>
@@ -38936,7 +38958,7 @@
         <v>2147</v>
       </c>
       <c r="K752" t="n">
-        <v>1.639344262295082</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L752" t="n">
         <v>3410.4</v>
@@ -38987,7 +39009,7 @@
         <v>2147</v>
       </c>
       <c r="K753" t="n">
-        <v>10.71428571428571</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L753" t="n">
         <v>3411.2</v>
@@ -39038,7 +39060,7 @@
         <v>2151</v>
       </c>
       <c r="K754" t="n">
-        <v>6.896551724137931</v>
+        <v>4</v>
       </c>
       <c r="L754" t="n">
         <v>3411.8</v>
@@ -39089,7 +39111,7 @@
         <v>2153</v>
       </c>
       <c r="K755" t="n">
-        <v>-5.88235294117647</v>
+        <v>4</v>
       </c>
       <c r="L755" t="n">
         <v>3412.1</v>
@@ -39140,7 +39162,7 @@
         <v>2157</v>
       </c>
       <c r="K756" t="n">
-        <v>-12.72727272727273</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L756" t="n">
         <v>3411.8</v>
@@ -39191,7 +39213,7 @@
         <v>2162</v>
       </c>
       <c r="K757" t="n">
-        <v>9.433962264150944</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L757" t="n">
         <v>3412.2</v>
@@ -39242,7 +39264,7 @@
         <v>2162</v>
       </c>
       <c r="K758" t="n">
-        <v>2.040816326530612</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L758" t="n">
         <v>3412.7</v>
@@ -39293,7 +39315,7 @@
         <v>2165</v>
       </c>
       <c r="K759" t="n">
-        <v>4.166666666666666</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L759" t="n">
         <v>3413.4</v>
@@ -39344,7 +39366,7 @@
         <v>2166</v>
       </c>
       <c r="K760" t="n">
-        <v>6.122448979591836</v>
+        <v>0</v>
       </c>
       <c r="L760" t="n">
         <v>3413.6</v>
@@ -39395,7 +39417,7 @@
         <v>2170</v>
       </c>
       <c r="K761" t="n">
-        <v>13.20754716981132</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L761" t="n">
         <v>3414</v>
@@ -39446,7 +39468,7 @@
         <v>2171</v>
       </c>
       <c r="K762" t="n">
-        <v>19.23076923076923</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L762" t="n">
         <v>3414.2</v>
@@ -39497,7 +39519,7 @@
         <v>2172</v>
       </c>
       <c r="K763" t="n">
-        <v>20.75471698113208</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L763" t="n">
         <v>3414.5</v>
@@ -39548,7 +39570,7 @@
         <v>2173</v>
       </c>
       <c r="K764" t="n">
-        <v>26.92307692307692</v>
+        <v>30</v>
       </c>
       <c r="L764" t="n">
         <v>3415.3</v>
@@ -39599,7 +39621,7 @@
         <v>2173</v>
       </c>
       <c r="K765" t="n">
-        <v>19.14893617021277</v>
+        <v>62.5</v>
       </c>
       <c r="L765" t="n">
         <v>3415.9</v>
@@ -39650,7 +39672,7 @@
         <v>2173</v>
       </c>
       <c r="K766" t="n">
-        <v>15.55555555555556</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L766" t="n">
         <v>3416.9</v>
@@ -39701,7 +39723,7 @@
         <v>2178</v>
       </c>
       <c r="K767" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L767" t="n">
         <v>3416.9</v>
@@ -39752,7 +39774,7 @@
         <v>2179</v>
       </c>
       <c r="K768" t="n">
-        <v>12.5</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L768" t="n">
         <v>3417</v>
@@ -39803,7 +39825,7 @@
         <v>2183</v>
       </c>
       <c r="K769" t="n">
-        <v>14.8936170212766</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L769" t="n">
         <v>3417</v>
@@ -39854,7 +39876,7 @@
         <v>2184</v>
       </c>
       <c r="K770" t="n">
-        <v>4.761904761904762</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L770" t="n">
         <v>3417</v>
@@ -39905,7 +39927,7 @@
         <v>2189</v>
       </c>
       <c r="K771" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L771" t="n">
         <v>3417.1</v>
@@ -39956,7 +39978,7 @@
         <v>2190</v>
       </c>
       <c r="K772" t="n">
-        <v>2.325581395348837</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L772" t="n">
         <v>3417</v>
@@ -40007,7 +40029,7 @@
         <v>2191</v>
       </c>
       <c r="K773" t="n">
-        <v>0</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L773" t="n">
         <v>3416.7</v>
@@ -40058,7 +40080,7 @@
         <v>2195</v>
       </c>
       <c r="K774" t="n">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L774" t="n">
         <v>3416.7</v>
@@ -40109,7 +40131,7 @@
         <v>2195</v>
       </c>
       <c r="K775" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L775" t="n">
         <v>3416.7</v>
@@ -40160,7 +40182,7 @@
         <v>2200</v>
       </c>
       <c r="K776" t="n">
-        <v>11.62790697674419</v>
+        <v>0</v>
       </c>
       <c r="L776" t="n">
         <v>3416.2</v>
@@ -40211,7 +40233,7 @@
         <v>2201</v>
       </c>
       <c r="K777" t="n">
-        <v>2.564102564102564</v>
+        <v>0</v>
       </c>
       <c r="L777" t="n">
         <v>3416.3</v>
@@ -40262,7 +40284,7 @@
         <v>2204</v>
       </c>
       <c r="K778" t="n">
-        <v>-4.761904761904762</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L778" t="n">
         <v>3416</v>
@@ -40313,7 +40335,7 @@
         <v>2211</v>
       </c>
       <c r="K779" t="n">
-        <v>17.39130434782609</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L779" t="n">
         <v>3416.8</v>
@@ -40364,7 +40386,7 @@
         <v>2216</v>
       </c>
       <c r="K780" t="n">
-        <v>4</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L780" t="n">
         <v>3417</v>
@@ -40466,7 +40488,7 @@
         <v>2222</v>
       </c>
       <c r="K782" t="n">
-        <v>-9.803921568627452</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L782" t="n">
         <v>3416.5</v>
@@ -40517,7 +40539,7 @@
         <v>2223</v>
       </c>
       <c r="K783" t="n">
-        <v>-13.72549019607843</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L783" t="n">
         <v>3416.1</v>
@@ -40568,7 +40590,7 @@
         <v>2224</v>
       </c>
       <c r="K784" t="n">
-        <v>-13.72549019607843</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L784" t="n">
         <v>3415.4</v>
@@ -40619,7 +40641,7 @@
         <v>2226</v>
       </c>
       <c r="K785" t="n">
-        <v>-16.9811320754717</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L785" t="n">
         <v>3414.5</v>
@@ -40670,7 +40692,7 @@
         <v>2226</v>
       </c>
       <c r="K786" t="n">
-        <v>-16.9811320754717</v>
+        <v>-20</v>
       </c>
       <c r="L786" t="n">
         <v>3414.1</v>
@@ -40721,7 +40743,7 @@
         <v>2228</v>
       </c>
       <c r="K787" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L787" t="n">
         <v>3413.8</v>
@@ -40772,7 +40794,7 @@
         <v>2231</v>
       </c>
       <c r="K788" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L788" t="n">
         <v>3414.1</v>
@@ -40823,7 +40845,7 @@
         <v>2231</v>
       </c>
       <c r="K789" t="n">
-        <v>8.333333333333332</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L789" t="n">
         <v>3413.7</v>
@@ -40874,7 +40896,7 @@
         <v>2231</v>
       </c>
       <c r="K790" t="n">
-        <v>6.382978723404255</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L790" t="n">
         <v>3413.8</v>
@@ -40925,7 +40947,7 @@
         <v>2233</v>
       </c>
       <c r="K791" t="n">
-        <v>0</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L791" t="n">
         <v>3413.9</v>
@@ -40976,7 +40998,7 @@
         <v>2238</v>
       </c>
       <c r="K792" t="n">
-        <v>12.5</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L792" t="n">
         <v>3414.9</v>
@@ -41027,7 +41049,7 @@
         <v>2239</v>
       </c>
       <c r="K793" t="n">
-        <v>16.66666666666666</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L793" t="n">
         <v>3416.1</v>
@@ -41078,7 +41100,7 @@
         <v>2239</v>
       </c>
       <c r="K794" t="n">
-        <v>9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L794" t="n">
         <v>3417.2</v>
@@ -41129,7 +41151,7 @@
         <v>2241</v>
       </c>
       <c r="K795" t="n">
-        <v>4.347826086956522</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L795" t="n">
         <v>3418.3</v>
@@ -41180,7 +41202,7 @@
         <v>2243</v>
       </c>
       <c r="K796" t="n">
-        <v>20.93023255813954</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L796" t="n">
         <v>3419.6</v>
@@ -41231,7 +41253,7 @@
         <v>2248</v>
       </c>
       <c r="K797" t="n">
-        <v>6.382978723404255</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L797" t="n">
         <v>3420.2</v>
@@ -41282,7 +41304,7 @@
         <v>2253</v>
       </c>
       <c r="K798" t="n">
-        <v>22.44897959183674</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L798" t="n">
         <v>3421</v>
@@ -41333,7 +41355,7 @@
         <v>2255</v>
       </c>
       <c r="K799" t="n">
-        <v>4.545454545454546</v>
+        <v>25</v>
       </c>
       <c r="L799" t="n">
         <v>3421.6</v>
@@ -41384,7 +41406,7 @@
         <v>2257</v>
       </c>
       <c r="K800" t="n">
-        <v>12.19512195121951</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L800" t="n">
         <v>3422</v>
@@ -41435,7 +41457,7 @@
         <v>2257</v>
       </c>
       <c r="K801" t="n">
-        <v>7.692307692307693</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L801" t="n">
         <v>3422.2</v>
@@ -41486,7 +41508,7 @@
         <v>2263</v>
       </c>
       <c r="K802" t="n">
-        <v>31.70731707317073</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L802" t="n">
         <v>3422.5</v>
@@ -41537,7 +41559,7 @@
         <v>2268</v>
       </c>
       <c r="K803" t="n">
-        <v>20</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L803" t="n">
         <v>3422.2</v>
@@ -41588,7 +41610,7 @@
         <v>2271</v>
       </c>
       <c r="K804" t="n">
-        <v>23.40425531914894</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L804" t="n">
         <v>3422.2</v>
@@ -41639,7 +41661,7 @@
         <v>2273</v>
       </c>
       <c r="K805" t="n">
-        <v>31.91489361702128</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L805" t="n">
         <v>3422.6</v>
@@ -41690,7 +41712,7 @@
         <v>2275</v>
       </c>
       <c r="K806" t="n">
-        <v>26.53061224489796</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L806" t="n">
         <v>3422.6</v>
@@ -41741,7 +41763,7 @@
         <v>2284</v>
       </c>
       <c r="K807" t="n">
-        <v>35.71428571428572</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L807" t="n">
         <v>3424</v>
@@ -41792,7 +41814,7 @@
         <v>2294</v>
       </c>
       <c r="K808" t="n">
-        <v>11.11111111111111</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L808" t="n">
         <v>3423.9</v>
@@ -41843,7 +41865,7 @@
         <v>2304</v>
       </c>
       <c r="K809" t="n">
-        <v>-4.10958904109589</v>
+        <v>-14.8936170212766</v>
       </c>
       <c r="L809" t="n">
         <v>3423</v>
@@ -41894,7 +41916,7 @@
         <v>2307</v>
       </c>
       <c r="K810" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="L810" t="n">
         <v>3422.6</v>
@@ -41945,7 +41967,7 @@
         <v>2314</v>
       </c>
       <c r="K811" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L811" t="n">
         <v>3421.5</v>
@@ -41996,7 +42018,7 @@
         <v>2333</v>
       </c>
       <c r="K812" t="n">
-        <v>-34.73684210526316</v>
+        <v>-47.69230769230769</v>
       </c>
       <c r="L812" t="n">
         <v>3417.9</v>
@@ -42047,7 +42069,7 @@
         <v>2347</v>
       </c>
       <c r="K813" t="n">
-        <v>-44.44444444444444</v>
+        <v>-63.1578947368421</v>
       </c>
       <c r="L813" t="n">
         <v>3413.4</v>
@@ -42098,7 +42120,7 @@
         <v>2357</v>
       </c>
       <c r="K814" t="n">
-        <v>-32.20338983050847</v>
+        <v>-47.61904761904761</v>
       </c>
       <c r="L814" t="n">
         <v>3409.6</v>
@@ -42149,7 +42171,7 @@
         <v>2360</v>
       </c>
       <c r="K815" t="n">
-        <v>-32.77310924369748</v>
+        <v>-48.23529411764706</v>
       </c>
       <c r="L815" t="n">
         <v>3405.3</v>
@@ -42200,7 +42222,7 @@
         <v>2362</v>
       </c>
       <c r="K816" t="n">
-        <v>-32.77310924369748</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L816" t="n">
         <v>3401.4</v>
@@ -42251,7 +42273,7 @@
         <v>2367</v>
       </c>
       <c r="K817" t="n">
-        <v>-24.36974789915966</v>
+        <v>-45.20547945205479</v>
       </c>
       <c r="L817" t="n">
         <v>3397.1</v>
@@ -42302,7 +42324,7 @@
         <v>2371</v>
       </c>
       <c r="K818" t="n">
-        <v>-32.20338983050847</v>
+        <v>-40.29850746268657</v>
       </c>
       <c r="L818" t="n">
         <v>3393.4</v>
@@ -42353,7 +42375,7 @@
         <v>2372</v>
       </c>
       <c r="K819" t="n">
-        <v>-29.91452991452991</v>
+        <v>-44.61538461538462</v>
       </c>
       <c r="L819" t="n">
         <v>3390.8</v>
@@ -42404,7 +42426,7 @@
         <v>2373</v>
       </c>
       <c r="K820" t="n">
-        <v>-29.3103448275862</v>
+        <v>-38.98305084745763</v>
       </c>
       <c r="L820" t="n">
         <v>3387.8</v>
@@ -42455,7 +42477,7 @@
         <v>2387</v>
       </c>
       <c r="K821" t="n">
-        <v>-15.38461538461539</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L821" t="n">
         <v>3386.9</v>
@@ -42506,7 +42528,7 @@
         <v>2387</v>
       </c>
       <c r="K822" t="n">
-        <v>-20.96774193548387</v>
+        <v>60</v>
       </c>
       <c r="L822" t="n">
         <v>3387.9</v>
@@ -42557,7 +42579,7 @@
         <v>2387</v>
       </c>
       <c r="K823" t="n">
-        <v>-17.64705882352941</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L823" t="n">
         <v>3390.3</v>
@@ -42608,7 +42630,7 @@
         <v>2388</v>
       </c>
       <c r="K824" t="n">
-        <v>-21.36752136752137</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L824" t="n">
         <v>3391.6</v>
@@ -42659,7 +42681,7 @@
         <v>2389</v>
       </c>
       <c r="K825" t="n">
-        <v>-24.13793103448276</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L825" t="n">
         <v>3393.1</v>
@@ -42710,7 +42732,7 @@
         <v>2391</v>
       </c>
       <c r="K826" t="n">
-        <v>-20.68965517241379</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L826" t="n">
         <v>3394.6</v>
@@ -42761,7 +42783,7 @@
         <v>2398</v>
       </c>
       <c r="K827" t="n">
-        <v>-35.08771929824561</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L827" t="n">
         <v>3394.9</v>
@@ -42812,7 +42834,7 @@
         <v>2404</v>
       </c>
       <c r="K828" t="n">
-        <v>-21.81818181818182</v>
+        <v>37.5</v>
       </c>
       <c r="L828" t="n">
         <v>3396.2</v>
@@ -42863,7 +42885,7 @@
         <v>2405</v>
       </c>
       <c r="K829" t="n">
-        <v>-12.87128712871287</v>
+        <v>43.75</v>
       </c>
       <c r="L829" t="n">
         <v>3397.5</v>
@@ -42914,7 +42936,7 @@
         <v>2405</v>
       </c>
       <c r="K830" t="n">
-        <v>-16.3265306122449</v>
+        <v>0</v>
       </c>
       <c r="L830" t="n">
         <v>3398.9</v>
@@ -42965,7 +42987,7 @@
         <v>2407</v>
       </c>
       <c r="K831" t="n">
-        <v>-7.526881720430108</v>
+        <v>10</v>
       </c>
       <c r="L831" t="n">
         <v>3399.1</v>
@@ -43016,7 +43038,7 @@
         <v>2412</v>
       </c>
       <c r="K832" t="n">
-        <v>21.51898734177215</v>
+        <v>28</v>
       </c>
       <c r="L832" t="n">
         <v>3399.8</v>
@@ -43067,7 +43089,7 @@
         <v>2419</v>
       </c>
       <c r="K833" t="n">
-        <v>33.33333333333333</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L833" t="n">
         <v>3399.8</v>
@@ -43118,7 +43140,7 @@
         <v>2419</v>
       </c>
       <c r="K834" t="n">
-        <v>22.58064516129032</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L834" t="n">
         <v>3399.9</v>
@@ -43169,7 +43191,7 @@
         <v>2421</v>
       </c>
       <c r="K835" t="n">
-        <v>24.59016393442623</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L835" t="n">
         <v>3399.9</v>
@@ -43220,7 +43242,7 @@
         <v>2423</v>
       </c>
       <c r="K836" t="n">
-        <v>24.59016393442623</v>
+        <v>28</v>
       </c>
       <c r="L836" t="n">
         <v>3399.9</v>
@@ -43271,7 +43293,7 @@
         <v>2423</v>
       </c>
       <c r="K837" t="n">
-        <v>17.85714285714286</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L837" t="n">
         <v>3400.6</v>
@@ -43322,7 +43344,7 @@
         <v>2426</v>
       </c>
       <c r="K838" t="n">
-        <v>20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L838" t="n">
         <v>3400.4</v>
@@ -43373,7 +43395,7 @@
         <v>2426</v>
       </c>
       <c r="K839" t="n">
-        <v>18.51851851851852</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L839" t="n">
         <v>3400.1</v>
@@ -43424,7 +43446,7 @@
         <v>2429</v>
       </c>
       <c r="K840" t="n">
-        <v>25</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L840" t="n">
         <v>3400.1</v>
@@ -43475,7 +43497,7 @@
         <v>2432</v>
       </c>
       <c r="K841" t="n">
-        <v>-6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L841" t="n">
         <v>3399.6</v>
@@ -43526,7 +43548,7 @@
         <v>2434</v>
       </c>
       <c r="K842" t="n">
-        <v>-2.127659574468085</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L842" t="n">
         <v>3398.8</v>
@@ -43577,7 +43599,7 @@
         <v>2442</v>
       </c>
       <c r="K843" t="n">
-        <v>12.72727272727273</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L843" t="n">
         <v>3399.5</v>
@@ -43628,7 +43650,7 @@
         <v>2443</v>
       </c>
       <c r="K844" t="n">
-        <v>12.72727272727273</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L844" t="n">
         <v>3400.1</v>
@@ -43679,7 +43701,7 @@
         <v>2449</v>
       </c>
       <c r="K845" t="n">
-        <v>3.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L845" t="n">
         <v>3400.3</v>
@@ -43730,7 +43752,7 @@
         <v>2452</v>
       </c>
       <c r="K846" t="n">
-        <v>4.918032786885246</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L846" t="n">
         <v>3400.6</v>
@@ -43781,7 +43803,7 @@
         <v>2453</v>
       </c>
       <c r="K847" t="n">
-        <v>20</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L847" t="n">
         <v>3401</v>
@@ -43832,7 +43854,7 @@
         <v>2462</v>
       </c>
       <c r="K848" t="n">
-        <v>24.13793103448276</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L848" t="n">
         <v>3402.6</v>
@@ -43883,7 +43905,7 @@
         <v>2500</v>
       </c>
       <c r="K849" t="n">
-        <v>53.68421052631579</v>
+        <v>71.83098591549296</v>
       </c>
       <c r="L849" t="n">
         <v>3408</v>
@@ -43934,7 +43956,7 @@
         <v>2502</v>
       </c>
       <c r="K850" t="n">
-        <v>50.51546391752577</v>
+        <v>74.28571428571429</v>
       </c>
       <c r="L850" t="n">
         <v>3412.9</v>
@@ -43985,7 +44007,7 @@
         <v>2511</v>
       </c>
       <c r="K851" t="n">
-        <v>36.53846153846153</v>
+        <v>53.24675324675324</v>
       </c>
       <c r="L851" t="n">
         <v>3417.2</v>
@@ -44036,7 +44058,7 @@
         <v>2514</v>
       </c>
       <c r="K852" t="n">
-        <v>35.29411764705883</v>
+        <v>50</v>
       </c>
       <c r="L852" t="n">
         <v>3421.6</v>
@@ -44087,7 +44109,7 @@
         <v>2514</v>
       </c>
       <c r="K853" t="n">
-        <v>45.26315789473684</v>
+        <v>52.11267605633802</v>
       </c>
       <c r="L853" t="n">
         <v>3425.2</v>
@@ -44138,7 +44160,7 @@
         <v>2515</v>
       </c>
       <c r="K854" t="n">
-        <v>43.75</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L854" t="n">
         <v>3428.8</v>
@@ -44189,7 +44211,7 @@
         <v>2517</v>
       </c>
       <c r="K855" t="n">
-        <v>43.75</v>
+        <v>56.92307692307692</v>
       </c>
       <c r="L855" t="n">
         <v>3432.8</v>
@@ -44240,7 +44262,7 @@
         <v>2517</v>
       </c>
       <c r="K856" t="n">
-        <v>42.5531914893617</v>
+        <v>56.25</v>
       </c>
       <c r="L856" t="n">
         <v>3436.5</v>
@@ -44291,7 +44313,7 @@
         <v>2517</v>
       </c>
       <c r="K857" t="n">
-        <v>42.5531914893617</v>
+        <v>49.09090909090909</v>
       </c>
       <c r="L857" t="n">
         <v>3440.1</v>
@@ -44342,7 +44364,7 @@
         <v>2518</v>
       </c>
       <c r="K858" t="n">
-        <v>45.65217391304348</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L858" t="n">
         <v>3442.7</v>
@@ -44393,7 +44415,7 @@
         <v>2519</v>
       </c>
       <c r="K859" t="n">
-        <v>46.23655913978494</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L859" t="n">
         <v>3441.6</v>
@@ -44444,7 +44466,7 @@
         <v>2524</v>
       </c>
       <c r="K860" t="n">
-        <v>36.84210526315789</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L860" t="n">
         <v>3440.2</v>
@@ -44495,7 +44517,7 @@
         <v>2526</v>
       </c>
       <c r="K861" t="n">
-        <v>38.29787234042553</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L861" t="n">
         <v>3439.5</v>
@@ -44546,7 +44568,7 @@
         <v>2529</v>
       </c>
       <c r="K862" t="n">
-        <v>32.63157894736842</v>
+        <v>-86.66666666666667</v>
       </c>
       <c r="L862" t="n">
         <v>3438.2</v>
@@ -44597,7 +44619,7 @@
         <v>2537</v>
       </c>
       <c r="K863" t="n">
-        <v>32.63157894736842</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L863" t="n">
         <v>3437.7</v>
@@ -44648,7 +44670,7 @@
         <v>2540</v>
       </c>
       <c r="K864" t="n">
-        <v>29.89690721649485</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L864" t="n">
         <v>3437</v>
@@ -44699,7 +44721,7 @@
         <v>2544</v>
       </c>
       <c r="K865" t="n">
-        <v>41.05263157894737</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L865" t="n">
         <v>3436.9</v>
@@ -44750,7 +44772,7 @@
         <v>2545</v>
       </c>
       <c r="K866" t="n">
-        <v>39.78494623655914</v>
+        <v>0</v>
       </c>
       <c r="L866" t="n">
         <v>3436.9</v>
@@ -44801,7 +44823,7 @@
         <v>2547</v>
       </c>
       <c r="K867" t="n">
-        <v>36.17021276595745</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L867" t="n">
         <v>3436.7</v>
@@ -44852,7 +44874,7 @@
         <v>2548</v>
       </c>
       <c r="K868" t="n">
-        <v>30.23255813953488</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L868" t="n">
         <v>3436.7</v>
@@ -44903,7 +44925,7 @@
         <v>2548</v>
       </c>
       <c r="K869" t="n">
-        <v>-25</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L869" t="n">
         <v>3436.6</v>
@@ -44954,7 +44976,7 @@
         <v>2557</v>
       </c>
       <c r="K870" t="n">
-        <v>-34.54545454545455</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L870" t="n">
         <v>3436.1</v>
@@ -45005,7 +45027,7 @@
         <v>2559</v>
       </c>
       <c r="K871" t="n">
-        <v>-25</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L871" t="n">
         <v>3435.6</v>
@@ -45056,7 +45078,7 @@
         <v>2560</v>
       </c>
       <c r="K872" t="n">
-        <v>-30.43478260869566</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L872" t="n">
         <v>3435.5</v>
@@ -45107,7 +45129,7 @@
         <v>2561</v>
       </c>
       <c r="K873" t="n">
-        <v>-31.91489361702128</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L873" t="n">
         <v>3434.5</v>
@@ -45158,7 +45180,7 @@
         <v>2562</v>
       </c>
       <c r="K874" t="n">
-        <v>-31.91489361702128</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L874" t="n">
         <v>3433.7</v>
@@ -45209,7 +45231,7 @@
         <v>2565</v>
       </c>
       <c r="K875" t="n">
-        <v>-20.83333333333334</v>
+        <v>-50</v>
       </c>
       <c r="L875" t="n">
         <v>3432.8</v>
@@ -45260,7 +45282,7 @@
         <v>2570</v>
       </c>
       <c r="K876" t="n">
-        <v>-9.433962264150944</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L876" t="n">
         <v>3432.3</v>
@@ -45311,7 +45333,7 @@
         <v>2574</v>
       </c>
       <c r="K877" t="n">
-        <v>-15.78947368421053</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L877" t="n">
         <v>3431.6</v>
@@ -45362,7 +45384,7 @@
         <v>2576</v>
       </c>
       <c r="K878" t="n">
-        <v>-17.24137931034483</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L878" t="n">
         <v>3430.6</v>
@@ -45413,7 +45435,7 @@
         <v>2582</v>
       </c>
       <c r="K879" t="n">
-        <v>-7.936507936507936</v>
+        <v>20</v>
       </c>
       <c r="L879" t="n">
         <v>3430.2</v>
@@ -45464,7 +45486,7 @@
         <v>2583</v>
       </c>
       <c r="K880" t="n">
-        <v>-1.694915254237288</v>
+        <v>25</v>
       </c>
       <c r="L880" t="n">
         <v>3430.6</v>
@@ -45515,7 +45537,7 @@
         <v>2585</v>
       </c>
       <c r="K881" t="n">
-        <v>-1.694915254237288</v>
+        <v>12</v>
       </c>
       <c r="L881" t="n">
         <v>3431</v>
@@ -45566,7 +45588,7 @@
         <v>2587</v>
       </c>
       <c r="K882" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L882" t="n">
         <v>3431.1</v>
@@ -45617,7 +45639,7 @@
         <v>2589</v>
       </c>
       <c r="K883" t="n">
-        <v>-19.23076923076923</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L883" t="n">
         <v>3431.1</v>
@@ -45668,7 +45690,7 @@
         <v>2592</v>
       </c>
       <c r="K884" t="n">
-        <v>-19.23076923076923</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L884" t="n">
         <v>3430.9</v>
@@ -45719,7 +45741,7 @@
         <v>2595</v>
       </c>
       <c r="K885" t="n">
-        <v>-21.56862745098039</v>
+        <v>-28</v>
       </c>
       <c r="L885" t="n">
         <v>3430.7</v>
@@ -45770,7 +45792,7 @@
         <v>2597</v>
       </c>
       <c r="K886" t="n">
-        <v>-19.23076923076923</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L886" t="n">
         <v>3430.2</v>
@@ -45821,7 +45843,7 @@
         <v>2603</v>
       </c>
       <c r="K887" t="n">
-        <v>-25</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L887" t="n">
         <v>3429.5</v>
@@ -45872,7 +45894,7 @@
         <v>2609</v>
       </c>
       <c r="K888" t="n">
-        <v>-14.75409836065574</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L888" t="n">
         <v>3429.6</v>
@@ -45923,7 +45945,7 @@
         <v>2614</v>
       </c>
       <c r="K889" t="n">
-        <v>-21.21212121212121</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L889" t="n">
         <v>3428.6</v>
@@ -45974,7 +45996,7 @@
         <v>2617</v>
       </c>
       <c r="K890" t="n">
-        <v>-3.333333333333333</v>
+        <v>-12.5</v>
       </c>
       <c r="L890" t="n">
         <v>3428</v>
@@ -46025,7 +46047,7 @@
         <v>2622</v>
       </c>
       <c r="K891" t="n">
-        <v>-7.936507936507936</v>
+        <v>-20</v>
       </c>
       <c r="L891" t="n">
         <v>3427.1</v>
@@ -46076,7 +46098,7 @@
         <v>2627</v>
       </c>
       <c r="K892" t="n">
-        <v>-1.492537313432836</v>
+        <v>0</v>
       </c>
       <c r="L892" t="n">
         <v>3426.9</v>
@@ -46127,7 +46149,7 @@
         <v>2630</v>
       </c>
       <c r="K893" t="n">
-        <v>4.347826086956522</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L893" t="n">
         <v>3427.2</v>
@@ -46178,7 +46200,7 @@
         <v>2637</v>
       </c>
       <c r="K894" t="n">
-        <v>-4</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L894" t="n">
         <v>3427.1</v>
@@ -46229,7 +46251,7 @@
         <v>2644</v>
       </c>
       <c r="K895" t="n">
-        <v>1.265822784810127</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="L895" t="n">
         <v>3427.4</v>
@@ -46280,7 +46302,7 @@
         <v>2646</v>
       </c>
       <c r="K896" t="n">
-        <v>-2.631578947368421</v>
+        <v>20.93023255813954</v>
       </c>
       <c r="L896" t="n">
         <v>3427.7</v>
@@ -46331,7 +46353,7 @@
         <v>2646</v>
       </c>
       <c r="K897" t="n">
-        <v>2.777777777777778</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L897" t="n">
         <v>3428.6</v>
@@ -46382,7 +46404,7 @@
         <v>2648</v>
       </c>
       <c r="K898" t="n">
-        <v>2.777777777777778</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L898" t="n">
         <v>3428.7</v>
@@ -46433,7 +46455,7 @@
         <v>2651</v>
       </c>
       <c r="K899" t="n">
-        <v>-1.449275362318841</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L899" t="n">
         <v>3429.6</v>
@@ -46484,7 +46506,7 @@
         <v>2653</v>
       </c>
       <c r="K900" t="n">
-        <v>-2.857142857142857</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L900" t="n">
         <v>3430</v>
@@ -46535,7 +46557,7 @@
         <v>2658</v>
       </c>
       <c r="K901" t="n">
-        <v>6.849315068493151</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L901" t="n">
         <v>3431.4</v>
@@ -46586,7 +46608,7 @@
         <v>2663</v>
       </c>
       <c r="K902" t="n">
-        <v>2.631578947368421</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L902" t="n">
         <v>3431.8</v>
@@ -46637,7 +46659,7 @@
         <v>2663</v>
       </c>
       <c r="K903" t="n">
-        <v>5.405405405405405</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L903" t="n">
         <v>3431.9</v>
@@ -46688,7 +46710,7 @@
         <v>2666</v>
       </c>
       <c r="K904" t="n">
-        <v>13.51351351351351</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L904" t="n">
         <v>3433</v>
@@ -46739,7 +46761,7 @@
         <v>2667</v>
       </c>
       <c r="K905" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L905" t="n">
         <v>3433.5</v>
@@ -46790,7 +46812,7 @@
         <v>2671</v>
       </c>
       <c r="K906" t="n">
-        <v>2.702702702702703</v>
+        <v>-4</v>
       </c>
       <c r="L906" t="n">
         <v>3433.4</v>
@@ -46841,7 +46863,7 @@
         <v>2673</v>
       </c>
       <c r="K907" t="n">
-        <v>14.28571428571428</v>
+        <v>12</v>
       </c>
       <c r="L907" t="n">
         <v>3433.5</v>
@@ -46892,7 +46914,7 @@
         <v>2677</v>
       </c>
       <c r="K908" t="n">
-        <v>11.76470588235294</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L908" t="n">
         <v>3434.2</v>
@@ -46943,7 +46965,7 @@
         <v>2682</v>
       </c>
       <c r="K909" t="n">
-        <v>11.76470588235294</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L909" t="n">
         <v>3434.1</v>
@@ -46994,7 +47016,7 @@
         <v>2690</v>
       </c>
       <c r="K910" t="n">
-        <v>17.80821917808219</v>
+        <v>12.5</v>
       </c>
       <c r="L910" t="n">
         <v>3435</v>
@@ -47045,7 +47067,7 @@
         <v>2694</v>
       </c>
       <c r="K911" t="n">
-        <v>19.44444444444445</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L911" t="n">
         <v>3435</v>
@@ -47096,7 +47118,7 @@
         <v>2696</v>
       </c>
       <c r="K912" t="n">
-        <v>15.94202898550724</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L912" t="n">
         <v>3435.7</v>
@@ -47147,7 +47169,7 @@
         <v>2702</v>
       </c>
       <c r="K913" t="n">
-        <v>2.777777777777778</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L913" t="n">
         <v>3435.8</v>
@@ -47198,7 +47220,7 @@
         <v>2708</v>
       </c>
       <c r="K914" t="n">
-        <v>21.12676056338028</v>
+        <v>7.317073170731707</v>
       </c>
       <c r="L914" t="n">
         <v>3436.2</v>
@@ -47249,7 +47271,7 @@
         <v>2711</v>
       </c>
       <c r="K915" t="n">
-        <v>7.462686567164178</v>
+        <v>10</v>
       </c>
       <c r="L915" t="n">
         <v>3436.2</v>
@@ -47300,7 +47322,7 @@
         <v>2716</v>
       </c>
       <c r="K916" t="n">
-        <v>-2.857142857142857</v>
+        <v>-6.976744186046512</v>
       </c>
       <c r="L916" t="n">
         <v>3436.1</v>
@@ -47351,7 +47373,7 @@
         <v>2717</v>
       </c>
       <c r="K917" t="n">
-        <v>-4.225352112676056</v>
+        <v>-20</v>
       </c>
       <c r="L917" t="n">
         <v>3435.7</v>
@@ -47402,7 +47424,7 @@
         <v>2717</v>
       </c>
       <c r="K918" t="n">
-        <v>-1.449275362318841</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L918" t="n">
         <v>3434.9</v>
@@ -47453,7 +47475,7 @@
         <v>2717</v>
       </c>
       <c r="K919" t="n">
-        <v>-6.060606060606061</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L919" t="n">
         <v>3434.6</v>
@@ -47504,7 +47526,7 @@
         <v>2717</v>
       </c>
       <c r="K920" t="n">
-        <v>-3.125</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L920" t="n">
         <v>3433.5</v>
@@ -47555,7 +47577,7 @@
         <v>2718</v>
       </c>
       <c r="K921" t="n">
-        <v>-10</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L921" t="n">
         <v>3432.9</v>
@@ -47606,7 +47628,7 @@
         <v>2720</v>
       </c>
       <c r="K922" t="n">
-        <v>-5.263157894736842</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L922" t="n">
         <v>3431.9</v>
@@ -47657,7 +47679,7 @@
         <v>2720</v>
       </c>
       <c r="K923" t="n">
-        <v>-5.263157894736842</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L923" t="n">
         <v>3431.5</v>
@@ -47708,7 +47730,7 @@
         <v>2723</v>
       </c>
       <c r="K924" t="n">
-        <v>-5.263157894736842</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L924" t="n">
         <v>3430.8</v>
@@ -47759,7 +47781,7 @@
         <v>2726</v>
       </c>
       <c r="K925" t="n">
-        <v>-11.86440677966102</v>
+        <v>-20</v>
       </c>
       <c r="L925" t="n">
         <v>3430.1</v>
@@ -47810,7 +47832,7 @@
         <v>2729</v>
       </c>
       <c r="K926" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L926" t="n">
         <v>3430.2</v>
@@ -47861,7 +47883,7 @@
         <v>2734</v>
       </c>
       <c r="K927" t="n">
-        <v>-11.47540983606557</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L927" t="n">
         <v>3429.9</v>
@@ -47912,7 +47934,7 @@
         <v>2734</v>
       </c>
       <c r="K928" t="n">
-        <v>-19.29824561403509</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L928" t="n">
         <v>3429.6</v>

--- a/BackTest/2019-10-19 BackTest EOS.xlsx
+++ b/BackTest/2019-10-19 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>6346.497691400008</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -521,11 +521,9 @@
         <v>8820.626291400007</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>3377</v>
       </c>
@@ -562,11 +560,9 @@
         <v>8834.646291400008</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>3377</v>
       </c>
@@ -603,14 +599,10 @@
         <v>8834.646291400008</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3389</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +632,11 @@
         <v>8816.456491400008</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3389</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +665,11 @@
         <v>8816.456491400008</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3388</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,19 +698,11 @@
         <v>9111.613091400008</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3388</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -763,19 +731,11 @@
         <v>22283.76729140001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3389</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -807,14 +767,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -846,14 +800,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -885,14 +833,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -924,14 +866,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -963,14 +899,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1002,14 +932,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1041,14 +965,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1080,14 +998,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1119,14 +1031,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1158,14 +1064,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1194,19 +1094,11 @@
         <v>33171.20559140001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3398</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1235,19 +1127,11 @@
         <v>33171.20559140001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3402</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1276,19 +1160,11 @@
         <v>33171.20559140001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3402</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1320,14 +1196,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1359,14 +1229,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1398,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1437,14 +1295,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1473,19 +1325,11 @@
         <v>32581.7894914</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3394</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1514,19 +1358,11 @@
         <v>32593.8904914</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3391</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1555,19 +1391,11 @@
         <v>31572.5273914</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3394</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1596,19 +1424,11 @@
         <v>31572.5273914</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3392</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1637,19 +1457,11 @@
         <v>31572.5273914</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3392</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1678,19 +1490,11 @@
         <v>31609.1510914</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3392</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1719,19 +1523,11 @@
         <v>31413.7085914</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3396</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1760,19 +1556,11 @@
         <v>27210.7212914</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3392</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1801,19 +1589,11 @@
         <v>22791.7591914</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3387</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1842,19 +1622,11 @@
         <v>22862.1848914</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3381</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1883,19 +1655,11 @@
         <v>25012.1398914</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3386</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1924,19 +1688,11 @@
         <v>25012.1398914</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3390</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1965,19 +1721,11 @@
         <v>24983.8652914</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3390</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2006,19 +1754,11 @@
         <v>21783.8652914</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3388</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2047,19 +1787,11 @@
         <v>21739.1379914</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3385</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2088,19 +1820,11 @@
         <v>22033.2989914</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3384</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2129,19 +1853,11 @@
         <v>17900.6568914</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3391</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2170,19 +1886,11 @@
         <v>17900.6568914</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3390</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2211,19 +1919,11 @@
         <v>17825.8068914</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3390</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2252,19 +1952,11 @@
         <v>17874.4922914</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3388</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2293,19 +1985,11 @@
         <v>17874.4922914</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3390</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2334,19 +2018,11 @@
         <v>17874.4922914</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3390</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2375,19 +2051,11 @@
         <v>17874.4922914</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3390</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2422,13 +2090,9 @@
         <v>3390</v>
       </c>
       <c r="J51" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3390</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2457,17 +2121,15 @@
         <v>18008.0022914</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2498,17 +2160,15 @@
         <v>18096.3234914</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2539,19 +2199,11 @@
         <v>18116.7946914</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3396</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2580,19 +2232,11 @@
         <v>18116.7946914</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3402</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2621,19 +2265,11 @@
         <v>14896.7946914</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3402</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2662,19 +2298,11 @@
         <v>14885.7946914</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3392</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2703,19 +2331,11 @@
         <v>14851.0541914</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3391</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2744,19 +2364,11 @@
         <v>14831.0541914</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3390</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2785,19 +2397,11 @@
         <v>14436.3255914</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3389</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2832,13 +2436,9 @@
         <v>3387</v>
       </c>
       <c r="J61" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3387</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2873,11 +2473,11 @@
         <v>3389</v>
       </c>
       <c r="J62" t="n">
-        <v>3389</v>
+        <v>3387</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2914,11 +2514,11 @@
         <v>3389</v>
       </c>
       <c r="J63" t="n">
-        <v>3389</v>
+        <v>3387</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2955,13 +2555,9 @@
         <v>3391</v>
       </c>
       <c r="J64" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3391</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2996,11 +2592,11 @@
         <v>3391</v>
       </c>
       <c r="J65" t="n">
-        <v>3389</v>
+        <v>3391</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -3037,11 +2633,11 @@
         <v>3392</v>
       </c>
       <c r="J66" t="n">
-        <v>3389</v>
+        <v>3391</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -3078,13 +2674,9 @@
         <v>3396</v>
       </c>
       <c r="J67" t="n">
-        <v>3389</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3396</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3113,17 +2705,15 @@
         <v>16881.0556914</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -3160,7 +2750,7 @@
         <v>3390</v>
       </c>
       <c r="J69" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3201,7 +2791,7 @@
         <v>3390</v>
       </c>
       <c r="J70" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3242,7 +2832,7 @@
         <v>3391</v>
       </c>
       <c r="J71" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3283,7 +2873,7 @@
         <v>3390</v>
       </c>
       <c r="J72" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3324,7 +2914,7 @@
         <v>3390</v>
       </c>
       <c r="J73" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3365,7 +2955,7 @@
         <v>3390</v>
       </c>
       <c r="J74" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3406,7 +2996,7 @@
         <v>3392</v>
       </c>
       <c r="J75" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3447,7 +3037,7 @@
         <v>3390</v>
       </c>
       <c r="J76" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3488,7 +3078,7 @@
         <v>3390</v>
       </c>
       <c r="J77" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3529,7 +3119,7 @@
         <v>3391</v>
       </c>
       <c r="J78" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3570,7 +3160,7 @@
         <v>3391</v>
       </c>
       <c r="J79" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3611,7 +3201,7 @@
         <v>3390</v>
       </c>
       <c r="J80" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3652,7 +3242,7 @@
         <v>3390</v>
       </c>
       <c r="J81" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3693,7 +3283,7 @@
         <v>3393</v>
       </c>
       <c r="J82" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3728,13 +3318,11 @@
         <v>19123.8677914</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3769,13 +3357,11 @@
         <v>19293.9121914</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3814,7 +3400,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3853,7 +3439,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3892,7 +3478,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3927,13 +3513,11 @@
         <v>18980.4524914</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3968,13 +3552,11 @@
         <v>18198.4276914</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -4009,13 +3591,11 @@
         <v>16748.1977914</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -4050,13 +3630,11 @@
         <v>16748.1977914</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3398</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4091,13 +3669,11 @@
         <v>17544.0018914</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3398</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4138,7 +3714,7 @@
         <v>3399</v>
       </c>
       <c r="J93" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4173,13 +3749,11 @@
         <v>18008.20836198</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4220,7 +3794,7 @@
         <v>3400</v>
       </c>
       <c r="J95" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4261,7 +3835,7 @@
         <v>3398</v>
       </c>
       <c r="J96" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4296,13 +3870,11 @@
         <v>18161.78096198</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4337,13 +3909,11 @@
         <v>21361.78096198</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4378,13 +3948,11 @@
         <v>11149.38086198</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>3403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4419,13 +3987,11 @@
         <v>11149.38086198</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4466,7 +4032,7 @@
         <v>3400</v>
       </c>
       <c r="J101" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4501,13 +4067,11 @@
         <v>11358.62086198</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4548,7 +4112,7 @@
         <v>3403</v>
       </c>
       <c r="J103" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4589,7 +4153,7 @@
         <v>3403</v>
       </c>
       <c r="J104" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4630,7 +4194,7 @@
         <v>3402</v>
       </c>
       <c r="J105" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4669,7 +4233,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4708,7 +4272,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4747,7 +4311,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4786,7 +4350,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4825,7 +4389,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4864,7 +4428,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4903,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4942,7 +4506,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4981,7 +4545,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -5020,7 +4584,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -5059,7 +4623,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -5098,7 +4662,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5137,7 +4701,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5176,7 +4740,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5215,7 +4779,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5254,7 +4818,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5293,7 +4857,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5332,7 +4896,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5371,7 +4935,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5410,7 +4974,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5449,7 +5013,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5488,7 +5052,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5527,7 +5091,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5566,7 +5130,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5605,7 +5169,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5644,7 +5208,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5683,7 +5247,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5722,7 +5286,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5761,7 +5325,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5800,7 +5364,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5839,7 +5403,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5878,7 +5442,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5917,7 +5481,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5956,7 +5520,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5995,7 +5559,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -6034,7 +5598,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -6073,7 +5637,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -6112,7 +5676,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6151,7 +5715,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6186,19 +5750,19 @@
         <v>59488.76156198</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1.013294482148126</v>
+        <v>1</v>
       </c>
       <c r="M145" t="inlineStr"/>
     </row>
@@ -6225,11 +5789,17 @@
         <v>59013.16686198</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6261,8 +5831,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6291,11 +5867,17 @@
         <v>59129.72906198</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6324,11 +5906,17 @@
         <v>59129.72906198</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6357,11 +5945,17 @@
         <v>55008.88566198</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6390,11 +5984,17 @@
         <v>54869.30986198</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6423,11 +6023,17 @@
         <v>54894.95736198</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6456,11 +6062,17 @@
         <v>55041.97796198</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6489,11 +6101,17 @@
         <v>55003.19726198</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6522,11 +6140,17 @@
         <v>55055.61016198</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6555,11 +6179,17 @@
         <v>55829.26906198001</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6588,11 +6218,17 @@
         <v>59698.21576198001</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6621,11 +6257,17 @@
         <v>53332.44216198001</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6654,11 +6296,17 @@
         <v>55713.93946198001</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6687,11 +6335,17 @@
         <v>59460.00526198</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6720,11 +6374,17 @@
         <v>59455.45826198001</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6753,11 +6413,17 @@
         <v>59455.45826198001</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6786,11 +6452,17 @@
         <v>59455.45826198001</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6819,11 +6491,17 @@
         <v>59875.87706198001</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6852,11 +6530,17 @@
         <v>57267.39606198001</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6885,11 +6569,17 @@
         <v>57060.88316198</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6918,11 +6608,17 @@
         <v>56349.65306198</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6951,11 +6647,17 @@
         <v>55571.15976198</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6984,11 +6686,17 @@
         <v>55571.15976198</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7017,11 +6725,17 @@
         <v>55671.15976198</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7050,11 +6764,17 @@
         <v>55671.15976198</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7083,11 +6803,17 @@
         <v>55270.17776198</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7116,11 +6842,17 @@
         <v>55259.21646198</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7149,11 +6881,17 @@
         <v>55249.32596197999</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7182,11 +6920,17 @@
         <v>52479.98286198</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7215,11 +6959,17 @@
         <v>52632.26856198</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7248,11 +6998,17 @@
         <v>51710.01796198</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7281,11 +7037,17 @@
         <v>51719.36036198</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7314,11 +7076,17 @@
         <v>51958.45846198</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7347,11 +7115,17 @@
         <v>52154.45736198</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7380,11 +7154,17 @@
         <v>52882.90856198</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7413,11 +7193,17 @@
         <v>52711.57116198001</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7446,11 +7232,17 @@
         <v>52282.57116198001</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7479,11 +7271,17 @@
         <v>49736.39716198001</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7512,11 +7310,17 @@
         <v>49736.39716198001</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7548,8 +7352,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7581,8 +7391,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7614,8 +7430,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7647,8 +7469,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7680,8 +7508,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7713,8 +7547,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7746,8 +7586,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7779,8 +7625,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7812,8 +7664,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7845,8 +7703,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7878,8 +7742,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7911,8 +7781,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7944,8 +7820,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7977,8 +7859,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8010,8 +7898,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8043,8 +7937,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8076,8 +7976,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8109,8 +8015,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8142,8 +8054,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8175,8 +8093,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8208,8 +8132,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8241,8 +8171,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8274,8 +8210,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8307,8 +8249,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8340,8 +8288,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8373,8 +8327,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8406,8 +8366,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8439,8 +8405,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8472,8 +8444,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8505,8 +8483,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8538,8 +8522,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8571,8 +8561,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8604,8 +8600,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8637,8 +8639,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8670,8 +8678,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8703,8 +8717,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8736,8 +8756,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8769,8 +8795,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8802,8 +8834,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8835,8 +8873,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8868,8 +8912,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8901,8 +8951,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8934,8 +8990,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8967,8 +9029,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9000,8 +9068,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9033,8 +9107,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9066,8 +9146,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9099,8 +9185,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9132,8 +9224,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9165,8 +9263,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9198,8 +9302,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9231,8 +9341,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9264,8 +9380,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9297,8 +9419,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9330,8 +9458,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9363,8 +9497,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9396,8 +9536,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9429,8 +9575,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9462,8 +9614,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9495,8 +9653,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9528,8 +9692,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9561,8 +9731,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9594,8 +9770,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9627,8 +9809,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9660,8 +9848,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9693,8 +9887,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9726,8 +9926,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9759,8 +9965,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9792,8 +10004,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9825,8 +10043,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9858,8 +10082,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9891,8 +10121,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9924,8 +10160,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9957,8 +10199,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9990,8 +10238,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10023,8 +10277,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10056,8 +10316,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10089,8 +10355,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10122,8 +10394,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10155,8 +10433,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10188,8 +10472,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10221,8 +10511,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10254,8 +10550,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10287,8 +10589,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10320,8 +10628,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10353,8 +10667,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10386,8 +10706,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10419,8 +10745,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10452,8 +10784,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10485,8 +10823,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10518,8 +10862,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10551,8 +10901,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10584,8 +10940,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10617,8 +10979,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10650,8 +11018,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10683,8 +11057,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10716,8 +11096,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10749,8 +11135,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10782,8 +11174,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10815,8 +11213,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10848,8 +11252,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10881,8 +11291,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10914,8 +11330,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10947,8 +11369,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10980,8 +11408,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11013,8 +11447,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11046,8 +11486,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11079,8 +11525,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11112,8 +11564,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11145,8 +11603,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11178,8 +11642,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11211,8 +11681,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11244,8 +11720,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11277,8 +11759,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11310,8 +11798,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11343,8 +11837,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11376,8 +11876,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11409,8 +11915,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11442,8 +11954,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11475,8 +11993,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11508,8 +12032,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11541,8 +12071,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11574,8 +12110,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11607,8 +12149,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11640,8 +12188,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11673,8 +12227,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11706,8 +12266,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11739,8 +12305,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11772,8 +12344,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11805,8 +12383,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11838,8 +12422,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11871,8 +12461,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11904,8 +12500,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11937,8 +12539,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11970,8 +12578,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12003,8 +12617,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12036,8 +12656,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12069,8 +12695,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12102,8 +12734,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12135,8 +12773,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12168,8 +12812,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12201,8 +12851,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12234,8 +12890,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12267,8 +12929,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12300,8 +12968,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12333,8 +13007,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12366,8 +13046,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12399,8 +13085,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12432,8 +13124,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12465,8 +13163,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12498,8 +13202,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12531,8 +13241,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12564,8 +13280,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12597,8 +13319,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12630,8 +13358,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12663,8 +13397,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12696,8 +13436,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12729,8 +13475,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12762,8 +13514,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12795,8 +13553,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12828,8 +13592,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12861,8 +13631,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12894,8 +13670,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12927,8 +13709,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12960,8 +13748,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12993,8 +13787,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13026,8 +13826,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13059,8 +13865,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13092,8 +13904,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13125,8 +13943,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13158,8 +13982,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13191,8 +14021,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13224,8 +14060,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13257,8 +14099,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13290,8 +14138,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13323,8 +14177,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13356,8 +14216,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13389,8 +14255,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13422,8 +14294,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13455,8 +14333,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13488,8 +14372,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13521,8 +14411,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13554,8 +14450,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13587,8 +14489,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13620,8 +14528,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13653,8 +14567,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13686,8 +14606,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13719,8 +14645,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13752,8 +14684,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13785,8 +14723,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13818,8 +14762,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13851,8 +14801,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13884,8 +14840,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13917,8 +14879,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13950,8 +14918,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13983,8 +14957,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14016,8 +14996,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14049,8 +15035,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14082,8 +15074,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14115,8 +15113,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14148,8 +15152,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14181,8 +15191,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14214,8 +15230,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14247,8 +15269,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14280,8 +15308,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14313,8 +15347,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14346,8 +15386,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14379,8 +15425,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14412,8 +15464,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14445,8 +15503,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14478,8 +15542,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14511,8 +15581,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14544,8 +15620,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14577,8 +15659,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14610,8 +15698,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14643,8 +15737,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14676,8 +15776,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14709,8 +15815,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14742,8 +15854,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14775,8 +15893,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14808,8 +15932,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14841,8 +15971,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14874,8 +16010,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14907,8 +16049,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14940,8 +16088,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14973,8 +16127,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15006,8 +16166,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15039,8 +16205,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15072,8 +16244,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15105,8 +16283,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15138,8 +16322,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15171,8 +16361,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15204,8 +16400,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15237,8 +16439,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15270,8 +16478,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15303,8 +16517,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15336,8 +16556,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15369,8 +16595,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15402,8 +16634,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15435,8 +16673,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15468,8 +16712,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15501,8 +16751,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15534,8 +16790,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15567,8 +16829,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15600,8 +16868,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15633,8 +16907,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15666,8 +16946,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15699,8 +16985,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15732,8 +17024,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15765,8 +17063,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15798,8 +17102,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15831,8 +17141,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15864,8 +17180,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15897,8 +17219,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15930,8 +17258,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15963,8 +17297,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15996,8 +17336,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16029,8 +17375,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16062,8 +17414,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16095,8 +17453,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16128,8 +17492,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16161,8 +17531,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16194,8 +17570,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16227,8 +17609,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16260,8 +17648,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16293,8 +17687,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16326,8 +17726,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16359,8 +17765,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16392,8 +17804,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16425,8 +17843,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16458,8 +17882,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16491,8 +17921,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16524,8 +17960,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16557,8 +17999,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16590,8 +18038,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16623,8 +18077,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16656,8 +18116,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16689,8 +18155,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16722,8 +18194,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16755,8 +18233,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16788,8 +18272,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16821,8 +18311,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16854,8 +18350,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16887,8 +18389,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16920,8 +18428,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16953,8 +18467,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16986,8 +18506,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17019,8 +18545,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17052,8 +18584,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17085,8 +18623,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17118,8 +18662,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17151,8 +18701,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17181,15 +18737,17 @@
         <v>55296.55392228999</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>3387</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>3387</v>
-      </c>
-      <c r="K478" t="inlineStr"/>
+        <v>3396</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17222,11 +18780,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>3387</v>
+        <v>3396</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L479" t="n">
@@ -17261,11 +18819,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>3387</v>
+        <v>3396</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L480" t="n">
@@ -17299,8 +18857,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17332,8 +18896,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17365,8 +18935,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17398,8 +18974,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17431,8 +19013,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17464,8 +19052,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17497,8 +19091,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17530,8 +19130,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17563,8 +19169,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17596,8 +19208,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17629,8 +19247,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17659,13 +19283,19 @@
         <v>81963.99247213999</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L492" t="n">
-        <v>1</v>
+        <v>1.000005889281508</v>
       </c>
       <c r="M492" t="inlineStr"/>
     </row>
@@ -17692,7 +19322,7 @@
         <v>82745.66107213999</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17725,7 +19355,7 @@
         <v>76843.55407213999</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17758,7 +19388,7 @@
         <v>80226.01657213998</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17791,7 +19421,7 @@
         <v>80226.01657213998</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17824,7 +19454,7 @@
         <v>79878.93787213998</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17890,7 +19520,7 @@
         <v>79812.93267213998</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17923,7 +19553,7 @@
         <v>79812.06527213998</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -24061,7 +25691,7 @@
         <v>116953.7890317</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24094,7 +25724,7 @@
         <v>115931.4572317</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24127,7 +25757,7 @@
         <v>117504.4555317</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24160,7 +25790,7 @@
         <v>109030.7397317</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24193,7 +25823,7 @@
         <v>107913.6859317</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24259,7 +25889,7 @@
         <v>108376.9876317</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24292,7 +25922,7 @@
         <v>107055.7118317</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24325,7 +25955,7 @@
         <v>107395.5447317</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24358,7 +25988,7 @@
         <v>107235.7412317</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24391,7 +26021,7 @@
         <v>107833.2356317</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24424,7 +26054,7 @@
         <v>107705.6323317</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24457,7 +26087,7 @@
         <v>108556.6451317</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24490,7 +26120,7 @@
         <v>108611.6451317</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24523,7 +26153,7 @@
         <v>108001.0941317</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24556,7 +26186,7 @@
         <v>108007.09587816</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24589,7 +26219,7 @@
         <v>109067.43577816</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24622,7 +26252,7 @@
         <v>109067.43577816</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24655,7 +26285,7 @@
         <v>109067.43577816</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24688,7 +26318,7 @@
         <v>109067.43577816</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24721,7 +26351,7 @@
         <v>109067.43577816</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24754,7 +26384,7 @@
         <v>107206.82727816</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24787,7 +26417,7 @@
         <v>107206.82727816</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24820,7 +26450,7 @@
         <v>107206.82727816</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24853,7 +26483,7 @@
         <v>107000.14807816</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24886,7 +26516,7 @@
         <v>104680.02947816</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25084,7 +26714,7 @@
         <v>103796.51668015</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25150,7 +26780,7 @@
         <v>102521.48618015</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25183,7 +26813,7 @@
         <v>102521.48618015</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25216,7 +26846,7 @@
         <v>102521.48618015</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25249,7 +26879,7 @@
         <v>103616.03018015</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25282,7 +26912,7 @@
         <v>103016.40608015</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25315,7 +26945,7 @@
         <v>99054.73678014998</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25348,7 +26978,7 @@
         <v>98754.73698014997</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25381,7 +27011,7 @@
         <v>98782.87078014997</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25414,7 +27044,7 @@
         <v>98782.87078014997</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25447,7 +27077,7 @@
         <v>99367.00198014997</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25480,7 +27110,7 @@
         <v>99367.00198014997</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25513,7 +27143,7 @@
         <v>99367.00198014997</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25546,7 +27176,7 @@
         <v>99367.00198014997</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25579,7 +27209,7 @@
         <v>99367.00198014997</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25612,7 +27242,7 @@
         <v>99309.90078014997</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25645,7 +27275,7 @@
         <v>102613.76078015</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25678,7 +27308,7 @@
         <v>104249.46068015</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25711,7 +27341,7 @@
         <v>103349.07568015</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25744,7 +27374,7 @@
         <v>103893.81358015</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25777,7 +27407,7 @@
         <v>104436.27508015</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25810,7 +27440,7 @@
         <v>103778.41218015</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25843,7 +27473,7 @@
         <v>103778.12068015</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25876,7 +27506,7 @@
         <v>102577.82878015</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25909,7 +27539,7 @@
         <v>102747.82878015</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25942,7 +27572,7 @@
         <v>102747.82878015</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25975,7 +27605,7 @@
         <v>102377.99618015</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26008,7 +27638,7 @@
         <v>100968.98878015</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26041,7 +27671,7 @@
         <v>100938.98878015</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26074,7 +27704,7 @@
         <v>101224.57388015</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26107,7 +27737,7 @@
         <v>99479.11258014999</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26140,7 +27770,7 @@
         <v>99479.11258014999</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26173,7 +27803,7 @@
         <v>105510.52258015</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26206,7 +27836,7 @@
         <v>105210.95808015</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26239,7 +27869,7 @@
         <v>105210.95808015</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26272,7 +27902,7 @@
         <v>105253.66298015</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26305,7 +27935,7 @@
         <v>105331.31718015</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26338,7 +27968,7 @@
         <v>105243.34448015</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26371,7 +28001,7 @@
         <v>105243.34448015</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26404,7 +28034,7 @@
         <v>106009.55528015</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26437,7 +28067,7 @@
         <v>105039.98278015</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26470,7 +28100,7 @@
         <v>104940.34768015</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26503,7 +28133,7 @@
         <v>104941.80788015</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26536,7 +28166,7 @@
         <v>104941.80788015</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -26569,7 +28199,7 @@
         <v>104943.30788015</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -26602,7 +28232,7 @@
         <v>104650.29788015</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26635,7 +28265,7 @@
         <v>104653.29788015</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -26668,7 +28298,7 @@
         <v>104488.48918015</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -26701,7 +28331,7 @@
         <v>104490.89828015</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -26734,7 +28364,7 @@
         <v>104479.28828015</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -26767,7 +28397,7 @@
         <v>104479.68828015</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -26800,7 +28430,7 @@
         <v>103496.00148015</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -26833,7 +28463,7 @@
         <v>103297.75928015</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -26866,7 +28496,7 @@
         <v>103298.25928015</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -26899,7 +28529,7 @@
         <v>101846.12278015</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26932,7 +28562,7 @@
         <v>92686.25818015003</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26965,7 +28595,7 @@
         <v>93352.32218015003</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26998,7 +28628,7 @@
         <v>94636.55158015003</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27031,7 +28661,7 @@
         <v>99103.83698015002</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27064,7 +28694,7 @@
         <v>98778.64718015003</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27097,7 +28727,7 @@
         <v>92063.62458015003</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27130,7 +28760,7 @@
         <v>92085.61868015003</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27163,7 +28793,7 @@
         <v>92085.61868015003</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27196,7 +28826,7 @@
         <v>92166.77788015002</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27229,7 +28859,7 @@
         <v>92112.77788015002</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27262,7 +28892,7 @@
         <v>92112.77788015002</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27295,7 +28925,7 @@
         <v>91890.30638015002</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27328,7 +28958,7 @@
         <v>91890.01318015002</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27361,7 +28991,7 @@
         <v>91879.41128015003</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27427,7 +29057,7 @@
         <v>89085.95938015003</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -29836,7 +31466,7 @@
         <v>103201.5117849</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -29869,7 +31499,7 @@
         <v>103141.0525849</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30067,7 +31697,7 @@
         <v>107370.04209989</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -30100,7 +31730,7 @@
         <v>107391.54359989</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -30133,7 +31763,7 @@
         <v>106247.21039989</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -30166,7 +31796,7 @@
         <v>88115.62409989005</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30199,7 +31829,7 @@
         <v>56178.18349989004</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30232,7 +31862,7 @@
         <v>82162.99229989004</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -31882,7 +33512,7 @@
         <v>76236.5642849</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -32047,7 +33677,7 @@
         <v>68154.02248489998</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32080,7 +33710,7 @@
         <v>64498.98948402998</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32113,7 +33743,7 @@
         <v>64216.99388402998</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32146,7 +33776,7 @@
         <v>64798.96358402998</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32179,7 +33809,7 @@
         <v>64033.88798402999</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32509,7 +34139,7 @@
         <v>62775.04498402998</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -32674,7 +34304,7 @@
         <v>64654.20068402999</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -32707,7 +34337,7 @@
         <v>63224.96778402998</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -32740,7 +34370,7 @@
         <v>66098.66558402998</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -32773,7 +34403,7 @@
         <v>63770.53208402998</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -32806,7 +34436,7 @@
         <v>63985.85368402999</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -32839,7 +34469,7 @@
         <v>70249.28190322999</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -32872,7 +34502,7 @@
         <v>70133.64190322999</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -32905,7 +34535,7 @@
         <v>73855.86940322998</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -32938,7 +34568,7 @@
         <v>78693.54140322999</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -32971,7 +34601,7 @@
         <v>78693.54140322999</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -33004,7 +34634,7 @@
         <v>78473.04090322999</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -33037,7 +34667,7 @@
         <v>78503.04090322999</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -33070,7 +34700,7 @@
         <v>75713.96700322999</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -33103,7 +34733,7 @@
         <v>76481.30840323</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -33136,7 +34766,7 @@
         <v>76146.74920322999</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -33202,7 +34832,7 @@
         <v>76176.23880322999</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33235,7 +34865,7 @@
         <v>76851.16380323</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -33565,7 +35195,7 @@
         <v>114671.51692411</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -33598,7 +35228,7 @@
         <v>112755.57962411</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -33631,7 +35261,7 @@
         <v>112695.22202411</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -33642,6 +35272,6 @@
       <c r="M976" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest EOS.xlsx
+++ b/BackTest/2019-10-19 BackTest EOS.xlsx
@@ -451,7 +451,7 @@
         <v>6346.497691400008</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -521,9 +521,11 @@
         <v>8820.626291400007</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3388</v>
+      </c>
       <c r="J4" t="n">
         <v>3377</v>
       </c>
@@ -560,9 +562,11 @@
         <v>8834.646291400008</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3388</v>
+      </c>
       <c r="J5" t="n">
         <v>3377</v>
       </c>
@@ -599,10 +603,14 @@
         <v>8834.646291400008</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3389</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3389</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -632,11 +640,19 @@
         <v>8816.456491400008</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3389</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -665,11 +681,19 @@
         <v>8816.456491400008</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3388</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -698,11 +722,19 @@
         <v>9111.613091400008</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3388</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -731,11 +763,19 @@
         <v>22283.76729140001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3389</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -764,11 +804,19 @@
         <v>31143.0887914</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3399</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -800,8 +848,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -833,8 +887,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -866,8 +926,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -899,8 +965,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -932,8 +1004,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -965,8 +1043,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -998,8 +1082,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1031,8 +1121,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1064,8 +1160,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1097,8 +1199,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1130,8 +1238,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1163,8 +1277,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1196,8 +1316,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1229,8 +1355,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1262,8 +1394,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1295,8 +1433,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1328,8 +1472,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1361,8 +1511,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1394,8 +1550,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1427,8 +1589,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1460,8 +1628,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1493,8 +1667,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1526,8 +1706,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1559,8 +1745,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1592,8 +1784,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1622,11 +1820,19 @@
         <v>22862.1848914</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3381</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1655,11 +1861,19 @@
         <v>25012.1398914</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3386</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1688,11 +1902,19 @@
         <v>25012.1398914</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3390</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1721,11 +1943,19 @@
         <v>24983.8652914</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3390</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1754,11 +1984,19 @@
         <v>21783.8652914</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3388</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1787,11 +2025,19 @@
         <v>21739.1379914</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3385</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1820,11 +2066,19 @@
         <v>22033.2989914</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3384</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1853,11 +2107,19 @@
         <v>17900.6568914</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3391</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1886,11 +2148,19 @@
         <v>17900.6568914</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3390</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1919,11 +2189,19 @@
         <v>17825.8068914</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3390</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1952,11 +2230,19 @@
         <v>17874.4922914</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3388</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1985,11 +2271,19 @@
         <v>17874.4922914</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3390</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2018,11 +2312,19 @@
         <v>17874.4922914</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3390</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2051,11 +2353,19 @@
         <v>17874.4922914</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3390</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2090,9 +2400,13 @@
         <v>3390</v>
       </c>
       <c r="J51" t="n">
-        <v>3390</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+        <v>3389</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2121,15 +2435,17 @@
         <v>18008.0022914</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3395</v>
+      </c>
       <c r="J52" t="n">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2160,15 +2476,17 @@
         <v>18096.3234914</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3395</v>
+      </c>
       <c r="J53" t="n">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2199,11 +2517,19 @@
         <v>18116.7946914</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3396</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2235,8 +2561,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2268,8 +2600,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2298,11 +2636,19 @@
         <v>14885.7946914</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3392</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2331,11 +2677,19 @@
         <v>14851.0541914</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3391</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2364,11 +2718,19 @@
         <v>14831.0541914</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3390</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2397,11 +2759,19 @@
         <v>14436.3255914</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3389</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3389</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2436,9 +2806,13 @@
         <v>3387</v>
       </c>
       <c r="J61" t="n">
-        <v>3387</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+        <v>3389</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2473,11 +2847,11 @@
         <v>3389</v>
       </c>
       <c r="J62" t="n">
-        <v>3387</v>
+        <v>3389</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2514,11 +2888,11 @@
         <v>3389</v>
       </c>
       <c r="J63" t="n">
-        <v>3387</v>
+        <v>3389</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2549,15 +2923,17 @@
         <v>16279.1393914</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>3391</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+        <v>3389</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2586,17 +2962,15 @@
         <v>17615.0084914</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>3391</v>
+        <v>3389</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2627,17 +3001,15 @@
         <v>17915.0084914</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>3391</v>
+        <v>3389</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -2668,15 +3040,17 @@
         <v>17015.0084914</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
+        <v>3389</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2709,11 +3083,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -2744,13 +3118,11 @@
         <v>16881.0556914</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2785,13 +3157,11 @@
         <v>16970.2670914</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2832,7 +3202,7 @@
         <v>3391</v>
       </c>
       <c r="J71" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2873,7 +3243,7 @@
         <v>3390</v>
       </c>
       <c r="J72" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2914,7 +3284,7 @@
         <v>3390</v>
       </c>
       <c r="J73" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2955,7 +3325,7 @@
         <v>3390</v>
       </c>
       <c r="J74" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2996,7 +3366,7 @@
         <v>3392</v>
       </c>
       <c r="J75" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3037,7 +3407,7 @@
         <v>3390</v>
       </c>
       <c r="J76" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3078,7 +3448,7 @@
         <v>3390</v>
       </c>
       <c r="J77" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3119,7 +3489,7 @@
         <v>3391</v>
       </c>
       <c r="J78" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3160,7 +3530,7 @@
         <v>3391</v>
       </c>
       <c r="J79" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3201,7 +3571,7 @@
         <v>3390</v>
       </c>
       <c r="J80" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3242,7 +3612,7 @@
         <v>3390</v>
       </c>
       <c r="J81" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3283,7 +3653,7 @@
         <v>3393</v>
       </c>
       <c r="J82" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3318,11 +3688,13 @@
         <v>19123.8677914</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3403</v>
+      </c>
       <c r="J83" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3357,11 +3729,13 @@
         <v>19293.9121914</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3400</v>
+      </c>
       <c r="J84" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3396,11 +3770,13 @@
         <v>19093.9121914</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3405</v>
+      </c>
       <c r="J85" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3435,11 +3811,13 @@
         <v>19093.9121914</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3403</v>
+      </c>
       <c r="J86" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3474,11 +3852,13 @@
         <v>19095.9121914</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3403</v>
+      </c>
       <c r="J87" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3513,11 +3893,13 @@
         <v>18980.4524914</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3405</v>
+      </c>
       <c r="J88" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3552,11 +3934,13 @@
         <v>18198.4276914</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3401</v>
+      </c>
       <c r="J89" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3591,11 +3975,13 @@
         <v>16748.1977914</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3400</v>
+      </c>
       <c r="J90" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3630,11 +4016,13 @@
         <v>16748.1977914</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3398</v>
+      </c>
       <c r="J91" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3669,11 +4057,13 @@
         <v>17544.0018914</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3398</v>
+      </c>
       <c r="J92" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3714,7 +4104,7 @@
         <v>3399</v>
       </c>
       <c r="J93" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3749,11 +4139,13 @@
         <v>18008.20836198</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3400</v>
+      </c>
       <c r="J94" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3794,7 +4186,7 @@
         <v>3400</v>
       </c>
       <c r="J95" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3835,7 +4227,7 @@
         <v>3398</v>
       </c>
       <c r="J96" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3870,11 +4262,13 @@
         <v>18161.78096198</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3403</v>
+      </c>
       <c r="J97" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3909,11 +4303,13 @@
         <v>21361.78096198</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3402</v>
+      </c>
       <c r="J98" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3948,11 +4344,13 @@
         <v>11149.38086198</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3403</v>
+      </c>
       <c r="J99" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3987,11 +4385,13 @@
         <v>11149.38086198</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3400</v>
+      </c>
       <c r="J100" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4032,7 +4432,7 @@
         <v>3400</v>
       </c>
       <c r="J101" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4067,11 +4467,13 @@
         <v>11358.62086198</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3400</v>
+      </c>
       <c r="J102" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4112,7 +4514,7 @@
         <v>3403</v>
       </c>
       <c r="J103" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4153,7 +4555,7 @@
         <v>3403</v>
       </c>
       <c r="J104" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4194,7 +4596,7 @@
         <v>3402</v>
       </c>
       <c r="J105" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4233,7 +4635,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4272,7 +4674,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4307,19 +4709,19 @@
         <v>51688.93426198</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>3396</v>
+        <v>3389</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>1.014474771318973</v>
       </c>
       <c r="M108" t="inlineStr"/>
     </row>
@@ -4349,14 +4751,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4388,14 +4784,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4427,14 +4817,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4466,14 +4850,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4505,14 +4883,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4544,14 +4916,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4583,14 +4949,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4622,14 +4982,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4661,14 +5015,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4700,14 +5048,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4739,14 +5081,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4778,14 +5114,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4817,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4856,14 +5180,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4895,14 +5213,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4934,14 +5246,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4973,14 +5279,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5012,14 +5312,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5051,14 +5345,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5090,14 +5378,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5129,14 +5411,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5168,14 +5444,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5207,14 +5477,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5246,14 +5510,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5285,14 +5543,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5324,14 +5576,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5363,14 +5609,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5399,17 +5639,11 @@
         <v>58720.41546198</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5441,14 +5675,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5477,17 +5705,11 @@
         <v>63746.73446198</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5519,14 +5741,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5555,17 +5771,11 @@
         <v>60378.94336198</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5597,14 +5807,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5636,14 +5840,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5675,14 +5873,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5714,14 +5906,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5753,14 +5939,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5792,14 +5972,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5831,14 +6005,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5870,14 +6038,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5909,14 +6071,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5948,14 +6104,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5987,14 +6137,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6026,14 +6170,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6065,14 +6203,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6104,14 +6236,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6143,14 +6269,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6182,14 +6302,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6221,14 +6335,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6257,17 +6365,11 @@
         <v>53332.44216198001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6296,17 +6398,11 @@
         <v>55713.93946198001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6335,17 +6431,11 @@
         <v>59460.00526198</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6374,17 +6464,11 @@
         <v>59455.45826198001</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6413,17 +6497,11 @@
         <v>59455.45826198001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6452,17 +6530,11 @@
         <v>59455.45826198001</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6491,17 +6563,11 @@
         <v>59875.87706198001</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6530,17 +6596,11 @@
         <v>57267.39606198001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6569,17 +6629,11 @@
         <v>57060.88316198</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6608,17 +6662,11 @@
         <v>56349.65306198</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6650,14 +6698,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6689,14 +6731,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6728,14 +6764,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6767,14 +6797,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6806,14 +6830,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6845,14 +6863,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6884,14 +6896,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6923,14 +6929,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6962,14 +6962,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7001,14 +6995,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7040,14 +7028,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7079,14 +7061,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7118,14 +7094,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7157,14 +7127,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7196,14 +7160,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7235,14 +7193,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7274,14 +7226,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7313,14 +7259,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7352,14 +7292,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7391,14 +7325,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7430,14 +7358,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7469,14 +7391,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7508,14 +7424,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7547,14 +7457,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7586,14 +7490,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7625,14 +7523,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7664,14 +7556,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7703,14 +7589,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7742,14 +7622,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7781,14 +7655,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7820,14 +7688,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7859,14 +7721,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7898,14 +7754,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7937,14 +7787,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7976,14 +7820,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8015,14 +7853,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8054,14 +7886,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8093,14 +7919,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8132,14 +7952,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8171,14 +7985,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8210,14 +8018,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8249,14 +8051,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8288,14 +8084,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8327,14 +8117,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8366,14 +8150,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8405,14 +8183,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8444,14 +8216,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8483,14 +8249,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8522,14 +8282,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8561,14 +8315,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8600,14 +8348,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8639,14 +8381,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8678,14 +8414,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8717,14 +8447,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8756,14 +8480,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8795,14 +8513,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8834,14 +8546,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8873,14 +8579,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8912,14 +8612,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8951,14 +8645,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8990,14 +8678,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9029,14 +8711,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9068,14 +8744,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9107,14 +8777,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9146,14 +8810,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9185,14 +8843,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9224,14 +8876,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9263,14 +8909,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9302,14 +8942,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9341,14 +8975,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9377,17 +9005,11 @@
         <v>57215.47096198001</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9419,14 +9041,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9458,14 +9074,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9497,14 +9107,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9536,14 +9140,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9575,14 +9173,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9614,14 +9206,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9653,14 +9239,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9692,14 +9272,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9731,14 +9305,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9770,14 +9338,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9809,14 +9371,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9848,14 +9404,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9887,14 +9437,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9926,14 +9470,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9965,14 +9503,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10004,14 +9536,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10043,14 +9569,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10082,14 +9602,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10121,14 +9635,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10160,14 +9668,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10199,14 +9701,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10238,14 +9734,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10277,14 +9767,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10316,14 +9800,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10355,14 +9833,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10394,14 +9866,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10433,14 +9899,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10472,14 +9932,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10511,14 +9965,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10550,14 +9998,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10589,14 +10031,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10628,14 +10064,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10667,14 +10097,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10706,14 +10130,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10745,14 +10163,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10784,14 +10196,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10823,14 +10229,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10862,14 +10262,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10901,14 +10295,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10940,14 +10328,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10979,14 +10361,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11018,14 +10394,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11057,14 +10427,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11096,14 +10460,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11135,14 +10493,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11174,14 +10526,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11213,14 +10559,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11252,14 +10592,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11291,14 +10625,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11330,14 +10658,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11369,14 +10691,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11408,14 +10724,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11447,14 +10757,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11486,14 +10790,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11525,14 +10823,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11564,14 +10856,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11603,14 +10889,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11642,14 +10922,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11681,14 +10955,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11720,14 +10988,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11759,14 +11021,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11798,14 +11054,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11837,14 +11087,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11876,14 +11120,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11915,14 +11153,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11954,14 +11186,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11993,14 +11219,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12032,14 +11252,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12071,14 +11285,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12110,14 +11318,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12149,14 +11351,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12188,14 +11384,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12227,14 +11417,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12266,14 +11450,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12305,14 +11483,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12344,14 +11516,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12383,14 +11549,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12422,14 +11582,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12461,14 +11615,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12500,14 +11648,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12539,14 +11681,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12578,14 +11714,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12617,14 +11747,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12656,14 +11780,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12695,14 +11813,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12734,14 +11846,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12773,14 +11879,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12812,14 +11912,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12851,14 +11945,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12890,14 +11978,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12929,14 +12011,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12968,14 +12044,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13007,14 +12077,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13046,14 +12110,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13085,14 +12143,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13124,14 +12176,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13163,14 +12209,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13202,14 +12242,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13241,14 +12275,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13280,14 +12308,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13319,14 +12341,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13358,14 +12374,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13397,14 +12407,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13436,14 +12440,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13475,14 +12473,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13514,14 +12506,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13553,14 +12539,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13592,14 +12572,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13631,14 +12605,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13670,14 +12638,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13709,14 +12671,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13748,14 +12704,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13787,14 +12737,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13826,14 +12770,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13865,14 +12803,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13904,14 +12836,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13943,14 +12869,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13982,14 +12902,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14021,14 +12935,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14060,14 +12968,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14099,14 +13001,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14138,14 +13034,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14177,14 +13067,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14216,14 +13100,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14255,14 +13133,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14294,14 +13166,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14333,14 +13199,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14372,14 +13232,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14411,14 +13265,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14450,14 +13298,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14489,14 +13331,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14528,14 +13364,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14567,14 +13397,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14606,14 +13430,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14645,14 +13463,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14684,14 +13496,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14723,14 +13529,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14762,14 +13562,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14801,14 +13595,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14840,14 +13628,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14879,14 +13661,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14918,14 +13694,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14957,14 +13727,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14996,14 +13760,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15035,14 +13793,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15074,14 +13826,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15113,14 +13859,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15152,14 +13892,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15191,14 +13925,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15230,14 +13958,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15269,14 +13991,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15308,14 +14024,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15347,14 +14057,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15386,14 +14090,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15425,14 +14123,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15464,14 +14156,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15503,14 +14189,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15542,14 +14222,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15581,14 +14255,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15620,14 +14288,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15659,14 +14321,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15698,14 +14354,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15737,14 +14387,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15776,14 +14420,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15815,14 +14453,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15854,14 +14486,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15893,14 +14519,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15932,14 +14552,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15971,14 +14585,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16010,14 +14618,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16049,14 +14651,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16088,14 +14684,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16127,14 +14717,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16166,14 +14750,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16205,14 +14783,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16244,14 +14816,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16283,14 +14849,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16322,14 +14882,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16361,14 +14915,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16400,14 +14948,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16439,14 +14981,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16478,14 +15014,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16517,14 +15047,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16556,14 +15080,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16595,14 +15113,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16634,14 +15146,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16673,14 +15179,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16712,14 +15212,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16751,14 +15245,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16790,14 +15278,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16829,14 +15311,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16868,14 +15344,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16907,14 +15377,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16946,14 +15410,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16985,14 +15443,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17024,14 +15476,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17063,14 +15509,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17102,14 +15542,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17141,14 +15575,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17180,14 +15608,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17219,14 +15641,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17258,14 +15674,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17297,14 +15707,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17336,14 +15740,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17375,14 +15773,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17414,14 +15806,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17453,14 +15839,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17492,14 +15872,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17531,14 +15905,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17570,14 +15938,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17609,14 +15971,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17648,14 +16004,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17687,14 +16037,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17726,14 +16070,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17765,14 +16103,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17804,14 +16136,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17843,14 +16169,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17882,14 +16202,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17921,14 +16235,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17960,14 +16268,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17999,14 +16301,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18038,14 +16334,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18077,14 +16367,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18116,14 +16400,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18155,14 +16433,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18194,14 +16466,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18233,14 +16499,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18272,14 +16532,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18311,14 +16565,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18350,14 +16598,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18389,14 +16631,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18428,14 +16664,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18467,14 +16697,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18506,14 +16730,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18545,14 +16763,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18584,14 +16796,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18623,14 +16829,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18662,14 +16862,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18701,14 +16895,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18740,14 +16928,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18779,14 +16961,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18818,14 +16994,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18857,14 +17027,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18896,14 +17060,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18935,14 +17093,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18974,14 +17126,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19013,14 +17159,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19052,14 +17192,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19091,14 +17225,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19130,14 +17258,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19169,14 +17291,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19208,14 +17324,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19247,14 +17357,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19283,19 +17387,13 @@
         <v>81963.99247213999</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>3396</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
-        <v>1.000005889281508</v>
+        <v>1</v>
       </c>
       <c r="M492" t="inlineStr"/>
     </row>
@@ -19322,7 +17420,7 @@
         <v>82745.66107213999</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -19355,7 +17453,7 @@
         <v>76843.55407213999</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19388,7 +17486,7 @@
         <v>80226.01657213998</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19421,7 +17519,7 @@
         <v>80226.01657213998</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19454,7 +17552,7 @@
         <v>79878.93787213998</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19520,7 +17618,7 @@
         <v>79812.93267213998</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19553,7 +17651,7 @@
         <v>79812.06527213998</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -25460,7 +23558,7 @@
         <v>105433.3520317</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -25493,7 +23591,7 @@
         <v>114464.3363317</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -25526,7 +23624,7 @@
         <v>114464.3363317</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -25559,7 +23657,7 @@
         <v>115880.3189317</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25592,7 +23690,7 @@
         <v>115095.3682317</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25625,7 +23723,7 @@
         <v>117301.1900317</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25658,7 +23756,7 @@
         <v>116922.1638317</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25691,7 +23789,7 @@
         <v>116953.7890317</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25724,7 +23822,7 @@
         <v>115931.4572317</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25757,7 +23855,7 @@
         <v>117504.4555317</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25790,7 +23888,7 @@
         <v>109030.7397317</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25823,7 +23921,7 @@
         <v>107913.6859317</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25856,7 +23954,7 @@
         <v>108435.0046317</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25889,7 +23987,7 @@
         <v>108376.9876317</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25922,7 +24020,7 @@
         <v>107055.7118317</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25955,7 +24053,7 @@
         <v>107395.5447317</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25988,7 +24086,7 @@
         <v>107235.7412317</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -26021,7 +24119,7 @@
         <v>107833.2356317</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -26054,7 +24152,7 @@
         <v>107705.6323317</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -26087,7 +24185,7 @@
         <v>108556.6451317</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26120,7 +24218,7 @@
         <v>108611.6451317</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -26153,7 +24251,7 @@
         <v>108001.0941317</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -26186,7 +24284,7 @@
         <v>108007.09587816</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26219,7 +24317,7 @@
         <v>109067.43577816</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26252,7 +24350,7 @@
         <v>109067.43577816</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -26285,7 +24383,7 @@
         <v>109067.43577816</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -26318,7 +24416,7 @@
         <v>109067.43577816</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -26351,7 +24449,7 @@
         <v>109067.43577816</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26384,7 +24482,7 @@
         <v>107206.82727816</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26417,7 +24515,7 @@
         <v>107206.82727816</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26450,7 +24548,7 @@
         <v>107206.82727816</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26483,7 +24581,7 @@
         <v>107000.14807816</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26516,7 +24614,7 @@
         <v>104680.02947816</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26549,7 +24647,7 @@
         <v>104680.02947816</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26582,7 +24680,7 @@
         <v>106491.14657816</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26615,7 +24713,7 @@
         <v>104649.05567816</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26648,7 +24746,7 @@
         <v>105285.92637816</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -33512,7 +31610,7 @@
         <v>76236.5642849</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -33842,7 +31940,7 @@
         <v>63987.65748402999</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33875,7 +31973,7 @@
         <v>64792.70258402999</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33908,7 +32006,7 @@
         <v>64999.99198402999</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33941,7 +32039,7 @@
         <v>64926.90398402999</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33974,7 +32072,7 @@
         <v>64542.73808402999</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -34007,7 +32105,7 @@
         <v>67042.73808402999</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -34040,7 +32138,7 @@
         <v>65866.37658402999</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -34073,7 +32171,7 @@
         <v>65606.46258402999</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -34106,7 +32204,7 @@
         <v>64003.77258402998</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -34139,7 +32237,7 @@
         <v>62775.04498402998</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -34172,7 +32270,7 @@
         <v>62744.47268402998</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -34964,7 +33062,7 @@
         <v>100960.99702411</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -34997,7 +33095,7 @@
         <v>100065.34802411</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -35096,7 +33194,7 @@
         <v>112676.42572411</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -35129,7 +33227,7 @@
         <v>111982.50512411</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -35162,7 +33260,7 @@
         <v>116016.48272411</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -35195,7 +33293,7 @@
         <v>114671.51692411</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -35228,7 +33326,7 @@
         <v>112755.57962411</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -35261,7 +33359,7 @@
         <v>112695.22202411</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
